--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_DE.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\VisitReport\2019\DE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="14_{E967534C-440A-4CC7-968F-991BBAB01960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{327C8A57-6743-4AB7-AC00-19B4EE9F7F4D}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="14_{E967534C-440A-4CC7-968F-991BBAB01960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2CF5FCB0-B8BA-4251-BDDA-74E046FB847A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="checkbox">Specifications!$C$7:$D$24,Specifications!$C$28:$D$37,Specifications!$C$39:$D$48</definedName>
+    <definedName name="Field_type">Specifications!$Y$51:$Y$61,Specifications!$U$51:$U$61,Specifications!$Q$51:$Q$61,Specifications!$M$51:$M$61,Specifications!$I$51:$I$61,Specifications!$I$39:$I$48,Specifications!$M$39:$M$48,Specifications!$Q$39:$Q$48,Specifications!$U$39:$U$48,Specifications!$Y$39:$Y$48,Specifications!$Y$28:$Y$37,Specifications!$U$28:$U$37,Specifications!$Q$28:$Q$37,Specifications!$M$28:$M$37,Specifications!$I$28:$I$37,Specifications!$I$7:$I$24,Specifications!$M$7:$M$24,Specifications!$Q$7:$Q$24,Specifications!$U$7:$U$24,Specifications!$Y$7:$Y$24</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="96">
   <si>
     <t>Website</t>
   </si>
@@ -42,12 +46,6 @@
     <t>Fax</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Dropdown</t>
-  </si>
-  <si>
     <t>Salutation</t>
   </si>
   <si>
@@ -162,9 +160,6 @@
     <t>signature</t>
   </si>
   <si>
-    <t>picklist</t>
-  </si>
-  <si>
     <t>custom 1</t>
   </si>
   <si>
@@ -186,9 +181,6 @@
     <t>not used</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>"snapADDY"</t>
   </si>
   <si>
@@ -199,9 +191,6 @@
   </si>
   <si>
     <t>Default Value</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>CRM System: Sugar CRM</t>
@@ -274,15 +263,9 @@
     <t>Anrede</t>
   </si>
   <si>
-    <t>nicht benötigt</t>
-  </si>
-  <si>
     <t>Vorname</t>
   </si>
   <si>
-    <t>muss ausgefüllt sein</t>
-  </si>
-  <si>
     <t>Nachname</t>
   </si>
   <si>
@@ -292,9 +275,6 @@
     <t>Firma</t>
   </si>
   <si>
-    <t>andere Bemerkungen</t>
-  </si>
-  <si>
     <t>Telefon</t>
   </si>
   <si>
@@ -380,6 +360,12 @@
   </si>
   <si>
     <t>Export-Art</t>
+  </si>
+  <si>
+    <t>das ist eine Notiz</t>
+  </si>
+  <si>
+    <t>picklist</t>
   </si>
 </sst>
 </file>
@@ -1638,67 +1624,50 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1708,7 +1677,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1716,57 +1684,31 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <font>
         <b val="0"/>
@@ -2017,11 +1959,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="24"/>
-      <tableStyleElement type="headerRow" dxfId="23"/>
-      <tableStyleElement type="firstColumn" dxfId="22"/>
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="secondRowStripe" dxfId="20"/>
+      <tableStyleElement type="wholeTable" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="firstColumn" dxfId="18"/>
+      <tableStyleElement type="firstRowStripe" dxfId="17"/>
+      <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2642,32 +2584,32 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="1.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" customWidth="1"/>
+    <col min="10" max="10" width="1.6640625" customWidth="1"/>
     <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.6640625" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.7109375" customWidth="1"/>
+    <col min="18" max="18" width="1.6640625" customWidth="1"/>
     <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="1.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="1.5546875" customWidth="1" outlineLevel="1"/>
     <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="117" t="s">
-        <v>64</v>
+    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="98" t="s">
+        <v>59</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2676,9 +2618,9 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2687,108 +2629,108 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G3" s="60"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:25" ht="63" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="61.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="40" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E4" s="41"/>
-      <c r="G4" s="110" t="s">
+      <c r="G4" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="109" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="O4" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="S4" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="110" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="O4" s="110" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="S4" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="T4" s="105"/>
-      <c r="U4" s="106"/>
-      <c r="W4" s="104" t="s">
-        <v>62</v>
-      </c>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="106"/>
-    </row>
-    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T4" s="104"/>
+      <c r="U4" s="105"/>
+      <c r="W4" s="103" t="s">
+        <v>57</v>
+      </c>
+      <c r="X4" s="104"/>
+      <c r="Y4" s="105"/>
+    </row>
+    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="69"/>
       <c r="C6" s="70"/>
       <c r="D6" s="70"/>
       <c r="E6" s="51" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G6" s="73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H6" s="74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I6" s="75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L6" s="74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="74" t="s">
-        <v>32</v>
-      </c>
       <c r="Q6" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="93" t="s">
-        <v>32</v>
-      </c>
       <c r="U6" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="W6" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="X6" s="93" t="s">
-        <v>32</v>
-      </c>
       <c r="Y6" s="94" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="20"/>
       <c r="C7" s="25"/>
@@ -2811,112 +2753,104 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="77"/>
     </row>
-    <row r="8" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="61" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C8" s="63"/>
-      <c r="D8" s="64" t="s">
-        <v>51</v>
-      </c>
+      <c r="D8" s="64"/>
       <c r="E8" s="65"/>
       <c r="G8" s="78" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8" s="66"/>
       <c r="I8" s="79" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="J8" s="67"/>
       <c r="K8" s="78" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L8" s="66"/>
       <c r="M8" s="79" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="O8" s="78"/>
       <c r="P8" s="66"/>
       <c r="Q8" s="79"/>
       <c r="S8" s="78" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T8" s="66" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U8" s="79"/>
       <c r="W8" s="78"/>
       <c r="X8" s="66"/>
       <c r="Y8" s="79"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>51</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="49"/>
       <c r="G9" s="80" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="80" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O9" s="80"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="81"/>
       <c r="S9" s="84" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U9" s="81"/>
       <c r="W9" s="80"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="81"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="27" t="s">
-        <v>51</v>
-      </c>
+      <c r="C10" s="27"/>
       <c r="D10" s="28"/>
       <c r="E10" s="49"/>
       <c r="G10" s="80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O10" s="80"/>
       <c r="P10" s="5"/>
@@ -2928,28 +2862,28 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="81"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="27"/>
       <c r="D11" s="28"/>
       <c r="E11" s="49"/>
       <c r="G11" s="80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O11" s="80"/>
       <c r="P11" s="5"/>
@@ -2961,33 +2895,31 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="81"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B12" s="21"/>
       <c r="C12" s="27"/>
       <c r="D12" s="28"/>
       <c r="E12" s="49"/>
       <c r="G12" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="80"/>
       <c r="L12" s="5"/>
       <c r="M12" s="81"/>
       <c r="O12" s="80" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="S12" s="80"/>
       <c r="T12" s="5"/>
@@ -2996,7 +2928,7 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="81"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -3005,26 +2937,26 @@
       <c r="D13" s="28"/>
       <c r="E13" s="49"/>
       <c r="G13" s="76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="77" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="76" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="77" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O13" s="76" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="77" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="S13" s="80"/>
       <c r="T13" s="5"/>
@@ -3033,37 +2965,35 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="81"/>
     </row>
-    <row r="14" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="61" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="62"/>
       <c r="C14" s="63"/>
-      <c r="D14" s="64" t="s">
-        <v>51</v>
-      </c>
+      <c r="D14" s="64"/>
       <c r="E14" s="65"/>
       <c r="G14" s="82" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H14" s="68"/>
       <c r="I14" s="83" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J14" s="67"/>
       <c r="K14" s="82" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L14" s="68"/>
       <c r="M14" s="83" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O14" s="82" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P14" s="68"/>
       <c r="Q14" s="83" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="S14" s="82"/>
       <c r="T14" s="68"/>
@@ -3072,35 +3002,35 @@
       <c r="X14" s="68"/>
       <c r="Y14" s="83"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>
       <c r="E15" s="49"/>
       <c r="G15" s="84" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="85" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="84" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="85" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O15" s="84" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="85" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="S15" s="80"/>
       <c r="T15" s="5"/>
@@ -3109,35 +3039,35 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="81"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="27"/>
       <c r="D16" s="28"/>
       <c r="E16" s="49"/>
       <c r="G16" s="80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="80" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O16" s="80" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="S16" s="80"/>
       <c r="T16" s="5"/>
@@ -3146,7 +3076,7 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="81"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -3155,26 +3085,26 @@
       <c r="D17" s="28"/>
       <c r="E17" s="49"/>
       <c r="G17" s="80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="80" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O17" s="80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="S17" s="80"/>
       <c r="T17" s="5"/>
@@ -3183,35 +3113,35 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="81"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
       <c r="E18" s="49"/>
       <c r="G18" s="80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O18" s="80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="S18" s="80"/>
       <c r="T18" s="5"/>
@@ -3220,28 +3150,28 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="81"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="49"/>
       <c r="G19" s="80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O19" s="80"/>
       <c r="P19" s="5"/>
@@ -3253,22 +3183,20 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="81"/>
     </row>
-    <row r="20" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="61" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B20" s="62"/>
       <c r="C20" s="63"/>
-      <c r="D20" s="64" t="s">
-        <v>51</v>
-      </c>
+      <c r="D20" s="64"/>
       <c r="E20" s="65"/>
       <c r="G20" s="82" t="s">
         <v>2</v>
       </c>
       <c r="H20" s="68"/>
       <c r="I20" s="83" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J20" s="67"/>
       <c r="K20" s="82" t="s">
@@ -3276,14 +3204,14 @@
       </c>
       <c r="L20" s="68"/>
       <c r="M20" s="83" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O20" s="82" t="s">
         <v>2</v>
       </c>
       <c r="P20" s="68"/>
       <c r="Q20" s="83" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="S20" s="82"/>
       <c r="T20" s="68"/>
@@ -3292,30 +3220,28 @@
       <c r="X20" s="68"/>
       <c r="Y20" s="83"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="27" t="s">
-        <v>51</v>
-      </c>
+      <c r="C21" s="27"/>
       <c r="D21" s="28"/>
       <c r="E21" s="49"/>
       <c r="G21" s="80" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="80" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O21" s="80"/>
       <c r="P21" s="5"/>
@@ -3327,9 +3253,9 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="81"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="27"/>
@@ -3340,7 +3266,7 @@
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="77" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="76"/>
@@ -3351,7 +3277,7 @@
       </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="77" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="S22" s="76"/>
       <c r="T22" s="6"/>
@@ -3360,9 +3286,9 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="77"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="27"/>
@@ -3385,7 +3311,7 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="77"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="24"/>
       <c r="C24" s="29"/>
@@ -3408,7 +3334,7 @@
       <c r="X24" s="87"/>
       <c r="Y24" s="88"/>
     </row>
-    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G25" s="8"/>
       <c r="H25" s="1"/>
       <c r="I25" s="9"/>
@@ -3426,117 +3352,115 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="9"/>
     </row>
-    <row r="26" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-      <c r="G26" s="111" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="112"/>
-      <c r="I26" s="113"/>
+      <c r="G26" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="111"/>
+      <c r="I26" s="112"/>
       <c r="J26" s="17"/>
-      <c r="K26" s="114" t="s">
-        <v>59</v>
-      </c>
-      <c r="L26" s="115"/>
-      <c r="M26" s="116"/>
+      <c r="K26" s="113" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" s="114"/>
+      <c r="M26" s="115"/>
       <c r="N26" s="17"/>
-      <c r="O26" s="114" t="s">
-        <v>60</v>
-      </c>
-      <c r="P26" s="115"/>
-      <c r="Q26" s="116"/>
+      <c r="O26" s="113" t="s">
+        <v>55</v>
+      </c>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="115"/>
       <c r="R26" s="17"/>
-      <c r="S26" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="T26" s="108"/>
-      <c r="U26" s="109"/>
+      <c r="S26" s="106" t="s">
+        <v>56</v>
+      </c>
+      <c r="T26" s="107"/>
+      <c r="U26" s="108"/>
       <c r="V26" s="17"/>
-      <c r="W26" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="X26" s="108"/>
-      <c r="Y26" s="109"/>
-    </row>
-    <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W26" s="106" t="s">
+        <v>56</v>
+      </c>
+      <c r="X26" s="107"/>
+      <c r="Y26" s="108"/>
+    </row>
+    <row r="27" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="55" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G27" s="73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H27" s="74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I27" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="K27" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" s="74" t="s">
-        <v>32</v>
-      </c>
       <c r="M27" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="O27" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="P27" s="74" t="s">
-        <v>32</v>
-      </c>
       <c r="Q27" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="S27" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="S27" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="T27" s="96" t="s">
-        <v>32</v>
-      </c>
       <c r="U27" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="W27" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="X27" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="W27" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="X27" s="96" t="s">
-        <v>32</v>
-      </c>
       <c r="Y27" s="97" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="119" t="s">
-        <v>81</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="100" t="s">
+        <v>73</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="32"/>
       <c r="E28" s="45"/>
       <c r="G28" s="80"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="81" t="s">
-        <v>43</v>
-      </c>
+      <c r="I28" s="81"/>
       <c r="K28" s="80"/>
       <c r="L28" s="5"/>
       <c r="M28" s="81"/>
@@ -3550,21 +3474,19 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="81"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="118" t="s">
-        <v>82</v>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" s="99" t="s">
+        <v>74</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="33"/>
       <c r="E29" s="46"/>
       <c r="G29" s="80"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="81" t="s">
-        <v>41</v>
-      </c>
+      <c r="I29" s="81"/>
       <c r="K29" s="80"/>
       <c r="L29" s="5"/>
       <c r="M29" s="81"/>
@@ -3578,12 +3500,12 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="81"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="118" t="s">
-        <v>83</v>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" s="99" t="s">
+        <v>75</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="33"/>
@@ -3604,12 +3526,12 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="81"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="118" t="s">
-        <v>84</v>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31" s="99" t="s">
+        <v>76</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="33"/>
@@ -3630,9 +3552,9 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="81"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="118" t="s">
-        <v>85</v>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32" s="99" t="s">
+        <v>77</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="38"/>
@@ -3654,9 +3576,9 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="81"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="118" t="s">
-        <v>86</v>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A33" s="99" t="s">
+        <v>78</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="38"/>
@@ -3678,9 +3600,9 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="81"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="118" t="s">
-        <v>87</v>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A34" s="99" t="s">
+        <v>79</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="38"/>
@@ -3702,9 +3624,9 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="81"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="118" t="s">
-        <v>88</v>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A35" s="99" t="s">
+        <v>80</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="38"/>
@@ -3726,9 +3648,9 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="81"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="118" t="s">
-        <v>89</v>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A36" s="99" t="s">
+        <v>81</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="38"/>
@@ -3750,9 +3672,9 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="81"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="118" t="s">
-        <v>90</v>
+    <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="99" t="s">
+        <v>82</v>
       </c>
       <c r="B37" s="34"/>
       <c r="C37" s="39"/>
@@ -3774,67 +3696,67 @@
       <c r="X37" s="87"/>
       <c r="Y37" s="88"/>
     </row>
-    <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G38" s="73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H38" s="74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I38" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="K38" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" s="74" t="s">
-        <v>32</v>
-      </c>
       <c r="M38" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="O38" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="O38" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="P38" s="89" t="s">
-        <v>32</v>
-      </c>
       <c r="Q38" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="S38" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="T38" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="S38" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="T38" s="96" t="s">
-        <v>32</v>
-      </c>
       <c r="U38" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="W38" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="X38" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="W38" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="X38" s="96" t="s">
-        <v>32</v>
-      </c>
       <c r="Y38" s="97" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="119" t="s">
-        <v>91</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="100" t="s">
+        <v>83</v>
       </c>
       <c r="B39" s="32"/>
       <c r="C39" s="37"/>
@@ -3856,9 +3778,9 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="81"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="118" t="s">
-        <v>92</v>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A40" s="99" t="s">
+        <v>84</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="38"/>
@@ -3880,9 +3802,9 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="81"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="118" t="s">
-        <v>83</v>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A41" s="99" t="s">
+        <v>75</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="38"/>
@@ -3904,9 +3826,9 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="81"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="118" t="s">
-        <v>84</v>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A42" s="99" t="s">
+        <v>76</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="38"/>
@@ -3928,9 +3850,9 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="81"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="118" t="s">
-        <v>85</v>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A43" s="99" t="s">
+        <v>77</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="38"/>
@@ -3952,9 +3874,9 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="81"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="118" t="s">
-        <v>86</v>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A44" s="99" t="s">
+        <v>78</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="38"/>
@@ -3976,9 +3898,9 @@
       <c r="X44" s="5"/>
       <c r="Y44" s="81"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="118" t="s">
-        <v>87</v>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A45" s="99" t="s">
+        <v>79</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="38"/>
@@ -4000,9 +3922,9 @@
       <c r="X45" s="5"/>
       <c r="Y45" s="81"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="118" t="s">
-        <v>88</v>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A46" s="99" t="s">
+        <v>80</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="38"/>
@@ -4024,9 +3946,9 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="81"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="118" t="s">
-        <v>89</v>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A47" s="99" t="s">
+        <v>81</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="38"/>
@@ -4048,9 +3970,9 @@
       <c r="X47" s="5"/>
       <c r="Y47" s="81"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="118" t="s">
-        <v>90</v>
+    <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="99" t="s">
+        <v>82</v>
       </c>
       <c r="B48" s="34"/>
       <c r="C48" s="39"/>
@@ -4072,80 +3994,80 @@
       <c r="X48" s="87"/>
       <c r="Y48" s="88"/>
     </row>
-    <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G50" s="73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H50" s="74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I50" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="K50" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="L50" s="74" t="s">
-        <v>32</v>
-      </c>
       <c r="M50" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="O50" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="P50" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="O50" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="P50" s="74" t="s">
-        <v>32</v>
-      </c>
       <c r="Q50" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="S50" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="T50" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="S50" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="T50" s="93" t="s">
-        <v>32</v>
-      </c>
       <c r="U50" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="W50" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="X50" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="W50" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="X50" s="93" t="s">
-        <v>32</v>
-      </c>
       <c r="Y50" s="94" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="120" t="s">
-        <v>93</v>
-      </c>
-      <c r="B51" s="121" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="122"/>
-      <c r="D51" s="123"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="117"/>
+      <c r="D51" s="118"/>
       <c r="E51" s="42"/>
       <c r="G51" s="80"/>
       <c r="H51" s="5"/>
@@ -4163,15 +4085,15 @@
       <c r="X51" s="5"/>
       <c r="Y51" s="81"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="B52" s="125" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="126"/>
-      <c r="D52" s="127"/>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A52" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="120"/>
+      <c r="D52" s="121"/>
       <c r="E52" s="43"/>
       <c r="G52" s="80"/>
       <c r="H52" s="5"/>
@@ -4189,15 +4111,15 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="81"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="124" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="125" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="126"/>
-      <c r="D53" s="127"/>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A53" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="120"/>
+      <c r="D53" s="121"/>
       <c r="E53" s="43"/>
       <c r="G53" s="80"/>
       <c r="H53" s="5"/>
@@ -4215,15 +4137,15 @@
       <c r="X53" s="5"/>
       <c r="Y53" s="81"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="124" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="125" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="126"/>
-      <c r="D54" s="127"/>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A54" s="102" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="119" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="120"/>
+      <c r="D54" s="121"/>
       <c r="E54" s="43"/>
       <c r="G54" s="80"/>
       <c r="H54" s="5"/>
@@ -4241,26 +4163,26 @@
       <c r="X54" s="5"/>
       <c r="Y54" s="81"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="124" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="126"/>
-      <c r="D55" s="127"/>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A55" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="119" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="120"/>
+      <c r="D55" s="121"/>
       <c r="E55" s="43" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G55" s="80" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I55" s="81" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K55" s="80"/>
       <c r="L55" s="5"/>
@@ -4275,7 +4197,7 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="81"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="35"/>
       <c r="B56" s="56"/>
       <c r="C56" s="57"/>
@@ -4297,11 +4219,11 @@
       <c r="X56" s="5"/>
       <c r="Y56" s="81"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="35"/>
-      <c r="B57" s="98"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="100"/>
+      <c r="B57" s="122"/>
+      <c r="C57" s="123"/>
+      <c r="D57" s="124"/>
       <c r="E57" s="43"/>
       <c r="G57" s="80"/>
       <c r="H57" s="5"/>
@@ -4319,11 +4241,11 @@
       <c r="X57" s="5"/>
       <c r="Y57" s="81"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="35"/>
-      <c r="B58" s="98"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="100"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="123"/>
+      <c r="D58" s="124"/>
       <c r="E58" s="43"/>
       <c r="G58" s="80"/>
       <c r="H58" s="5"/>
@@ -4341,11 +4263,11 @@
       <c r="X58" s="5"/>
       <c r="Y58" s="81"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="35"/>
-      <c r="B59" s="98"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="100"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="124"/>
       <c r="E59" s="43"/>
       <c r="G59" s="80"/>
       <c r="H59" s="5"/>
@@ -4363,11 +4285,11 @@
       <c r="X59" s="5"/>
       <c r="Y59" s="81"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="35"/>
-      <c r="B60" s="98"/>
-      <c r="C60" s="99"/>
-      <c r="D60" s="100"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="123"/>
+      <c r="D60" s="124"/>
       <c r="E60" s="43"/>
       <c r="G60" s="80"/>
       <c r="H60" s="5"/>
@@ -4385,11 +4307,11 @@
       <c r="X60" s="5"/>
       <c r="Y60" s="81"/>
     </row>
-    <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="36"/>
-      <c r="B61" s="101"/>
-      <c r="C61" s="102"/>
-      <c r="D61" s="103"/>
+      <c r="B61" s="125"/>
+      <c r="C61" s="126"/>
+      <c r="D61" s="127"/>
       <c r="E61" s="44"/>
       <c r="G61" s="86"/>
       <c r="H61" s="87"/>
@@ -4407,15 +4329,26 @@
       <c r="X61" s="87"/>
       <c r="Y61" s="88"/>
     </row>
-    <row r="62" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OJq2A8oNfP8LPHYDq8DQET2KV3GdthMOWu5Iq3kjSuPuobeIMtbJzULezbPZZXzFEmMWM3l0qPIbfc/TKLkiow==" saltValue="PIv5euQzjojB02X7drTq1Q==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yceK1HXRj9VsoUaWsrVXrnLpvtecsguzKQ9pIb0udsOFVVW6vjQHF4oHWC2PrEsq41SYZRCAl8WK7uxOdibYow==" saltValue="sS/LHbSPAPwl6yQHR8AXQw==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0"/>
   <protectedRanges>
+    <protectedRange sqref="S4:Y61" name="customEntities"/>
+    <protectedRange sqref="A1" name="Titel"/>
+    <protectedRange sqref="A7:Y24" name="Contact Fields"/>
     <protectedRange sqref="A28:Y37 A39:Y48 A51:Y61 A38:E38" name="Questionnaire"/>
-    <protectedRange sqref="A7:Y24" name="Contact Fields"/>
-    <protectedRange sqref="A1" name="Titel"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="S26:U26"/>
     <mergeCell ref="W4:Y4"/>
@@ -4426,71 +4359,61 @@
     <mergeCell ref="K26:M26"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A8:AG27 A38:AG38 B28:AG37 B39:AG48">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W51:Y61">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>$C51="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>$D51="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S51:U61">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>$C51="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>$D51="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O51:Q61">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>$C51="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>$D51="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51:M61">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>$C51="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>$D51="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:I61">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$C51="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$D51="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A37">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4502,6 +4425,14 @@
       <formula>$D39="x"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y51:Y61 U51:U61 Q51:Q61 M51:M61 I51:I61 I39:I48 M39:M48 Q39:Q48 U39:U48 Y39:Y48 Y28:Y37 U28:U37 Q28:Q37 M28:M37 I28:I37 I7:I24 M7:M24 Q7:Q24 U7:U24 Y7:Y24" xr:uid="{431B3996-F270-4C15-ABC5-F3DE1B386E1A}">
+      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D24 C28:D37 C39:D48" xr:uid="{F107F338-F4E1-4846-B740-D5F4398D0DCB}">
+      <formula1>"x"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4509,21 +4440,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -4732,32 +4648,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4774,4 +4680,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_DE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\VisitReport\2019\DE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="14_{E967534C-440A-4CC7-968F-991BBAB01960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2CF5FCB0-B8BA-4251-BDDA-74E046FB847A}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="14_{E967534C-440A-4CC7-968F-991BBAB01960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FBDA577F-CDF9-4C5F-B324-8521ED7841E5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="91">
   <si>
     <t>Website</t>
   </si>
@@ -85,21 +85,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>MailingStreet</t>
-  </si>
-  <si>
-    <t>MailingCity</t>
-  </si>
-  <si>
-    <t>MailingState</t>
-  </si>
-  <si>
-    <t>MailingPostalCode</t>
-  </si>
-  <si>
-    <t>MailingCountry</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -173,12 +158,6 @@
   </si>
   <si>
     <t>Field Value</t>
-  </si>
-  <si>
-    <t>mandatory</t>
-  </si>
-  <si>
-    <t>not used</t>
   </si>
   <si>
     <t>"snapADDY"</t>
@@ -366,6 +345,12 @@
   </si>
   <si>
     <t>picklist</t>
+  </si>
+  <si>
+    <t>Pflichtfeld</t>
+  </si>
+  <si>
+    <t>nicht benötigt</t>
   </si>
 </sst>
 </file>
@@ -2585,31 +2570,31 @@
   <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:I4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.6640625" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" customWidth="1"/>
     <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.6640625" customWidth="1"/>
-    <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="1.5546875" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="1.7109375" customWidth="1"/>
+    <col min="19" max="21" width="15" customWidth="1"/>
+    <col min="22" max="22" width="1.5703125" customWidth="1"/>
+    <col min="23" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="98" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2618,9 +2603,9 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2629,108 +2614,108 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G3" s="60"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:25" ht="61.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="79.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="40" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="E4" s="41"/>
       <c r="G4" s="109" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H4" s="109"/>
       <c r="I4" s="109"/>
       <c r="J4" s="7"/>
       <c r="K4" s="109" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="L4" s="109"/>
       <c r="M4" s="109"/>
       <c r="O4" s="109" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="P4" s="109"/>
       <c r="Q4" s="109"/>
       <c r="S4" s="103" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="T4" s="104"/>
       <c r="U4" s="105"/>
       <c r="W4" s="103" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="X4" s="104"/>
       <c r="Y4" s="105"/>
     </row>
-    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B6" s="69"/>
       <c r="C6" s="70"/>
       <c r="D6" s="70"/>
       <c r="E6" s="51" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G6" s="73" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H6" s="74" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I6" s="75" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="73" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L6" s="74" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M6" s="75" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O6" s="73" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P6" s="74" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="75" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S6" s="92" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T6" s="93" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="U6" s="94" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="W6" s="92" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="X6" s="93" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y6" s="94" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="20"/>
       <c r="C7" s="25"/>
@@ -2753,12 +2738,12 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="77"/>
     </row>
-    <row r="8" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
@@ -2766,35 +2751,39 @@
       <c r="G8" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="66"/>
+      <c r="H8" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="79" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J8" s="67"/>
       <c r="K8" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="66"/>
+      <c r="L8" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="M8" s="79" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O8" s="78"/>
       <c r="P8" s="66"/>
       <c r="Q8" s="79"/>
       <c r="S8" s="78" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T8" s="66" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="U8" s="79"/>
       <c r="W8" s="78"/>
       <c r="X8" s="66"/>
       <c r="Y8" s="79"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="27"/>
@@ -2803,35 +2792,39 @@
       <c r="G9" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="I9" s="81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="M9" s="81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O9" s="80"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="81"/>
       <c r="S9" s="84" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="U9" s="81"/>
       <c r="W9" s="80"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="81"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="27"/>
@@ -2840,17 +2833,21 @@
       <c r="G10" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="I10" s="81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="M10" s="81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O10" s="80"/>
       <c r="P10" s="5"/>
@@ -2862,9 +2859,9 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="81"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="27"/>
@@ -2873,17 +2870,21 @@
       <c r="G11" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="I11" s="81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="M11" s="81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O11" s="80"/>
       <c r="P11" s="5"/>
@@ -2895,9 +2896,9 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="81"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="27"/>
@@ -2906,20 +2907,24 @@
       <c r="G12" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="I12" s="81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="80"/>
       <c r="L12" s="5"/>
       <c r="M12" s="81"/>
       <c r="O12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="Q12" s="81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S12" s="80"/>
       <c r="T12" s="5"/>
@@ -2928,7 +2933,7 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="81"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -2939,24 +2944,30 @@
       <c r="G13" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I13" s="77" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="M13" s="77" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O13" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="Q13" s="77" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S13" s="80"/>
       <c r="T13" s="5"/>
@@ -2965,7 +2976,7 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="81"/>
     </row>
-    <row r="14" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
         <v>1</v>
       </c>
@@ -2976,24 +2987,30 @@
       <c r="G14" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="68"/>
+      <c r="H14" s="68" t="s">
+        <v>18</v>
+      </c>
       <c r="I14" s="83" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J14" s="67"/>
       <c r="K14" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="68"/>
+        <v>9</v>
+      </c>
+      <c r="L14" s="68" t="s">
+        <v>18</v>
+      </c>
       <c r="M14" s="83" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O14" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="P14" s="68"/>
+        <v>18</v>
+      </c>
+      <c r="P14" s="68" t="s">
+        <v>18</v>
+      </c>
       <c r="Q14" s="83" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S14" s="82"/>
       <c r="T14" s="68"/>
@@ -3002,9 +3019,9 @@
       <c r="X14" s="68"/>
       <c r="Y14" s="83"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="27"/>
@@ -3013,24 +3030,30 @@
       <c r="G15" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="I15" s="85" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="M15" s="85" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O15" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="Q15" s="85" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S15" s="80"/>
       <c r="T15" s="5"/>
@@ -3039,9 +3062,9 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="81"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="27"/>
@@ -3050,24 +3073,30 @@
       <c r="G16" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="I16" s="81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M16" s="81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O16" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="P16" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q16" s="81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S16" s="80"/>
       <c r="T16" s="5"/>
@@ -3076,7 +3105,7 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="81"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -3087,24 +3116,30 @@
       <c r="G17" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="I17" s="81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="M17" s="81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O17" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="P17" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Q17" s="81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S17" s="80"/>
       <c r="T17" s="5"/>
@@ -3113,9 +3148,9 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="81"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="27"/>
@@ -3124,24 +3159,30 @@
       <c r="G18" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I18" s="81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="5"/>
+      <c r="L18" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="M18" s="81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O18" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="P18" s="5"/>
+      <c r="P18" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="Q18" s="81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S18" s="80"/>
       <c r="T18" s="5"/>
@@ -3150,9 +3191,9 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="81"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="27"/>
@@ -3161,17 +3202,21 @@
       <c r="G19" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I19" s="81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="5"/>
+      <c r="L19" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="M19" s="81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O19" s="80"/>
       <c r="P19" s="5"/>
@@ -3183,9 +3228,9 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="81"/>
     </row>
-    <row r="20" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B20" s="62"/>
       <c r="C20" s="63"/>
@@ -3194,24 +3239,30 @@
       <c r="G20" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="68"/>
+      <c r="H20" s="68" t="s">
+        <v>2</v>
+      </c>
       <c r="I20" s="83" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J20" s="67"/>
       <c r="K20" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="68"/>
+      <c r="L20" s="68" t="s">
+        <v>2</v>
+      </c>
       <c r="M20" s="83" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O20" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="P20" s="68"/>
+      <c r="P20" s="68" t="s">
+        <v>2</v>
+      </c>
       <c r="Q20" s="83" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S20" s="82"/>
       <c r="T20" s="68"/>
@@ -3220,9 +3271,9 @@
       <c r="X20" s="68"/>
       <c r="Y20" s="83"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="27"/>
@@ -3231,17 +3282,21 @@
       <c r="G21" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I21" s="81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="5"/>
+      <c r="L21" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="M21" s="81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O21" s="80"/>
       <c r="P21" s="5"/>
@@ -3253,9 +3308,9 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="81"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="27"/>
@@ -3264,20 +3319,28 @@
       <c r="G22" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="I22" s="77" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="6"/>
+      <c r="K22" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M22" s="77"/>
       <c r="O22" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="P22" s="6"/>
+      <c r="P22" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="Q22" s="77" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S22" s="76"/>
       <c r="T22" s="6"/>
@@ -3286,9 +3349,9 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="77"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="27"/>
@@ -3311,7 +3374,7 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="77"/>
     </row>
-    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="24"/>
       <c r="C24" s="29"/>
@@ -3334,7 +3397,7 @@
       <c r="X24" s="87"/>
       <c r="Y24" s="88"/>
     </row>
-    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G25" s="8"/>
       <c r="H25" s="1"/>
       <c r="I25" s="9"/>
@@ -3352,108 +3415,108 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="9"/>
     </row>
-    <row r="26" spans="1:25" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="53" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="G26" s="110" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H26" s="111"/>
       <c r="I26" s="112"/>
       <c r="J26" s="17"/>
       <c r="K26" s="113" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="L26" s="114"/>
       <c r="M26" s="115"/>
       <c r="N26" s="17"/>
       <c r="O26" s="113" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="P26" s="114"/>
       <c r="Q26" s="115"/>
       <c r="R26" s="17"/>
       <c r="S26" s="106" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="T26" s="107"/>
       <c r="U26" s="108"/>
       <c r="V26" s="17"/>
       <c r="W26" s="106" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="X26" s="107"/>
       <c r="Y26" s="108"/>
     </row>
-    <row r="27" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="54" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="55" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G27" s="73" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H27" s="74" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I27" s="75" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K27" s="73" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L27" s="74" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M27" s="75" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O27" s="73" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P27" s="74" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q27" s="75" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S27" s="95" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T27" s="96" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="U27" s="97" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="W27" s="95" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="X27" s="96" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y27" s="97" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="100" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="32"/>
@@ -3474,12 +3537,12 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="81"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="99" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="33"/>
@@ -3500,12 +3563,12 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="81"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="99" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="33"/>
@@ -3526,12 +3589,12 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="81"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="99" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="33"/>
@@ -3552,9 +3615,9 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="81"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="99" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="38"/>
@@ -3576,9 +3639,9 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="81"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="99" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="38"/>
@@ -3600,9 +3663,9 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="81"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="99" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="38"/>
@@ -3624,9 +3687,9 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="81"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="99" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="38"/>
@@ -3648,9 +3711,9 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="81"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="99" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="38"/>
@@ -3672,9 +3735,9 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="81"/>
     </row>
-    <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="99" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B37" s="34"/>
       <c r="C37" s="39"/>
@@ -3696,67 +3759,67 @@
       <c r="X37" s="87"/>
       <c r="Y37" s="88"/>
     </row>
-    <row r="38" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G38" s="73" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H38" s="74" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I38" s="75" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K38" s="73" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L38" s="74" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M38" s="75" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O38" s="90" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P38" s="89" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q38" s="91" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S38" s="95" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T38" s="96" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="U38" s="97" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="W38" s="95" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="X38" s="96" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y38" s="97" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="100" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B39" s="32"/>
       <c r="C39" s="37"/>
@@ -3778,9 +3841,9 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="81"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="99" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="38"/>
@@ -3802,9 +3865,9 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="81"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="99" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="38"/>
@@ -3826,9 +3889,9 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="81"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="99" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="38"/>
@@ -3850,9 +3913,9 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="81"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="99" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="38"/>
@@ -3874,9 +3937,9 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="81"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="99" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="38"/>
@@ -3898,9 +3961,9 @@
       <c r="X44" s="5"/>
       <c r="Y44" s="81"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="99" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="38"/>
@@ -3922,9 +3985,9 @@
       <c r="X45" s="5"/>
       <c r="Y45" s="81"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="99" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="38"/>
@@ -3946,9 +4009,9 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="81"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="99" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="38"/>
@@ -3970,9 +4033,9 @@
       <c r="X47" s="5"/>
       <c r="Y47" s="81"/>
     </row>
-    <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="99" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B48" s="34"/>
       <c r="C48" s="39"/>
@@ -3994,77 +4057,77 @@
       <c r="X48" s="87"/>
       <c r="Y48" s="88"/>
     </row>
-    <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G50" s="73" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H50" s="74" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I50" s="75" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K50" s="73" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L50" s="74" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M50" s="75" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O50" s="73" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P50" s="74" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q50" s="75" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S50" s="92" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T50" s="93" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="U50" s="94" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="W50" s="92" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="X50" s="93" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y50" s="94" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="101" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B51" s="116" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C51" s="117"/>
       <c r="D51" s="118"/>
@@ -4085,12 +4148,12 @@
       <c r="X51" s="5"/>
       <c r="Y51" s="81"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="102" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B52" s="119" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C52" s="120"/>
       <c r="D52" s="121"/>
@@ -4111,12 +4174,12 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="81"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="102" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B53" s="119" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C53" s="120"/>
       <c r="D53" s="121"/>
@@ -4137,12 +4200,12 @@
       <c r="X53" s="5"/>
       <c r="Y53" s="81"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="102" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B54" s="119" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C54" s="120"/>
       <c r="D54" s="121"/>
@@ -4163,26 +4226,26 @@
       <c r="X54" s="5"/>
       <c r="Y54" s="81"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="102" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B55" s="119" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C55" s="120"/>
       <c r="D55" s="121"/>
       <c r="E55" s="43" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G55" s="80" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I55" s="81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K55" s="80"/>
       <c r="L55" s="5"/>
@@ -4197,7 +4260,7 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="81"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="35"/>
       <c r="B56" s="56"/>
       <c r="C56" s="57"/>
@@ -4219,7 +4282,7 @@
       <c r="X56" s="5"/>
       <c r="Y56" s="81"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="35"/>
       <c r="B57" s="122"/>
       <c r="C57" s="123"/>
@@ -4241,7 +4304,7 @@
       <c r="X57" s="5"/>
       <c r="Y57" s="81"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
       <c r="B58" s="122"/>
       <c r="C58" s="123"/>
@@ -4263,7 +4326,7 @@
       <c r="X58" s="5"/>
       <c r="Y58" s="81"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="35"/>
       <c r="B59" s="122"/>
       <c r="C59" s="123"/>
@@ -4285,7 +4348,7 @@
       <c r="X59" s="5"/>
       <c r="Y59" s="81"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="35"/>
       <c r="B60" s="122"/>
       <c r="C60" s="123"/>
@@ -4307,7 +4370,7 @@
       <c r="X60" s="5"/>
       <c r="Y60" s="81"/>
     </row>
-    <row r="61" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="36"/>
       <c r="B61" s="125"/>
       <c r="C61" s="126"/>
@@ -4329,9 +4392,9 @@
       <c r="X61" s="87"/>
       <c r="Y61" s="88"/>
     </row>
-    <row r="62" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yceK1HXRj9VsoUaWsrVXrnLpvtecsguzKQ9pIb0udsOFVVW6vjQHF4oHWC2PrEsq41SYZRCAl8WK7uxOdibYow==" saltValue="sS/LHbSPAPwl6yQHR8AXQw==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0"/>
+  <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
     <protectedRange sqref="S4:Y61" name="customEntities"/>
     <protectedRange sqref="A1" name="Titel"/>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_DE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\SugarCRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D20D6F-DA3E-4157-ADDB-6DFAD2C244FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49C2739-E680-4700-911D-8AAFFE393E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,6 +34,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{E3268CFE-0B4C-4C31-BA37-3A77853ACA5C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld ausgefüllt sein muss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{9D57FFB6-2E32-4969-A5C4-04D52C2F42B4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld nicht benötigt wird</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="104">
   <si>
@@ -86,25 +124,6 @@
   </si>
   <si>
     <t>Default Value</t>
-  </si>
-  <si>
-    <t>Sugar: Custom Entity</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sugar: Custom Entity </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(optional)</t>
-    </r>
   </si>
   <si>
     <t>Status</t>
@@ -389,14 +408,33 @@
     <t>SugarCRM: Prospect</t>
   </si>
   <si>
-    <t>SugarCRM: Custom Entity</t>
+    <t>Sugar: Additional Entity</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sugar: Additional Entity </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(optional)</t>
+    </r>
+  </si>
+  <si>
+    <t>SugarCRM: Additional Entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,6 +529,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2376,45 +2421,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2442,10 +2452,45 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3899,12 +3944,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3936,7 +3981,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="67" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3947,7 +3992,7 @@
     </row>
     <row r="2" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3966,43 +4011,43 @@
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4" s="30"/>
-      <c r="G4" s="149" t="s">
+      <c r="G4" s="171" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="149" t="s">
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="O4" s="171" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4" s="171"/>
+      <c r="Q4" s="171"/>
+      <c r="S4" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="O4" s="149" t="s">
+      <c r="T4" s="171"/>
+      <c r="U4" s="171"/>
+      <c r="W4" s="168" t="s">
+        <v>102</v>
+      </c>
+      <c r="X4" s="169"/>
+      <c r="Y4" s="170"/>
+      <c r="AA4" s="168" t="s">
         <v>101</v>
       </c>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
-      <c r="S4" s="149" t="s">
-        <v>102</v>
-      </c>
-      <c r="T4" s="149"/>
-      <c r="U4" s="149"/>
-      <c r="W4" s="146" t="s">
-        <v>18</v>
-      </c>
-      <c r="X4" s="147"/>
-      <c r="Y4" s="148"/>
-      <c r="AA4" s="146" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB4" s="147"/>
-      <c r="AC4" s="148"/>
+      <c r="AB4" s="169"/>
+      <c r="AC4" s="170"/>
     </row>
     <row r="5" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4099,45 +4144,45 @@
     </row>
     <row r="8" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="45"/>
       <c r="E8" s="46"/>
       <c r="G8" s="58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I8" s="59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M8" s="59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N8"/>
       <c r="O8" s="58"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="59"/>
       <c r="S8" s="58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U8" s="59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W8" s="111" t="s">
         <v>11</v>
@@ -4152,27 +4197,27 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="34"/>
       <c r="G9" s="58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I9" s="59" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M9" s="59" t="s">
         <v>10</v>
@@ -4181,10 +4226,10 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="59"/>
       <c r="S9" s="58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U9" s="59" t="s">
         <v>10</v>
@@ -4202,27 +4247,27 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="34"/>
       <c r="G10" s="58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I10" s="59" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M10" s="59" t="s">
         <v>10</v>
@@ -4231,10 +4276,10 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="59"/>
       <c r="S10" s="58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U10" s="59" t="s">
         <v>10</v>
@@ -4248,45 +4293,45 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
       <c r="E11" s="34"/>
       <c r="G11" s="58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I11" s="59" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M11" s="59" t="s">
         <v>10</v>
       </c>
       <c r="O11" s="58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="59" t="s">
         <v>10</v>
       </c>
       <c r="S11" s="58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U11" s="59" t="s">
         <v>10</v>
@@ -4300,45 +4345,45 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
       <c r="E12" s="34"/>
       <c r="G12" s="58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I12" s="59" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M12" s="59" t="s">
         <v>10</v>
       </c>
       <c r="O12" s="58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="59" t="s">
         <v>10</v>
       </c>
       <c r="S12" s="58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U12" s="59" t="s">
         <v>10</v>
@@ -4352,45 +4397,45 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="23"/>
       <c r="D13" s="24"/>
       <c r="E13" s="34"/>
       <c r="G13" s="56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I13" s="57" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M13" s="57" t="s">
         <v>10</v>
       </c>
       <c r="O13" s="56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="57" t="s">
         <v>10</v>
       </c>
       <c r="S13" s="56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U13" s="57" t="s">
         <v>10</v>
@@ -4404,45 +4449,45 @@
     </row>
     <row r="14" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" s="43"/>
       <c r="C14" s="44"/>
       <c r="D14" s="45"/>
       <c r="E14" s="46"/>
       <c r="G14" s="60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I14" s="61" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="47"/>
       <c r="K14" s="60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L14" s="48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M14" s="61" t="s">
         <v>10</v>
       </c>
       <c r="O14" s="60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P14" s="48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="61" t="s">
         <v>10</v>
       </c>
       <c r="S14" s="60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T14" s="48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="U14" s="61" t="s">
         <v>10</v>
@@ -4456,45 +4501,45 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
       <c r="E15" s="34"/>
       <c r="G15" s="62" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I15" s="63" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="62" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M15" s="63" t="s">
         <v>10</v>
       </c>
       <c r="O15" s="62" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q15" s="63" t="s">
         <v>10</v>
       </c>
       <c r="S15" s="62" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U15" s="63" t="s">
         <v>10</v>
@@ -4508,45 +4553,45 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
       <c r="E16" s="34"/>
       <c r="G16" s="58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I16" s="59" t="s">
         <v>10</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M16" s="59" t="s">
         <v>10</v>
       </c>
       <c r="O16" s="58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="59" t="s">
         <v>10</v>
       </c>
       <c r="S16" s="58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="U16" s="59" t="s">
         <v>10</v>
@@ -4560,45 +4605,45 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
       <c r="E17" s="34"/>
       <c r="G17" s="58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I17" s="59" t="s">
         <v>10</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M17" s="59" t="s">
         <v>10</v>
       </c>
       <c r="O17" s="58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="59" t="s">
         <v>10</v>
       </c>
       <c r="S17" s="58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U17" s="59" t="s">
         <v>10</v>
@@ -4612,45 +4657,45 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="23"/>
       <c r="D18" s="24"/>
       <c r="E18" s="34"/>
       <c r="G18" s="58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I18" s="59" t="s">
         <v>10</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M18" s="59" t="s">
         <v>10</v>
       </c>
       <c r="O18" s="58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="59" t="s">
         <v>10</v>
       </c>
       <c r="S18" s="58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U18" s="59" t="s">
         <v>10</v>
@@ -4664,27 +4709,27 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="23"/>
       <c r="D19" s="24"/>
       <c r="E19" s="34"/>
       <c r="G19" s="58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I19" s="59" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M19" s="59" t="s">
         <v>10</v>
@@ -4693,10 +4738,10 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="59"/>
       <c r="S19" s="58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U19" s="59" t="s">
         <v>10</v>
@@ -4720,7 +4765,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I20" s="61" t="s">
         <v>10</v>
@@ -4730,7 +4775,7 @@
         <v>2</v>
       </c>
       <c r="L20" s="48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M20" s="61" t="s">
         <v>10</v>
@@ -4739,7 +4784,7 @@
         <v>2</v>
       </c>
       <c r="P20" s="48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="61" t="s">
         <v>10</v>
@@ -4748,7 +4793,7 @@
         <v>2</v>
       </c>
       <c r="T20" s="48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U20" s="61" t="s">
         <v>10</v>
@@ -4772,7 +4817,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I21" s="59" t="s">
         <v>10</v>
@@ -4782,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="59" t="s">
         <v>10</v>
@@ -4791,7 +4836,7 @@
         <v>3</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="59" t="s">
         <v>10</v>
@@ -4800,7 +4845,7 @@
         <v>3</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U21" s="59" t="s">
         <v>10</v>
@@ -4821,29 +4866,29 @@
       <c r="D22" s="24"/>
       <c r="E22" s="34"/>
       <c r="G22" s="56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I22" s="57" t="s">
         <v>10</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M22" s="57" t="s">
         <v>10</v>
       </c>
       <c r="O22" s="56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="57" t="s">
         <v>10</v>
@@ -4860,17 +4905,17 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
       <c r="E23" s="34"/>
       <c r="G23" s="56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I23" s="57" t="s">
         <v>10</v>
@@ -4894,17 +4939,17 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="68"/>
       <c r="D24" s="69"/>
       <c r="E24" s="70"/>
       <c r="G24" s="56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I24" s="57" t="s">
         <v>10</v>
@@ -4975,41 +5020,41 @@
     </row>
     <row r="27" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="74" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B27" s="140"/>
       <c r="C27" s="140"/>
       <c r="D27" s="140"/>
       <c r="E27" s="141"/>
-      <c r="G27" s="159" t="s">
+      <c r="G27" s="150" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="151"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="150" t="s">
         <v>98</v>
       </c>
-      <c r="H27" s="160"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="159" t="s">
+      <c r="L27" s="151"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="150" t="s">
+        <v>99</v>
+      </c>
+      <c r="P27" s="151"/>
+      <c r="Q27" s="152"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="L27" s="160"/>
-      <c r="M27" s="161"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="159" t="s">
-        <v>101</v>
-      </c>
-      <c r="P27" s="160"/>
-      <c r="Q27" s="161"/>
-      <c r="R27" s="76"/>
-      <c r="S27" s="162" t="s">
-        <v>102</v>
-      </c>
-      <c r="T27" s="163"/>
-      <c r="U27" s="164"/>
+      <c r="T27" s="154"/>
+      <c r="U27" s="155"/>
       <c r="V27" s="76"/>
-      <c r="W27" s="165" t="s">
+      <c r="W27" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="X27" s="166"/>
-      <c r="Y27" s="167"/>
+      <c r="X27" s="157"/>
+      <c r="Y27" s="158"/>
       <c r="Z27" s="76"/>
       <c r="AA27" s="118" t="s">
         <v>103</v>
@@ -5019,10 +5064,10 @@
     </row>
     <row r="28" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="142" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" s="143" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" s="144"/>
       <c r="D28" s="144"/>
@@ -5086,15 +5131,15 @@
     </row>
     <row r="29" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B29" s="78" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="78"/>
       <c r="E29" s="77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G29" s="101"/>
       <c r="H29" s="6"/>
@@ -5117,7 +5162,7 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B30" s="78"/>
       <c r="C30" s="79"/>
@@ -5144,7 +5189,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B31" s="80"/>
       <c r="C31" s="81"/>
@@ -5171,7 +5216,7 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" s="80"/>
       <c r="C32" s="81"/>
@@ -5198,7 +5243,7 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B33" s="80"/>
       <c r="C33" s="81"/>
@@ -5225,7 +5270,7 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" s="80"/>
       <c r="C34" s="81"/>
@@ -5252,7 +5297,7 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B35" s="80"/>
       <c r="C35" s="81"/>
@@ -5279,7 +5324,7 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B36" s="80"/>
       <c r="C36" s="81"/>
@@ -5306,7 +5351,7 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B37" s="80"/>
       <c r="C37" s="81"/>
@@ -5333,7 +5378,7 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B38" s="80"/>
       <c r="C38" s="81"/>
@@ -5360,7 +5405,7 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B39" s="83"/>
       <c r="C39" s="84"/>
@@ -5411,15 +5456,15 @@
       <c r="AC40" s="117"/>
     </row>
     <row r="41" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="169" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" s="170" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
-      <c r="E41" s="171" t="s">
+      <c r="A41" s="147" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="148" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="149" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="108" t="s">
@@ -5480,7 +5525,7 @@
     </row>
     <row r="42" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B42" s="78"/>
       <c r="C42" s="79"/>
@@ -5507,7 +5552,7 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B43" s="80"/>
       <c r="C43" s="81"/>
@@ -5534,7 +5579,7 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B44" s="80"/>
       <c r="C44" s="81"/>
@@ -5561,7 +5606,7 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B45" s="80"/>
       <c r="C45" s="81"/>
@@ -5588,7 +5633,7 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B46" s="80"/>
       <c r="C46" s="81"/>
@@ -5615,7 +5660,7 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B47" s="80"/>
       <c r="C47" s="81"/>
@@ -5642,7 +5687,7 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B48" s="80"/>
       <c r="C48" s="81"/>
@@ -5669,7 +5714,7 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B49" s="80"/>
       <c r="C49" s="81"/>
@@ -5696,7 +5741,7 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B50" s="80"/>
       <c r="C50" s="81"/>
@@ -5723,7 +5768,7 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B51" s="83"/>
       <c r="C51" s="84"/>
@@ -5786,7 +5831,7 @@
       <c r="Y53" s="9"/>
     </row>
     <row r="54" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="168" t="s">
+      <c r="A54" s="146" t="s">
         <v>9</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -5854,13 +5899,13 @@
     </row>
     <row r="55" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A55" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="150" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="151"/>
-      <c r="D55" s="152"/>
+        <v>58</v>
+      </c>
+      <c r="B55" s="165" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="166"/>
+      <c r="D55" s="167"/>
       <c r="E55" s="72"/>
       <c r="G55" s="130"/>
       <c r="H55" s="5"/>
@@ -5883,13 +5928,13 @@
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="153" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="154"/>
-      <c r="D56" s="155"/>
+        <v>60</v>
+      </c>
+      <c r="B56" s="159" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="160"/>
+      <c r="D56" s="161"/>
       <c r="E56" s="72"/>
       <c r="G56" s="130"/>
       <c r="H56" s="5"/>
@@ -5912,13 +5957,13 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" s="153" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="154"/>
-      <c r="D57" s="155"/>
+        <v>62</v>
+      </c>
+      <c r="B57" s="159" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="160"/>
+      <c r="D57" s="161"/>
       <c r="E57" s="72"/>
       <c r="G57" s="130"/>
       <c r="H57" s="5"/>
@@ -5941,13 +5986,13 @@
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" s="153" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="154"/>
-      <c r="D58" s="155"/>
+        <v>64</v>
+      </c>
+      <c r="B58" s="159" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="160"/>
+      <c r="D58" s="161"/>
       <c r="E58" s="72"/>
       <c r="G58" s="130"/>
       <c r="H58" s="5"/>
@@ -5970,9 +6015,9 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="73"/>
-      <c r="B59" s="153"/>
-      <c r="C59" s="154"/>
-      <c r="D59" s="155"/>
+      <c r="B59" s="159"/>
+      <c r="C59" s="160"/>
+      <c r="D59" s="161"/>
       <c r="E59" s="72"/>
       <c r="G59" s="130"/>
       <c r="H59" s="5"/>
@@ -6020,9 +6065,9 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="27"/>
-      <c r="B61" s="153"/>
-      <c r="C61" s="154"/>
-      <c r="D61" s="155"/>
+      <c r="B61" s="159"/>
+      <c r="C61" s="160"/>
+      <c r="D61" s="161"/>
       <c r="E61" s="31"/>
       <c r="G61" s="130"/>
       <c r="H61" s="5"/>
@@ -6045,9 +6090,9 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="27"/>
-      <c r="B62" s="153"/>
-      <c r="C62" s="154"/>
-      <c r="D62" s="155"/>
+      <c r="B62" s="159"/>
+      <c r="C62" s="160"/>
+      <c r="D62" s="161"/>
       <c r="E62" s="31"/>
       <c r="G62" s="130"/>
       <c r="H62" s="5"/>
@@ -6070,9 +6115,9 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="27"/>
-      <c r="B63" s="153"/>
-      <c r="C63" s="154"/>
-      <c r="D63" s="155"/>
+      <c r="B63" s="159"/>
+      <c r="C63" s="160"/>
+      <c r="D63" s="161"/>
       <c r="E63" s="31"/>
       <c r="G63" s="130"/>
       <c r="H63" s="5"/>
@@ -6095,9 +6140,9 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="27"/>
-      <c r="B64" s="153"/>
-      <c r="C64" s="154"/>
-      <c r="D64" s="155"/>
+      <c r="B64" s="159"/>
+      <c r="C64" s="160"/>
+      <c r="D64" s="161"/>
       <c r="E64" s="31"/>
       <c r="G64" s="130"/>
       <c r="H64" s="5"/>
@@ -6120,9 +6165,9 @@
     </row>
     <row r="65" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="28"/>
-      <c r="B65" s="156"/>
-      <c r="C65" s="157"/>
-      <c r="D65" s="158"/>
+      <c r="B65" s="162"/>
+      <c r="C65" s="163"/>
+      <c r="D65" s="164"/>
       <c r="E65" s="32"/>
       <c r="G65" s="132"/>
       <c r="H65" s="133"/>
@@ -6156,27 +6201,27 @@
     <protectedRange sqref="N29:N40 J29:J40 R29:R40 A42:R52 A29:F40" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="21">
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="S4:U4"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="W27:Y27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="W8:AK26 A8:R26">
@@ -6427,27 +6472,28 @@
       <formula>$D40="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC55:AC65 Y55:Y65 Q55:Q65 M55:M65 I55:I65 I7:I25 AC7:AC25 Q7:Q25 U7:U25 Y7:Y25 U55:U65 M7:M25 Q42:Q52 I42:I52 M42:M52" xr:uid="{431B3996-F270-4C15-ABC5-F3DE1B386E1A}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25 C42:D52 C29:D40" xr:uid="{F107F338-F4E1-4846-B740-D5F4398D0DCB}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U42:U52 Q29:Q40 M29:M40 I29:I40 U29:U40 AC29:AC40 Y29:Y40 Y42:Y52 AC42:AC52" xr:uid="{F6BC6F71-7B77-4E78-9F62-806E05387D17}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 M7:M25 Q7:Q25 U7:U25 Y7:Y25 AC7:AC25 I29:I40 M29:M40 Q29:Q40 U29:U40 Y29:Y40 AC29:AC40 I42:I52 M42:M52 Q42:Q52 U42:U52 Y42:Y52 AC42:AC52 I55:I65 M55:M65 Q55:Q65 U55:U65 Y55:Y65 AC55:AC65" xr:uid="{476AB6F0-8A8E-430C-8131-5E7C101C21C3}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6660,27 +6706,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6705,9 +6739,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49C2739-E680-4700-911D-8AAFFE393E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF268BE-2C6A-4511-B33E-4F5F820E9656}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18630" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>"x" eingeben, wenn dieses Feld ausgefüllt sein muss</t>
         </r>
@@ -62,7 +62,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>"x" eingeben, wenn dieses Feld nicht benötigt wird</t>
         </r>
@@ -535,7 +535,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2425,6 +2425,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2452,50 +2491,55 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="71">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3252,11 +3296,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="66"/>
-      <tableStyleElement type="headerRow" dxfId="65"/>
-      <tableStyleElement type="firstColumn" dxfId="64"/>
-      <tableStyleElement type="firstRowStripe" dxfId="63"/>
-      <tableStyleElement type="secondRowStripe" dxfId="62"/>
+      <tableStyleElement type="wholeTable" dxfId="70"/>
+      <tableStyleElement type="headerRow" dxfId="69"/>
+      <tableStyleElement type="firstColumn" dxfId="68"/>
+      <tableStyleElement type="firstRowStripe" dxfId="67"/>
+      <tableStyleElement type="secondRowStripe" dxfId="66"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3948,8 +3992,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4017,37 +4061,37 @@
         <v>66</v>
       </c>
       <c r="E4" s="30"/>
-      <c r="G4" s="171" t="s">
+      <c r="G4" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="171" t="s">
+      <c r="K4" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="O4" s="171" t="s">
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="O4" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="P4" s="171"/>
-      <c r="Q4" s="171"/>
-      <c r="S4" s="171" t="s">
+      <c r="P4" s="153"/>
+      <c r="Q4" s="153"/>
+      <c r="S4" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="T4" s="171"/>
-      <c r="U4" s="171"/>
-      <c r="W4" s="168" t="s">
+      <c r="T4" s="153"/>
+      <c r="U4" s="153"/>
+      <c r="W4" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="X4" s="169"/>
-      <c r="Y4" s="170"/>
-      <c r="AA4" s="168" t="s">
+      <c r="X4" s="151"/>
+      <c r="Y4" s="152"/>
+      <c r="AA4" s="150" t="s">
         <v>101</v>
       </c>
-      <c r="AB4" s="169"/>
-      <c r="AC4" s="170"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="152"/>
     </row>
     <row r="5" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5026,35 +5070,35 @@
       <c r="C27" s="140"/>
       <c r="D27" s="140"/>
       <c r="E27" s="141"/>
-      <c r="G27" s="150" t="s">
+      <c r="G27" s="163" t="s">
         <v>96</v>
       </c>
-      <c r="H27" s="151"/>
-      <c r="I27" s="152"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="165"/>
       <c r="J27" s="75"/>
-      <c r="K27" s="150" t="s">
+      <c r="K27" s="163" t="s">
         <v>98</v>
       </c>
-      <c r="L27" s="151"/>
-      <c r="M27" s="152"/>
+      <c r="L27" s="164"/>
+      <c r="M27" s="165"/>
       <c r="N27" s="75"/>
-      <c r="O27" s="150" t="s">
+      <c r="O27" s="163" t="s">
         <v>99</v>
       </c>
-      <c r="P27" s="151"/>
-      <c r="Q27" s="152"/>
+      <c r="P27" s="164"/>
+      <c r="Q27" s="165"/>
       <c r="R27" s="76"/>
-      <c r="S27" s="153" t="s">
+      <c r="S27" s="166" t="s">
         <v>100</v>
       </c>
-      <c r="T27" s="154"/>
-      <c r="U27" s="155"/>
+      <c r="T27" s="167"/>
+      <c r="U27" s="168"/>
       <c r="V27" s="76"/>
-      <c r="W27" s="156" t="s">
+      <c r="W27" s="169" t="s">
         <v>103</v>
       </c>
-      <c r="X27" s="157"/>
-      <c r="Y27" s="158"/>
+      <c r="X27" s="170"/>
+      <c r="Y27" s="171"/>
       <c r="Z27" s="76"/>
       <c r="AA27" s="118" t="s">
         <v>103</v>
@@ -5901,11 +5945,11 @@
       <c r="A55" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="165" t="s">
+      <c r="B55" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="166"/>
-      <c r="D55" s="167"/>
+      <c r="C55" s="155"/>
+      <c r="D55" s="156"/>
       <c r="E55" s="72"/>
       <c r="G55" s="130"/>
       <c r="H55" s="5"/>
@@ -5930,11 +5974,11 @@
       <c r="A56" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="159" t="s">
+      <c r="B56" s="157" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="160"/>
-      <c r="D56" s="161"/>
+      <c r="C56" s="158"/>
+      <c r="D56" s="159"/>
       <c r="E56" s="72"/>
       <c r="G56" s="130"/>
       <c r="H56" s="5"/>
@@ -5959,11 +6003,11 @@
       <c r="A57" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="159" t="s">
+      <c r="B57" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="160"/>
-      <c r="D57" s="161"/>
+      <c r="C57" s="158"/>
+      <c r="D57" s="159"/>
       <c r="E57" s="72"/>
       <c r="G57" s="130"/>
       <c r="H57" s="5"/>
@@ -5988,11 +6032,11 @@
       <c r="A58" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="159" t="s">
+      <c r="B58" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="160"/>
-      <c r="D58" s="161"/>
+      <c r="C58" s="158"/>
+      <c r="D58" s="159"/>
       <c r="E58" s="72"/>
       <c r="G58" s="130"/>
       <c r="H58" s="5"/>
@@ -6015,9 +6059,9 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="73"/>
-      <c r="B59" s="159"/>
-      <c r="C59" s="160"/>
-      <c r="D59" s="161"/>
+      <c r="B59" s="157"/>
+      <c r="C59" s="158"/>
+      <c r="D59" s="159"/>
       <c r="E59" s="72"/>
       <c r="G59" s="130"/>
       <c r="H59" s="5"/>
@@ -6065,9 +6109,9 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="27"/>
-      <c r="B61" s="159"/>
-      <c r="C61" s="160"/>
-      <c r="D61" s="161"/>
+      <c r="B61" s="157"/>
+      <c r="C61" s="158"/>
+      <c r="D61" s="159"/>
       <c r="E61" s="31"/>
       <c r="G61" s="130"/>
       <c r="H61" s="5"/>
@@ -6090,9 +6134,9 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="27"/>
-      <c r="B62" s="159"/>
-      <c r="C62" s="160"/>
-      <c r="D62" s="161"/>
+      <c r="B62" s="157"/>
+      <c r="C62" s="158"/>
+      <c r="D62" s="159"/>
       <c r="E62" s="31"/>
       <c r="G62" s="130"/>
       <c r="H62" s="5"/>
@@ -6115,9 +6159,9 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="27"/>
-      <c r="B63" s="159"/>
-      <c r="C63" s="160"/>
-      <c r="D63" s="161"/>
+      <c r="B63" s="157"/>
+      <c r="C63" s="158"/>
+      <c r="D63" s="159"/>
       <c r="E63" s="31"/>
       <c r="G63" s="130"/>
       <c r="H63" s="5"/>
@@ -6140,9 +6184,9 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="27"/>
-      <c r="B64" s="159"/>
-      <c r="C64" s="160"/>
-      <c r="D64" s="161"/>
+      <c r="B64" s="157"/>
+      <c r="C64" s="158"/>
+      <c r="D64" s="159"/>
       <c r="E64" s="31"/>
       <c r="G64" s="130"/>
       <c r="H64" s="5"/>
@@ -6165,9 +6209,9 @@
     </row>
     <row r="65" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="28"/>
-      <c r="B65" s="162"/>
-      <c r="C65" s="163"/>
-      <c r="D65" s="164"/>
+      <c r="B65" s="160"/>
+      <c r="C65" s="161"/>
+      <c r="D65" s="162"/>
       <c r="E65" s="32"/>
       <c r="G65" s="132"/>
       <c r="H65" s="133"/>
@@ -6201,38 +6245,54 @@
     <protectedRange sqref="N29:N40 J29:J40 R29:R40 A42:R52 A29:F40" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="21">
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="S4:U4"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="W27:Y27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="W8:AK26 A8:R26">
-    <cfRule type="expression" dxfId="61" priority="67">
+    <cfRule type="expression" dxfId="65" priority="71">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="68">
+    <cfRule type="expression" dxfId="64" priority="72">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA55:AC65">
+    <cfRule type="expression" dxfId="63" priority="69">
+      <formula>$C55="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="70">
+      <formula>$D55="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W55:Y65">
+    <cfRule type="expression" dxfId="61" priority="67">
+      <formula>$C55="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="68">
+      <formula>$D55="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O55:Q65">
     <cfRule type="expression" dxfId="59" priority="65">
       <formula>$C55="x"</formula>
     </cfRule>
@@ -6240,7 +6300,7 @@
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W55:Y65">
+  <conditionalFormatting sqref="K55:M65">
     <cfRule type="expression" dxfId="57" priority="63">
       <formula>$C55="x"</formula>
     </cfRule>
@@ -6248,7 +6308,7 @@
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O55:Q65">
+  <conditionalFormatting sqref="G55:I65">
     <cfRule type="expression" dxfId="55" priority="61">
       <formula>$C55="x"</formula>
     </cfRule>
@@ -6256,23 +6316,23 @@
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:M65">
-    <cfRule type="expression" dxfId="53" priority="59">
+  <conditionalFormatting sqref="S26:V26 V8:V25">
+    <cfRule type="expression" dxfId="53" priority="53">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="54">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S55:U65">
+    <cfRule type="expression" dxfId="51" priority="51">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="60">
+    <cfRule type="expression" dxfId="50" priority="52">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G55:I65">
-    <cfRule type="expression" dxfId="51" priority="57">
-      <formula>$C55="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="58">
-      <formula>$D55="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S26:V26 V8:V25">
+  <conditionalFormatting sqref="S8:U25">
     <cfRule type="expression" dxfId="49" priority="49">
       <formula>$C8="x"</formula>
     </cfRule>
@@ -6280,196 +6340,188 @@
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S55:U65">
-    <cfRule type="expression" dxfId="47" priority="47">
-      <formula>$C55="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="48">
-      <formula>$D55="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S8:U25">
-    <cfRule type="expression" dxfId="45" priority="45">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="46">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A53:AE53">
-    <cfRule type="expression" dxfId="43" priority="37">
+    <cfRule type="expression" dxfId="47" priority="41">
       <formula>$C53="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="38">
+    <cfRule type="expression" dxfId="46" priority="42">
       <formula>$D53="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z29:AG34 AA35:AG52 B34 A34:A36 C34:F36 A28:AG28 A27:F27 J27 N27 R27:AG27 A29:F33 A37:F40 N29:N40 J29:J40 R29:R40 A42:R52 A41:AC41 W27:AC28">
-    <cfRule type="expression" dxfId="41" priority="35">
+    <cfRule type="expression" dxfId="45" priority="39">
       <formula>$C27="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="36">
+    <cfRule type="expression" dxfId="44" priority="40">
       <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B36">
-    <cfRule type="expression" dxfId="39" priority="33">
-      <formula>$C34="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
-      <formula>$D34="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="O29:O30">
-    <cfRule type="expression" dxfId="37" priority="31">
+    <cfRule type="expression" dxfId="41" priority="35">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="32">
+    <cfRule type="expression" dxfId="40" priority="36">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:Q30">
-    <cfRule type="expression" dxfId="35" priority="29">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31:O40">
-    <cfRule type="expression" dxfId="33" priority="27">
+    <cfRule type="expression" dxfId="37" priority="31">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="28">
+    <cfRule type="expression" dxfId="36" priority="32">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:Q40">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="35" priority="29">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="34" priority="30">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:K30">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="33" priority="27">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
+    <cfRule type="expression" dxfId="32" priority="28">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:M30">
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:K40">
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="29" priority="23">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="20">
+    <cfRule type="expression" dxfId="28" priority="24">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:M40">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="27" priority="21">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
+    <cfRule type="expression" dxfId="26" priority="22">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="25" priority="19">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="24" priority="20">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:I30">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="23" priority="17">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="22" priority="18">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G40">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:I40">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="19" priority="13">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="18" priority="14">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S29:AC39">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="16" priority="12">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S42:AC51">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>$C42="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>$D42="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S52:AC52">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>$C52="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>$D52="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S40:AC40">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>$C40="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>$D40="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z49">
-    <cfRule type="expression" dxfId="5" priority="39">
+    <cfRule type="expression" dxfId="9" priority="43">
       <formula>$C53="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="40">
+    <cfRule type="expression" dxfId="8" priority="44">
       <formula>$D53="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z35 Z40:Z47">
-    <cfRule type="expression" dxfId="3" priority="41">
+    <cfRule type="expression" dxfId="7" priority="45">
       <formula>$C38="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="42">
+    <cfRule type="expression" dxfId="6" priority="46">
       <formula>$D38="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z48 Z36:Z39">
-    <cfRule type="expression" dxfId="1" priority="43">
+    <cfRule type="expression" dxfId="5" priority="47">
       <formula>$C40="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="44">
+    <cfRule type="expression" dxfId="4" priority="48">
       <formula>$D40="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C35="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D35="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C36="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D36="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -6488,15 +6540,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6705,6 +6748,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6712,14 +6764,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6734,6 +6778,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_DE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\SugarCRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D20D6F-DA3E-4157-ADDB-6DFAD2C244FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B182D55C-871F-4BD0-AF86-DCB8BDDBBA18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,7 +531,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="129">
+  <borders count="121">
     <border>
       <left/>
       <right/>
@@ -1853,114 +1853,6 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color rgb="FFF4A4A2"/>
       </left>
       <right/>
@@ -2159,7 +2051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2351,38 +2243,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="91" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2442,10 +2330,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3216,9 +3100,9 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFCA1C17"/>
       <color rgb="FFF4A4A2"/>
       <color rgb="FFFE6C36"/>
-      <color rgb="FFCA1C17"/>
       <color rgb="FF001E51"/>
       <color rgb="FFB4C6E7"/>
       <color rgb="FF9DA600"/>
@@ -3903,8 +3787,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3972,41 +3856,41 @@
         <v>68</v>
       </c>
       <c r="E4" s="30"/>
-      <c r="G4" s="149" t="s">
+      <c r="G4" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="149" t="s">
+      <c r="K4" s="145" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="O4" s="149" t="s">
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="O4" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
-      <c r="S4" s="149" t="s">
+      <c r="P4" s="145"/>
+      <c r="Q4" s="145"/>
+      <c r="S4" s="145" t="s">
         <v>102</v>
       </c>
-      <c r="T4" s="149"/>
-      <c r="U4" s="149"/>
-      <c r="W4" s="146" t="s">
+      <c r="T4" s="145"/>
+      <c r="U4" s="145"/>
+      <c r="W4" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="147"/>
-      <c r="Y4" s="148"/>
-      <c r="AA4" s="146" t="s">
+      <c r="X4" s="143"/>
+      <c r="Y4" s="144"/>
+      <c r="AA4" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="AB4" s="147"/>
-      <c r="AC4" s="148"/>
+      <c r="AB4" s="143"/>
+      <c r="AC4" s="144"/>
     </row>
     <row r="5" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="134" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="49"/>
@@ -4977,39 +4861,39 @@
       <c r="A27" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="140"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="141"/>
-      <c r="G27" s="159" t="s">
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="133"/>
+      <c r="G27" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="H27" s="160"/>
-      <c r="I27" s="161"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="157"/>
       <c r="J27" s="75"/>
-      <c r="K27" s="159" t="s">
+      <c r="K27" s="155" t="s">
         <v>100</v>
       </c>
-      <c r="L27" s="160"/>
-      <c r="M27" s="161"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="157"/>
       <c r="N27" s="75"/>
-      <c r="O27" s="159" t="s">
+      <c r="O27" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="P27" s="160"/>
-      <c r="Q27" s="161"/>
+      <c r="P27" s="156"/>
+      <c r="Q27" s="157"/>
       <c r="R27" s="76"/>
-      <c r="S27" s="162" t="s">
+      <c r="S27" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="T27" s="163"/>
-      <c r="U27" s="164"/>
+      <c r="T27" s="159"/>
+      <c r="U27" s="160"/>
       <c r="V27" s="76"/>
-      <c r="W27" s="165" t="s">
+      <c r="W27" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="X27" s="166"/>
-      <c r="Y27" s="167"/>
+      <c r="X27" s="162"/>
+      <c r="Y27" s="163"/>
       <c r="Z27" s="76"/>
       <c r="AA27" s="118" t="s">
         <v>103</v>
@@ -5018,15 +4902,15 @@
       <c r="AC27" s="120"/>
     </row>
     <row r="28" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="142" t="s">
+      <c r="A28" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="143" t="s">
+      <c r="B28" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="145" t="s">
+      <c r="C28" s="136"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="137" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="106" t="s">
@@ -5411,15 +5295,15 @@
       <c r="AC40" s="117"/>
     </row>
     <row r="41" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="169" t="s">
+      <c r="A41" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="170" t="s">
+      <c r="B41" s="140" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
-      <c r="E41" s="171" t="s">
+      <c r="C41" s="140"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="141" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="108" t="s">
@@ -5458,23 +5342,23 @@
       <c r="U41" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="W41" s="136" t="s">
+      <c r="W41" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="X41" s="137" t="s">
+      <c r="X41" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="Y41" s="138" t="s">
+      <c r="Y41" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="Z41" s="139"/>
-      <c r="AA41" s="136" t="s">
+      <c r="Z41" s="131"/>
+      <c r="AA41" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="AB41" s="137" t="s">
+      <c r="AB41" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="AC41" s="138" t="s">
+      <c r="AC41" s="130" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5500,10 +5384,10 @@
       <c r="U42" s="63"/>
       <c r="W42" s="124"/>
       <c r="X42" s="10"/>
-      <c r="Y42" s="135"/>
+      <c r="Y42" s="127"/>
       <c r="AA42" s="124"/>
       <c r="AB42" s="10"/>
-      <c r="AC42" s="135"/>
+      <c r="AC42" s="127"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
@@ -5786,7 +5670,7 @@
       <c r="Y53" s="9"/>
     </row>
     <row r="54" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="168" t="s">
+      <c r="A54" s="138" t="s">
         <v>9</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -5797,40 +5681,40 @@
       <c r="E54" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="127" t="s">
+      <c r="G54" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H54" s="128" t="s">
+      <c r="H54" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I54" s="129" t="s">
+      <c r="I54" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="K54" s="127" t="s">
+      <c r="K54" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="L54" s="128" t="s">
+      <c r="L54" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="M54" s="129" t="s">
+      <c r="M54" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="O54" s="127" t="s">
+      <c r="O54" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="P54" s="128" t="s">
+      <c r="P54" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="Q54" s="129" t="s">
+      <c r="Q54" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="S54" s="127" t="s">
+      <c r="S54" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="T54" s="128" t="s">
+      <c r="T54" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="U54" s="129" t="s">
+      <c r="U54" s="55" t="s">
         <v>5</v>
       </c>
       <c r="W54" s="121" t="s">
@@ -5856,24 +5740,24 @@
       <c r="A55" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="150" t="s">
+      <c r="B55" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="151"/>
-      <c r="D55" s="152"/>
+      <c r="C55" s="147"/>
+      <c r="D55" s="148"/>
       <c r="E55" s="72"/>
-      <c r="G55" s="130"/>
+      <c r="G55" s="58"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="131"/>
-      <c r="K55" s="130"/>
+      <c r="I55" s="59"/>
+      <c r="K55" s="58"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="131"/>
-      <c r="O55" s="130"/>
+      <c r="M55" s="59"/>
+      <c r="O55" s="58"/>
       <c r="P55" s="5"/>
-      <c r="Q55" s="131"/>
-      <c r="S55" s="130"/>
+      <c r="Q55" s="59"/>
+      <c r="S55" s="58"/>
       <c r="T55" s="5"/>
-      <c r="U55" s="131"/>
+      <c r="U55" s="59"/>
       <c r="W55" s="111"/>
       <c r="X55" s="5"/>
       <c r="Y55" s="112"/>
@@ -5885,24 +5769,24 @@
       <c r="A56" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="153" t="s">
+      <c r="B56" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="154"/>
-      <c r="D56" s="155"/>
+      <c r="C56" s="150"/>
+      <c r="D56" s="151"/>
       <c r="E56" s="72"/>
-      <c r="G56" s="130"/>
+      <c r="G56" s="58"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="131"/>
-      <c r="K56" s="130"/>
+      <c r="I56" s="59"/>
+      <c r="K56" s="58"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="131"/>
-      <c r="O56" s="130"/>
+      <c r="M56" s="59"/>
+      <c r="O56" s="58"/>
       <c r="P56" s="5"/>
-      <c r="Q56" s="131"/>
-      <c r="S56" s="130"/>
+      <c r="Q56" s="59"/>
+      <c r="S56" s="58"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="131"/>
+      <c r="U56" s="59"/>
       <c r="W56" s="111"/>
       <c r="X56" s="5"/>
       <c r="Y56" s="112"/>
@@ -5914,24 +5798,24 @@
       <c r="A57" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="153" t="s">
+      <c r="B57" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="154"/>
-      <c r="D57" s="155"/>
+      <c r="C57" s="150"/>
+      <c r="D57" s="151"/>
       <c r="E57" s="72"/>
-      <c r="G57" s="130"/>
+      <c r="G57" s="58"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="131"/>
-      <c r="K57" s="130"/>
+      <c r="I57" s="59"/>
+      <c r="K57" s="58"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="131"/>
-      <c r="O57" s="130"/>
+      <c r="M57" s="59"/>
+      <c r="O57" s="58"/>
       <c r="P57" s="5"/>
-      <c r="Q57" s="131"/>
-      <c r="S57" s="130"/>
+      <c r="Q57" s="59"/>
+      <c r="S57" s="58"/>
       <c r="T57" s="5"/>
-      <c r="U57" s="131"/>
+      <c r="U57" s="59"/>
       <c r="W57" s="111"/>
       <c r="X57" s="5"/>
       <c r="Y57" s="112"/>
@@ -5943,24 +5827,24 @@
       <c r="A58" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="153" t="s">
+      <c r="B58" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="154"/>
-      <c r="D58" s="155"/>
+      <c r="C58" s="150"/>
+      <c r="D58" s="151"/>
       <c r="E58" s="72"/>
-      <c r="G58" s="130"/>
+      <c r="G58" s="58"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="131"/>
-      <c r="K58" s="130"/>
+      <c r="I58" s="59"/>
+      <c r="K58" s="58"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="131"/>
-      <c r="O58" s="130"/>
+      <c r="M58" s="59"/>
+      <c r="O58" s="58"/>
       <c r="P58" s="5"/>
-      <c r="Q58" s="131"/>
-      <c r="S58" s="130"/>
+      <c r="Q58" s="59"/>
+      <c r="S58" s="58"/>
       <c r="T58" s="5"/>
-      <c r="U58" s="131"/>
+      <c r="U58" s="59"/>
       <c r="W58" s="111"/>
       <c r="X58" s="5"/>
       <c r="Y58" s="112"/>
@@ -5970,22 +5854,22 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="73"/>
-      <c r="B59" s="153"/>
-      <c r="C59" s="154"/>
-      <c r="D59" s="155"/>
+      <c r="B59" s="149"/>
+      <c r="C59" s="150"/>
+      <c r="D59" s="151"/>
       <c r="E59" s="72"/>
-      <c r="G59" s="130"/>
+      <c r="G59" s="58"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="131"/>
-      <c r="K59" s="130"/>
+      <c r="I59" s="59"/>
+      <c r="K59" s="58"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="131"/>
-      <c r="O59" s="130"/>
+      <c r="M59" s="59"/>
+      <c r="O59" s="58"/>
       <c r="P59" s="5"/>
-      <c r="Q59" s="131"/>
-      <c r="S59" s="130"/>
+      <c r="Q59" s="59"/>
+      <c r="S59" s="58"/>
       <c r="T59" s="5"/>
-      <c r="U59" s="131"/>
+      <c r="U59" s="59"/>
       <c r="W59" s="111"/>
       <c r="X59" s="5"/>
       <c r="Y59" s="112"/>
@@ -5999,18 +5883,18 @@
       <c r="C60" s="38"/>
       <c r="D60" s="39"/>
       <c r="E60" s="31"/>
-      <c r="G60" s="130"/>
+      <c r="G60" s="58"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="131"/>
-      <c r="K60" s="130"/>
+      <c r="I60" s="59"/>
+      <c r="K60" s="58"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="131"/>
-      <c r="O60" s="130"/>
+      <c r="M60" s="59"/>
+      <c r="O60" s="58"/>
       <c r="P60" s="5"/>
-      <c r="Q60" s="131"/>
-      <c r="S60" s="130"/>
+      <c r="Q60" s="59"/>
+      <c r="S60" s="58"/>
       <c r="T60" s="5"/>
-      <c r="U60" s="131"/>
+      <c r="U60" s="59"/>
       <c r="W60" s="111"/>
       <c r="X60" s="5"/>
       <c r="Y60" s="112"/>
@@ -6020,22 +5904,22 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="27"/>
-      <c r="B61" s="153"/>
-      <c r="C61" s="154"/>
-      <c r="D61" s="155"/>
+      <c r="B61" s="149"/>
+      <c r="C61" s="150"/>
+      <c r="D61" s="151"/>
       <c r="E61" s="31"/>
-      <c r="G61" s="130"/>
+      <c r="G61" s="58"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="131"/>
-      <c r="K61" s="130"/>
+      <c r="I61" s="59"/>
+      <c r="K61" s="58"/>
       <c r="L61" s="5"/>
-      <c r="M61" s="131"/>
-      <c r="O61" s="130"/>
+      <c r="M61" s="59"/>
+      <c r="O61" s="58"/>
       <c r="P61" s="5"/>
-      <c r="Q61" s="131"/>
-      <c r="S61" s="130"/>
+      <c r="Q61" s="59"/>
+      <c r="S61" s="58"/>
       <c r="T61" s="5"/>
-      <c r="U61" s="131"/>
+      <c r="U61" s="59"/>
       <c r="W61" s="111"/>
       <c r="X61" s="5"/>
       <c r="Y61" s="112"/>
@@ -6045,22 +5929,22 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="27"/>
-      <c r="B62" s="153"/>
-      <c r="C62" s="154"/>
-      <c r="D62" s="155"/>
+      <c r="B62" s="149"/>
+      <c r="C62" s="150"/>
+      <c r="D62" s="151"/>
       <c r="E62" s="31"/>
-      <c r="G62" s="130"/>
+      <c r="G62" s="58"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="131"/>
-      <c r="K62" s="130"/>
+      <c r="I62" s="59"/>
+      <c r="K62" s="58"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="131"/>
-      <c r="O62" s="130"/>
+      <c r="M62" s="59"/>
+      <c r="O62" s="58"/>
       <c r="P62" s="5"/>
-      <c r="Q62" s="131"/>
-      <c r="S62" s="130"/>
+      <c r="Q62" s="59"/>
+      <c r="S62" s="58"/>
       <c r="T62" s="5"/>
-      <c r="U62" s="131"/>
+      <c r="U62" s="59"/>
       <c r="W62" s="111"/>
       <c r="X62" s="5"/>
       <c r="Y62" s="112"/>
@@ -6070,22 +5954,22 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="27"/>
-      <c r="B63" s="153"/>
-      <c r="C63" s="154"/>
-      <c r="D63" s="155"/>
+      <c r="B63" s="149"/>
+      <c r="C63" s="150"/>
+      <c r="D63" s="151"/>
       <c r="E63" s="31"/>
-      <c r="G63" s="130"/>
+      <c r="G63" s="58"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="131"/>
-      <c r="K63" s="130"/>
+      <c r="I63" s="59"/>
+      <c r="K63" s="58"/>
       <c r="L63" s="5"/>
-      <c r="M63" s="131"/>
-      <c r="O63" s="130"/>
+      <c r="M63" s="59"/>
+      <c r="O63" s="58"/>
       <c r="P63" s="5"/>
-      <c r="Q63" s="131"/>
-      <c r="S63" s="130"/>
+      <c r="Q63" s="59"/>
+      <c r="S63" s="58"/>
       <c r="T63" s="5"/>
-      <c r="U63" s="131"/>
+      <c r="U63" s="59"/>
       <c r="W63" s="111"/>
       <c r="X63" s="5"/>
       <c r="Y63" s="112"/>
@@ -6095,22 +5979,22 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="27"/>
-      <c r="B64" s="153"/>
-      <c r="C64" s="154"/>
-      <c r="D64" s="155"/>
+      <c r="B64" s="149"/>
+      <c r="C64" s="150"/>
+      <c r="D64" s="151"/>
       <c r="E64" s="31"/>
-      <c r="G64" s="130"/>
+      <c r="G64" s="58"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="131"/>
-      <c r="K64" s="130"/>
+      <c r="I64" s="59"/>
+      <c r="K64" s="58"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="131"/>
-      <c r="O64" s="130"/>
+      <c r="M64" s="59"/>
+      <c r="O64" s="58"/>
       <c r="P64" s="5"/>
-      <c r="Q64" s="131"/>
-      <c r="S64" s="130"/>
+      <c r="Q64" s="59"/>
+      <c r="S64" s="58"/>
       <c r="T64" s="5"/>
-      <c r="U64" s="131"/>
+      <c r="U64" s="59"/>
       <c r="W64" s="111"/>
       <c r="X64" s="5"/>
       <c r="Y64" s="112"/>
@@ -6120,22 +6004,22 @@
     </row>
     <row r="65" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="28"/>
-      <c r="B65" s="156"/>
-      <c r="C65" s="157"/>
-      <c r="D65" s="158"/>
+      <c r="B65" s="152"/>
+      <c r="C65" s="153"/>
+      <c r="D65" s="154"/>
       <c r="E65" s="32"/>
-      <c r="G65" s="132"/>
-      <c r="H65" s="133"/>
-      <c r="I65" s="134"/>
-      <c r="K65" s="132"/>
-      <c r="L65" s="133"/>
-      <c r="M65" s="134"/>
-      <c r="O65" s="132"/>
-      <c r="P65" s="133"/>
-      <c r="Q65" s="134"/>
-      <c r="S65" s="132"/>
-      <c r="T65" s="133"/>
-      <c r="U65" s="134"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="66"/>
+      <c r="K65" s="64"/>
+      <c r="L65" s="65"/>
+      <c r="M65" s="66"/>
+      <c r="O65" s="64"/>
+      <c r="P65" s="65"/>
+      <c r="Q65" s="66"/>
+      <c r="S65" s="64"/>
+      <c r="T65" s="65"/>
+      <c r="U65" s="66"/>
       <c r="W65" s="115"/>
       <c r="X65" s="116"/>
       <c r="Y65" s="117"/>
@@ -6427,15 +6311,12 @@
       <formula>$D40="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC55:AC65 Y55:Y65 Q55:Q65 M55:M65 I55:I65 I7:I25 AC7:AC25 Q7:Q25 U7:U25 Y7:Y25 U55:U65 M7:M25 Q42:Q52 I42:I52 M42:M52" xr:uid="{431B3996-F270-4C15-ABC5-F3DE1B386E1A}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25 C42:D52 C29:D40" xr:uid="{F107F338-F4E1-4846-B740-D5F4398D0DCB}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U42:U52 Q29:Q40 M29:M40 I29:I40 U29:U40 AC29:AC40 Y29:Y40 Y42:Y52 AC42:AC52" xr:uid="{F6BC6F71-7B77-4E78-9F62-806E05387D17}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 M7:M25 Q7:Q25 U7:U25 Y7:Y25 AC7:AC25 AC29:AC40 Y29:Y40 U29:U40 Q29:Q40 M29:M40 I29:I40 I42:I52 M42:M52 Q42:Q52 U42:U52 Y42:Y52 AC43:AC52 AC42 AC55:AC65 Y55:Y65 U55:U65 Q55:Q65 M55:M65 I55:I65" xr:uid="{4B2AC6D7-F193-4515-97FD-BE013153756D}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B182D55C-871F-4BD0-AF86-DCB8BDDBBA18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54584A8-009A-4A81-9110-72226414517C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,9 +260,6 @@
     <t>Pflichtfeld</t>
   </si>
   <si>
-    <t>das ist eine Notiz</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -390,6 +387,9 @@
   </si>
   <si>
     <t>SugarCRM: Custom Entity</t>
+  </si>
+  <si>
+    <t>Notizen</t>
   </si>
 </sst>
 </file>
@@ -2264,45 +2264,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2328,6 +2289,45 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -3788,7 +3788,7 @@
   <dimension ref="A1:AC66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3820,7 +3820,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="2" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3856,44 +3856,46 @@
         <v>68</v>
       </c>
       <c r="E4" s="30"/>
-      <c r="G4" s="145" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
+      <c r="G4" s="163" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="145" t="s">
+      <c r="K4" s="163" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="O4" s="163" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="O4" s="145" t="s">
+      <c r="P4" s="163"/>
+      <c r="Q4" s="163"/>
+      <c r="S4" s="163" t="s">
         <v>101</v>
       </c>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="145"/>
-      <c r="S4" s="145" t="s">
-        <v>102</v>
-      </c>
-      <c r="T4" s="145"/>
-      <c r="U4" s="145"/>
-      <c r="W4" s="142" t="s">
+      <c r="T4" s="163"/>
+      <c r="U4" s="163"/>
+      <c r="W4" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="143"/>
-      <c r="Y4" s="144"/>
-      <c r="AA4" s="142" t="s">
+      <c r="X4" s="161"/>
+      <c r="Y4" s="162"/>
+      <c r="AA4" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="AB4" s="143"/>
-      <c r="AC4" s="144"/>
+      <c r="AB4" s="161"/>
+      <c r="AC4" s="162"/>
     </row>
     <row r="5" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="49" t="s">
+        <v>103</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="50"/>
       <c r="E6" s="36" t="s">
@@ -3985,9 +3987,7 @@
       <c r="A8" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>70</v>
-      </c>
+      <c r="B8" s="43"/>
       <c r="C8" s="44"/>
       <c r="D8" s="45"/>
       <c r="E8" s="46"/>
@@ -3998,7 +3998,7 @@
         <v>37</v>
       </c>
       <c r="I8" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="58" t="s">
@@ -4008,7 +4008,7 @@
         <v>37</v>
       </c>
       <c r="M8" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N8"/>
       <c r="O8" s="58"/>
@@ -4021,7 +4021,7 @@
         <v>37</v>
       </c>
       <c r="U8" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W8" s="111" t="s">
         <v>11</v>
@@ -4210,10 +4210,10 @@
         <v>10</v>
       </c>
       <c r="O12" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="59" t="s">
         <v>10</v>
@@ -4265,7 +4265,7 @@
         <v>52</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="57" t="s">
         <v>10</v>
@@ -4317,7 +4317,7 @@
         <v>53</v>
       </c>
       <c r="P14" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="61" t="s">
         <v>10</v>
@@ -4369,7 +4369,7 @@
         <v>54</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q15" s="63" t="s">
         <v>10</v>
@@ -4421,7 +4421,7 @@
         <v>55</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="59" t="s">
         <v>10</v>
@@ -4473,7 +4473,7 @@
         <v>56</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="59" t="s">
         <v>10</v>
@@ -4525,7 +4525,7 @@
         <v>57</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="59" t="s">
         <v>10</v>
@@ -4859,54 +4859,54 @@
     </row>
     <row r="27" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" s="132"/>
       <c r="C27" s="132"/>
       <c r="D27" s="132"/>
       <c r="E27" s="133"/>
-      <c r="G27" s="155" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" s="156"/>
-      <c r="I27" s="157"/>
+      <c r="G27" s="142" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="143"/>
+      <c r="I27" s="144"/>
       <c r="J27" s="75"/>
-      <c r="K27" s="155" t="s">
+      <c r="K27" s="142" t="s">
+        <v>99</v>
+      </c>
+      <c r="L27" s="143"/>
+      <c r="M27" s="144"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="142" t="s">
         <v>100</v>
       </c>
-      <c r="L27" s="156"/>
-      <c r="M27" s="157"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="155" t="s">
+      <c r="P27" s="143"/>
+      <c r="Q27" s="144"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="P27" s="156"/>
-      <c r="Q27" s="157"/>
-      <c r="R27" s="76"/>
-      <c r="S27" s="158" t="s">
+      <c r="T27" s="146"/>
+      <c r="U27" s="147"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="148" t="s">
         <v>102</v>
       </c>
-      <c r="T27" s="159"/>
-      <c r="U27" s="160"/>
-      <c r="V27" s="76"/>
-      <c r="W27" s="161" t="s">
-        <v>103</v>
-      </c>
-      <c r="X27" s="162"/>
-      <c r="Y27" s="163"/>
+      <c r="X27" s="149"/>
+      <c r="Y27" s="150"/>
       <c r="Z27" s="76"/>
       <c r="AA27" s="118" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB27" s="119"/>
       <c r="AC27" s="120"/>
     </row>
     <row r="28" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="135" t="s">
         <v>82</v>
-      </c>
-      <c r="B28" s="135" t="s">
-        <v>83</v>
       </c>
       <c r="C28" s="136"/>
       <c r="D28" s="136"/>
@@ -4970,15 +4970,15 @@
     </row>
     <row r="29" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="78" t="s">
         <v>84</v>
-      </c>
-      <c r="B29" s="78" t="s">
-        <v>85</v>
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="78"/>
       <c r="E29" s="77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G29" s="101"/>
       <c r="H29" s="6"/>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30" s="78"/>
       <c r="C30" s="79"/>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B31" s="80"/>
       <c r="C31" s="81"/>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="80"/>
       <c r="C32" s="81"/>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" s="80"/>
       <c r="C33" s="81"/>
@@ -5109,7 +5109,7 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B34" s="80"/>
       <c r="C34" s="81"/>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" s="80"/>
       <c r="C35" s="81"/>
@@ -5163,7 +5163,7 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" s="80"/>
       <c r="C36" s="81"/>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B37" s="80"/>
       <c r="C37" s="81"/>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B38" s="80"/>
       <c r="C38" s="81"/>
@@ -5244,7 +5244,7 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B39" s="83"/>
       <c r="C39" s="84"/>
@@ -5296,10 +5296,10 @@
     </row>
     <row r="41" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="139" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B41" s="140" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="140"/>
       <c r="D41" s="140"/>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="42" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="78"/>
       <c r="C42" s="79"/>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="80"/>
       <c r="C43" s="81"/>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" s="80"/>
       <c r="C44" s="81"/>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" s="80"/>
       <c r="C45" s="81"/>
@@ -5472,7 +5472,7 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B46" s="80"/>
       <c r="C46" s="81"/>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" s="80"/>
       <c r="C47" s="81"/>
@@ -5526,7 +5526,7 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B48" s="80"/>
       <c r="C48" s="81"/>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B49" s="80"/>
       <c r="C49" s="81"/>
@@ -5580,7 +5580,7 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" s="80"/>
       <c r="C50" s="81"/>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" s="83"/>
       <c r="C51" s="84"/>
@@ -5740,11 +5740,11 @@
       <c r="A55" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="146" t="s">
+      <c r="B55" s="157" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="147"/>
-      <c r="D55" s="148"/>
+      <c r="C55" s="158"/>
+      <c r="D55" s="159"/>
       <c r="E55" s="72"/>
       <c r="G55" s="58"/>
       <c r="H55" s="5"/>
@@ -5769,11 +5769,11 @@
       <c r="A56" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="149" t="s">
+      <c r="B56" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="150"/>
-      <c r="D56" s="151"/>
+      <c r="C56" s="152"/>
+      <c r="D56" s="153"/>
       <c r="E56" s="72"/>
       <c r="G56" s="58"/>
       <c r="H56" s="5"/>
@@ -5798,11 +5798,11 @@
       <c r="A57" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="149" t="s">
+      <c r="B57" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="150"/>
-      <c r="D57" s="151"/>
+      <c r="C57" s="152"/>
+      <c r="D57" s="153"/>
       <c r="E57" s="72"/>
       <c r="G57" s="58"/>
       <c r="H57" s="5"/>
@@ -5827,11 +5827,11 @@
       <c r="A58" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="149" t="s">
+      <c r="B58" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="150"/>
-      <c r="D58" s="151"/>
+      <c r="C58" s="152"/>
+      <c r="D58" s="153"/>
       <c r="E58" s="72"/>
       <c r="G58" s="58"/>
       <c r="H58" s="5"/>
@@ -5854,9 +5854,9 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="73"/>
-      <c r="B59" s="149"/>
-      <c r="C59" s="150"/>
-      <c r="D59" s="151"/>
+      <c r="B59" s="151"/>
+      <c r="C59" s="152"/>
+      <c r="D59" s="153"/>
       <c r="E59" s="72"/>
       <c r="G59" s="58"/>
       <c r="H59" s="5"/>
@@ -5904,9 +5904,9 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="27"/>
-      <c r="B61" s="149"/>
-      <c r="C61" s="150"/>
-      <c r="D61" s="151"/>
+      <c r="B61" s="151"/>
+      <c r="C61" s="152"/>
+      <c r="D61" s="153"/>
       <c r="E61" s="31"/>
       <c r="G61" s="58"/>
       <c r="H61" s="5"/>
@@ -5929,9 +5929,9 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="27"/>
-      <c r="B62" s="149"/>
-      <c r="C62" s="150"/>
-      <c r="D62" s="151"/>
+      <c r="B62" s="151"/>
+      <c r="C62" s="152"/>
+      <c r="D62" s="153"/>
       <c r="E62" s="31"/>
       <c r="G62" s="58"/>
       <c r="H62" s="5"/>
@@ -5954,9 +5954,9 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="27"/>
-      <c r="B63" s="149"/>
-      <c r="C63" s="150"/>
-      <c r="D63" s="151"/>
+      <c r="B63" s="151"/>
+      <c r="C63" s="152"/>
+      <c r="D63" s="153"/>
       <c r="E63" s="31"/>
       <c r="G63" s="58"/>
       <c r="H63" s="5"/>
@@ -5979,9 +5979,9 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="27"/>
-      <c r="B64" s="149"/>
-      <c r="C64" s="150"/>
-      <c r="D64" s="151"/>
+      <c r="B64" s="151"/>
+      <c r="C64" s="152"/>
+      <c r="D64" s="153"/>
       <c r="E64" s="31"/>
       <c r="G64" s="58"/>
       <c r="H64" s="5"/>
@@ -6004,9 +6004,9 @@
     </row>
     <row r="65" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="28"/>
-      <c r="B65" s="152"/>
-      <c r="C65" s="153"/>
-      <c r="D65" s="154"/>
+      <c r="B65" s="154"/>
+      <c r="C65" s="155"/>
+      <c r="D65" s="156"/>
       <c r="E65" s="32"/>
       <c r="G65" s="64"/>
       <c r="H65" s="65"/>
@@ -6040,27 +6040,27 @@
     <protectedRange sqref="N29:N40 J29:J40 R29:R40 A42:R52 A29:F40" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="21">
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="S4:U4"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="W27:Y27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="W8:AK26 A8:R26">
@@ -6326,12 +6326,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6540,6 +6534,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6550,23 +6550,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6585,6 +6568,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_DE.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54584A8-009A-4A81-9110-72226414517C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E31FAE7-0515-4BCC-AB91-0C479C0A35C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="4725" windowWidth="18255" windowHeight="5385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="checkbox">Specifications!$C$7:$D$25,Specifications!#REF!,Specifications!#REF!</definedName>
-    <definedName name="Field_type">Specifications!$AC$55:$AC$65,Specifications!$Y$55:$Y$65,Specifications!$Q$55:$Q$65,Specifications!$M$55:$M$65,Specifications!$I$55:$I$65,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$I$7:$I$25,Specifications!$M$7:$M$25,Specifications!$Q$7:$Q$25,Specifications!$Y$7:$Y$25,Specifications!$AC$7:$AC$25</definedName>
+    <definedName name="checkbox">Specifications!$C$7:$D$29,Specifications!#REF!,Specifications!#REF!</definedName>
+    <definedName name="Field_type">Specifications!$AC$59:$AC$69,Specifications!$Y$59:$Y$69,Specifications!$Q$59:$Q$69,Specifications!$M$59:$M$69,Specifications!$I$59:$I$69,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$I$7:$I$29,Specifications!$M$7:$M$29,Specifications!$Q$7:$Q$29,Specifications!$Y$7:$Y$29,Specifications!$AC$7:$AC$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="111">
   <si>
     <t>Website</t>
   </si>
@@ -391,12 +394,33 @@
   <si>
     <t>Notizen</t>
   </si>
+  <si>
+    <t>(= Felder mit automatischem Wert)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Beispiel Nicht-benötigtes Feld</t>
+  </si>
+  <si>
+    <t>Nicht benötigt</t>
+  </si>
+  <si>
+    <t>Nicht Benötigt</t>
+  </si>
+  <si>
+    <t>Beispiel Pflichtfeld</t>
+  </si>
+  <si>
+    <t>Pflichfeld</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,13 +509,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -531,7 +548,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="121">
+  <borders count="96">
     <border>
       <left/>
       <right/>
@@ -645,7 +662,7 @@
       <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
       <bottom style="thin">
@@ -663,46 +680,7 @@
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
       <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
@@ -728,44 +706,7 @@
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
       <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
@@ -998,19 +939,6 @@
       <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
@@ -1113,7 +1041,9 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1124,26 +1054,6 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFCA1C17"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFCA1C17"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
@@ -1157,8 +1067,19 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
+        <color rgb="FFCA1C17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFCA1C17"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1170,59 +1091,9 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFCA1C17"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
       <bottom style="thick">
         <color rgb="FFCA1C17"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFCA1C17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFCA1C17"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFCA1C17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1287,47 +1158,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
@@ -1468,113 +1298,6 @@
         <color rgb="FFC00000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFC00000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFC00000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFC00000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFC00000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFC00000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFC00000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFC00000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFC00000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFC00000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFC00000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFC00000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1946,17 +1669,6 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FFF4A4A2"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFF4A4A2"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
       <right style="thick">
@@ -2051,7 +1763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2068,248 +1780,171 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="91" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2318,23 +1953,82 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="71">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14990691854609822"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14990691854609822"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3091,11 +2785,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="66"/>
-      <tableStyleElement type="headerRow" dxfId="65"/>
-      <tableStyleElement type="firstColumn" dxfId="64"/>
-      <tableStyleElement type="firstRowStripe" dxfId="63"/>
-      <tableStyleElement type="secondRowStripe" dxfId="62"/>
+      <tableStyleElement type="wholeTable" dxfId="70"/>
+      <tableStyleElement type="headerRow" dxfId="69"/>
+      <tableStyleElement type="firstColumn" dxfId="68"/>
+      <tableStyleElement type="firstRowStripe" dxfId="67"/>
+      <tableStyleElement type="secondRowStripe" dxfId="66"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3204,13 +2898,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3275,13 +2969,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3346,13 +3040,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>949569</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>14255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>153866</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>6928</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3417,13 +3111,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>187569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>197826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3785,10 +3479,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:AC66"/>
+  <dimension ref="A1:AC70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3819,7 +3513,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="48" t="s">
         <v>70</v>
       </c>
       <c r="B1" s="1"/>
@@ -3841,2481 +3535,2546 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="41"/>
-      <c r="K3" s="41"/>
+      <c r="G3" s="34"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:29" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="G4" s="163" t="s">
+      <c r="E4" s="24"/>
+      <c r="G4" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="163" t="s">
+      <c r="K4" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="O4" s="163" t="s">
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="O4" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="P4" s="163"/>
-      <c r="Q4" s="163"/>
-      <c r="S4" s="163" t="s">
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="S4" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="T4" s="163"/>
-      <c r="U4" s="163"/>
-      <c r="W4" s="160" t="s">
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="W4" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="162"/>
-      <c r="AA4" s="160" t="s">
+      <c r="X4" s="103"/>
+      <c r="Y4" s="104"/>
+      <c r="AA4" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="AB4" s="161"/>
-      <c r="AC4" s="162"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="104"/>
     </row>
     <row r="5" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="36" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="42" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="54" t="s">
+      <c r="L6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="55" t="s">
+      <c r="M6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="53" t="s">
+      <c r="O6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="54" t="s">
+      <c r="P6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="55" t="s">
+      <c r="Q6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="53" t="s">
+      <c r="S6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="T6" s="54" t="s">
+      <c r="T6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="55" t="s">
+      <c r="U6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="121" t="s">
+      <c r="W6" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="X6" s="122" t="s">
+      <c r="X6" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="Y6" s="123" t="s">
+      <c r="Y6" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="AA6" s="121" t="s">
+      <c r="AA6" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AB6" s="122" t="s">
+      <c r="AB6" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="AC6" s="123" t="s">
+      <c r="AC6" s="84" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="33"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="57"/>
+      <c r="A7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="G7" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="57"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="57"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="57"/>
-      <c r="W7" s="113"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="44"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="44"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="44"/>
+      <c r="W7" s="74"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="114"/>
-      <c r="AA7" s="113"/>
+      <c r="Y7" s="75"/>
+      <c r="AA7" s="74"/>
       <c r="AB7" s="6"/>
-      <c r="AC7" s="114"/>
-    </row>
-    <row r="8" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="AC7" s="75"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="27"/>
+      <c r="G8" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="44"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="44"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="44"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="75"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="75"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="27"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="44"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="44"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="44"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="75"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="75"/>
+    </row>
+    <row r="10" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="G8" s="58" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="27"/>
+      <c r="F10"/>
+      <c r="G10" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I10" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="58" t="s">
+      <c r="J10" s="1"/>
+      <c r="K10" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="59" t="s">
+      <c r="M10" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="N8"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="59"/>
-      <c r="S8" s="58" t="s">
+      <c r="N10"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="44"/>
+      <c r="R10"/>
+      <c r="S10" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="T10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="59" t="s">
+      <c r="U10" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="W8" s="111" t="s">
+      <c r="V10"/>
+      <c r="W10" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="X10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Y8" s="112"/>
-      <c r="AA8" s="111"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="112"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="34"/>
-      <c r="G9" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="58"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="59"/>
-      <c r="S9" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U9" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="W9" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="X9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y9" s="112"/>
-      <c r="AA9" s="111"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="112"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="34"/>
-      <c r="G10" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="58"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="59"/>
-      <c r="S10" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="U10" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="W10" s="111"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="112"/>
-      <c r="AA10" s="111"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10"/>
+      <c r="AA10" s="72"/>
       <c r="AB10" s="5"/>
-      <c r="AC10" s="112"/>
+      <c r="AC10" s="73"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="34"/>
-      <c r="G11" s="58" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="27"/>
+      <c r="G11" s="43" t="s">
+        <v>39</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="44" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="58" t="s">
-        <v>41</v>
+      <c r="K11" s="43" t="s">
+        <v>39</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="59" t="s">
+      <c r="O11" s="43"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="44"/>
+      <c r="S11" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U11" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="W11" s="111"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="112"/>
-      <c r="AA11" s="111"/>
+      <c r="W11" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y11" s="73"/>
+      <c r="AA11" s="72"/>
       <c r="AB11" s="5"/>
-      <c r="AC11" s="112"/>
+      <c r="AC11" s="73"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="27"/>
+      <c r="G12" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="43"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="44"/>
+      <c r="S12" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" s="72"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="73"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="73"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="27"/>
+      <c r="G13" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U13" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="W13" s="72"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="73"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="73"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="34"/>
-      <c r="G12" s="58" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="27"/>
+      <c r="G14" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="I14" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="58" t="s">
+      <c r="J14" s="1"/>
+      <c r="K14" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="59" t="s">
+      <c r="M14" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="58" t="s">
+      <c r="O14" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="59" t="s">
+      <c r="Q14" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="S12" s="58" t="s">
+      <c r="S14" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="T14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U12" s="59" t="s">
+      <c r="U14" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="W12" s="111"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="112"/>
-      <c r="AA12" s="111"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="112"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="W14" s="72"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="73"/>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="73"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="34"/>
-      <c r="G13" s="56" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="27"/>
+      <c r="G15" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="57" t="s">
+      <c r="I15" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="56" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="57" t="s">
+      <c r="M15" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="56" t="s">
+      <c r="O15" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="P15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="Q13" s="57" t="s">
+      <c r="Q15" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="S13" s="56" t="s">
+      <c r="S15" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="T13" s="6" t="s">
+      <c r="T15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U13" s="57" t="s">
+      <c r="U15" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="W13" s="111"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="112"/>
-      <c r="AA13" s="111"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="112"/>
-    </row>
-    <row r="14" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="W15" s="72"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="73"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="73"/>
+    </row>
+    <row r="16" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-      <c r="G14" s="60" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="27"/>
+      <c r="F16"/>
+      <c r="G16" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="61" t="s">
+      <c r="I16" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="47"/>
-      <c r="K14" s="60" t="s">
+      <c r="J16" s="1"/>
+      <c r="K16" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="48" t="s">
+      <c r="L16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="61" t="s">
+      <c r="M16" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="60" t="s">
+      <c r="N16"/>
+      <c r="O16" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="P14" s="48" t="s">
+      <c r="P16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="Q14" s="61" t="s">
+      <c r="Q16" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="60" t="s">
+      <c r="R16"/>
+      <c r="S16" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="T14" s="48" t="s">
+      <c r="T16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U14" s="61" t="s">
+      <c r="U16" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="125"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="126"/>
-      <c r="AA14" s="125"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="126"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="34"/>
-      <c r="G15" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q15" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="S15" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="T15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="U15" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="W15" s="111"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="112"/>
-      <c r="AA15" s="111"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="112"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="34"/>
-      <c r="G16" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q16" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="S16" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U16" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="W16" s="111"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="112"/>
-      <c r="AA16" s="111"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="112"/>
+      <c r="V16"/>
+      <c r="W16" s="86"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="87"/>
+      <c r="Z16"/>
+      <c r="AA16" s="86"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="87"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="34"/>
-      <c r="G17" s="58" t="s">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="27"/>
+      <c r="G17" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="44" t="s">
         <v>10</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="58" t="s">
-        <v>56</v>
+      <c r="K17" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="O17" s="58" t="s">
-        <v>56</v>
+      <c r="O17" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q17" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="S17" s="58" t="s">
-        <v>56</v>
+      <c r="S17" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U17" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="U17" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="W17" s="111"/>
+      <c r="W17" s="72"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="112"/>
-      <c r="AA17" s="111"/>
+      <c r="Y17" s="73"/>
+      <c r="AA17" s="72"/>
       <c r="AB17" s="5"/>
-      <c r="AC17" s="112"/>
+      <c r="AC17" s="73"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="34"/>
-      <c r="G18" s="58" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="27"/>
+      <c r="G18" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="44" t="s">
         <v>10</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="58" t="s">
-        <v>57</v>
+      <c r="K18" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="58" t="s">
-        <v>57</v>
+      <c r="O18" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q18" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="S18" s="58" t="s">
-        <v>57</v>
+      <c r="S18" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="U18" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="W18" s="111"/>
+      <c r="W18" s="72"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="112"/>
-      <c r="AA18" s="111"/>
+      <c r="Y18" s="73"/>
+      <c r="AA18" s="72"/>
       <c r="AB18" s="5"/>
-      <c r="AC18" s="112"/>
+      <c r="AC18" s="73"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="34"/>
-      <c r="G19" s="58" t="s">
-        <v>58</v>
+        <v>47</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="27"/>
+      <c r="G19" s="43" t="s">
+        <v>56</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="44" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="58" t="s">
-        <v>58</v>
+      <c r="K19" s="43" t="s">
+        <v>56</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="O19" s="58"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="59"/>
-      <c r="S19" s="58" t="s">
-        <v>58</v>
+      <c r="O19" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q19" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" s="43" t="s">
+        <v>56</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U19" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="U19" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="W19" s="111"/>
+      <c r="W19" s="72"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="112"/>
-      <c r="AA19" s="111"/>
+      <c r="Y19" s="73"/>
+      <c r="AA19" s="72"/>
       <c r="AB19" s="5"/>
-      <c r="AC19" s="112"/>
-    </row>
-    <row r="20" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="G20" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="61" t="s">
+      <c r="AC19" s="73"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="27"/>
+      <c r="G20" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="47"/>
-      <c r="K20" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="L20" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" s="61" t="s">
+      <c r="J20" s="1"/>
+      <c r="K20" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="O20" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" s="61" t="s">
+      <c r="O20" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q20" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="S20" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="T20" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="U20" s="61" t="s">
+      <c r="S20" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U20" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="W20" s="125"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="126"/>
-      <c r="AA20" s="125"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="126"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="73"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="73"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="27"/>
+      <c r="G21" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="43"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="44"/>
+      <c r="S21" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U21" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="W21" s="72"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="73"/>
+      <c r="AA21" s="72"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="73"/>
+    </row>
+    <row r="22" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="27"/>
+      <c r="F22"/>
+      <c r="G22" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22"/>
+      <c r="O22" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22"/>
+      <c r="S22" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U22" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="V22"/>
+      <c r="W22" s="86"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22"/>
+      <c r="AA22" s="86"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="87"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="34"/>
-      <c r="G21" s="58" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="27"/>
+      <c r="G23" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I23" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="58" t="s">
+      <c r="J23" s="1"/>
+      <c r="K23" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="59" t="s">
+      <c r="M23" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="O21" s="58" t="s">
+      <c r="O23" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q21" s="59" t="s">
+      <c r="Q23" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="S21" s="58" t="s">
+      <c r="S23" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="T21" s="5" t="s">
+      <c r="T23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="U21" s="59" t="s">
+      <c r="U23" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="W21" s="111"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="112"/>
-      <c r="AA21" s="111"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="112"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="W23" s="72"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="73"/>
+      <c r="AA23" s="72"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="73"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="34"/>
-      <c r="G22" s="56" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="27"/>
+      <c r="G24" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="57" t="s">
+      <c r="I24" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="56" t="s">
+      <c r="J24" s="1"/>
+      <c r="K24" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M22" s="57" t="s">
+      <c r="M24" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="56" t="s">
+      <c r="O24" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="P24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q22" s="57" t="s">
+      <c r="Q24" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="56"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="57"/>
-      <c r="W22" s="113"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="114"/>
-      <c r="AA22" s="113"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="114"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="S24" s="43"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="44"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="75"/>
+      <c r="AA24" s="74"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="75"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="34"/>
-      <c r="G23" s="56" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="27"/>
+      <c r="G25" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="57" t="s">
+      <c r="I25" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="57"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="57"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="57"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="114"/>
-      <c r="AA23" s="113"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="114"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="J25" s="1"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="44"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="44"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="44"/>
+      <c r="W25" s="74"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="75"/>
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="75"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70"/>
-      <c r="G24" s="56" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="27"/>
+      <c r="G26" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="57" t="s">
+      <c r="I26" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="57"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="57"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="57"/>
-      <c r="W24" s="113"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="114"/>
-      <c r="AA24" s="113"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="114"/>
-    </row>
-    <row r="25" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="35"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="66"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="66"/>
-      <c r="S25" s="64"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="66"/>
-      <c r="W25" s="115"/>
-      <c r="X25" s="116"/>
-      <c r="Y25" s="117"/>
-      <c r="AA25" s="115"/>
-      <c r="AB25" s="116"/>
-      <c r="AC25" s="117"/>
-    </row>
-    <row r="26" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="8"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="9"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="9"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="9"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="9"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="52"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="9"/>
-    </row>
-    <row r="27" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="74" t="s">
+      <c r="K26" s="43"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="44"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="44"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="44"/>
+      <c r="W26" s="74"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="75"/>
+      <c r="AA26" s="74"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="75"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="27"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="44"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="44"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="44"/>
+      <c r="W27" s="74"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="75"/>
+      <c r="AA27" s="74"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="75"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="27"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="44"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="44"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="44"/>
+      <c r="W28" s="74"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="75"/>
+      <c r="AA28" s="74"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="75"/>
+    </row>
+    <row r="29" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="28"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="47"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="47"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="47"/>
+      <c r="W29" s="76"/>
+      <c r="X29" s="77"/>
+      <c r="Y29" s="78"/>
+      <c r="AA29" s="76"/>
+      <c r="AB29" s="77"/>
+      <c r="AC29" s="78"/>
+    </row>
+    <row r="30" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="8"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="9"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="9"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="9"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="39"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="9"/>
+    </row>
+    <row r="31" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="133"/>
-      <c r="G27" s="142" t="s">
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="93"/>
+      <c r="G31" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="143"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="142" t="s">
+      <c r="H31" s="116"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="L27" s="143"/>
-      <c r="M27" s="144"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="142" t="s">
+      <c r="L31" s="116"/>
+      <c r="M31" s="117"/>
+      <c r="O31" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="P27" s="143"/>
-      <c r="Q27" s="144"/>
-      <c r="R27" s="76"/>
-      <c r="S27" s="145" t="s">
+      <c r="P31" s="116"/>
+      <c r="Q31" s="117"/>
+      <c r="S31" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="T27" s="146"/>
-      <c r="U27" s="147"/>
-      <c r="V27" s="76"/>
-      <c r="W27" s="148" t="s">
+      <c r="T31" s="119"/>
+      <c r="U31" s="120"/>
+      <c r="W31" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="X27" s="149"/>
-      <c r="Y27" s="150"/>
-      <c r="Z27" s="76"/>
-      <c r="AA27" s="118" t="s">
+      <c r="X31" s="122"/>
+      <c r="Y31" s="123"/>
+      <c r="AA31" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="AB27" s="119"/>
-      <c r="AC27" s="120"/>
-    </row>
-    <row r="28" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="134" t="s">
+      <c r="AB31" s="80"/>
+      <c r="AC31" s="81"/>
+    </row>
+    <row r="32" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="135" t="s">
+      <c r="B32" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="136"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="137" t="s">
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="106" t="s">
+      <c r="G32" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="90" t="s">
+      <c r="H32" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="107" t="s">
+      <c r="I32" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="106" t="s">
+      <c r="J32" s="1"/>
+      <c r="K32" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="90" t="s">
+      <c r="L32" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="M28" s="107" t="s">
+      <c r="M32" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="O28" s="106" t="s">
+      <c r="O32" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="P28" s="90" t="s">
+      <c r="P32" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="Q28" s="107" t="s">
+      <c r="Q32" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="S28" s="53" t="s">
+      <c r="S32" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="T28" s="54" t="s">
+      <c r="T32" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="U28" s="55" t="s">
+      <c r="U32" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="W28" s="121" t="s">
+      <c r="W32" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="X28" s="122" t="s">
+      <c r="X32" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="Y28" s="123" t="s">
+      <c r="Y32" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="AA28" s="121" t="s">
+      <c r="AA32" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AB28" s="122" t="s">
+      <c r="AB32" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="AC28" s="123" t="s">
+      <c r="AC32" s="84" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+    <row r="33" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B33" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="77" t="s">
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="101"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="100"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="100"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="100"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="59"/>
-      <c r="W29" s="111"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="112"/>
-      <c r="AA29" s="111"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="112"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="78"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="77"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="100"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="100"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="100"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="59"/>
-      <c r="W30" s="111"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="112"/>
-      <c r="AA30" s="111"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="112"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="82"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="100"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="100"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="100"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="59"/>
-      <c r="W31" s="111"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="112"/>
-      <c r="AA31" s="111"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="112"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="82"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="100"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="100"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="100"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="59"/>
-      <c r="W32" s="111"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="112"/>
-      <c r="AA32" s="111"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="112"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="82"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="100"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="100"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="100"/>
-      <c r="S33" s="58"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="44"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="44"/>
+      <c r="S33" s="43"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="59"/>
-      <c r="W33" s="111"/>
+      <c r="U33" s="44"/>
+      <c r="W33" s="72"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="112"/>
-      <c r="AA33" s="111"/>
+      <c r="Y33" s="73"/>
+      <c r="AA33" s="72"/>
       <c r="AB33" s="5"/>
-      <c r="AC33" s="112"/>
+      <c r="AC33" s="73"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="82"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="100"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="100"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="100"/>
-      <c r="S34" s="58"/>
+        <v>86</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="27"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="44"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="44"/>
+      <c r="S34" s="43"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="59"/>
-      <c r="W34" s="111"/>
+      <c r="U34" s="44"/>
+      <c r="W34" s="72"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="112"/>
-      <c r="AA34" s="111"/>
+      <c r="Y34" s="73"/>
+      <c r="AA34" s="72"/>
       <c r="AB34" s="5"/>
-      <c r="AC34" s="112"/>
+      <c r="AC34" s="73"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="82"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="100"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="100"/>
-      <c r="O35" s="101"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="100"/>
-      <c r="S35" s="58"/>
+        <v>87</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="27"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="44"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="44"/>
+      <c r="S35" s="43"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="59"/>
-      <c r="W35" s="111"/>
+      <c r="U35" s="44"/>
+      <c r="W35" s="72"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="112"/>
-      <c r="AA35" s="111"/>
+      <c r="Y35" s="73"/>
+      <c r="AA35" s="72"/>
       <c r="AB35" s="5"/>
-      <c r="AC35" s="112"/>
+      <c r="AC35" s="73"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="82"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="100"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="100"/>
-      <c r="O36" s="101"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="100"/>
-      <c r="S36" s="58"/>
+        <v>88</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="27"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="44"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="44"/>
+      <c r="S36" s="43"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="59"/>
-      <c r="W36" s="111"/>
+      <c r="U36" s="44"/>
+      <c r="W36" s="72"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="112"/>
-      <c r="AA36" s="111"/>
+      <c r="Y36" s="73"/>
+      <c r="AA36" s="72"/>
       <c r="AB36" s="5"/>
-      <c r="AC36" s="112"/>
+      <c r="AC36" s="73"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="82"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="100"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="100"/>
-      <c r="O37" s="101"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="100"/>
-      <c r="S37" s="58"/>
+        <v>89</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="27"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="44"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="44"/>
+      <c r="S37" s="43"/>
       <c r="T37" s="5"/>
-      <c r="U37" s="59"/>
-      <c r="W37" s="111"/>
+      <c r="U37" s="44"/>
+      <c r="W37" s="72"/>
       <c r="X37" s="5"/>
-      <c r="Y37" s="112"/>
-      <c r="AA37" s="111"/>
+      <c r="Y37" s="73"/>
+      <c r="AA37" s="72"/>
       <c r="AB37" s="5"/>
-      <c r="AC37" s="112"/>
+      <c r="AC37" s="73"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="80"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="82"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="100"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="100"/>
-      <c r="O38" s="101"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="100"/>
-      <c r="S38" s="58"/>
+        <v>90</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="27"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="44"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="44"/>
+      <c r="S38" s="43"/>
       <c r="T38" s="5"/>
-      <c r="U38" s="59"/>
-      <c r="W38" s="111"/>
+      <c r="U38" s="44"/>
+      <c r="W38" s="72"/>
       <c r="X38" s="5"/>
-      <c r="Y38" s="112"/>
-      <c r="AA38" s="111"/>
+      <c r="Y38" s="73"/>
+      <c r="AA38" s="72"/>
       <c r="AB38" s="5"/>
-      <c r="AC38" s="112"/>
+      <c r="AC38" s="73"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="83"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="85"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="102"/>
-      <c r="K39" s="101"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="102"/>
-      <c r="O39" s="101"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="102"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="57"/>
-      <c r="W39" s="113"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="114"/>
-      <c r="AA39" s="113"/>
-      <c r="AB39" s="6"/>
-      <c r="AC39" s="114"/>
-    </row>
-    <row r="40" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="85"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="105"/>
-      <c r="K40" s="103"/>
-      <c r="L40" s="104"/>
-      <c r="M40" s="105"/>
-      <c r="O40" s="103"/>
-      <c r="P40" s="104"/>
-      <c r="Q40" s="105"/>
-      <c r="S40" s="64"/>
-      <c r="T40" s="65"/>
-      <c r="U40" s="66"/>
-      <c r="W40" s="115"/>
-      <c r="X40" s="116"/>
-      <c r="Y40" s="117"/>
-      <c r="AA40" s="115"/>
-      <c r="AB40" s="116"/>
-      <c r="AC40" s="117"/>
-    </row>
-    <row r="41" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="139" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="140" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="140"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="141" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="108" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="109" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="108" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="109" t="s">
-        <v>7</v>
-      </c>
-      <c r="M41" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="P41" s="95" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q41" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="T41" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="U41" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="X41" s="129" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y41" s="130" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="131"/>
-      <c r="AA41" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB41" s="129" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC41" s="130" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="78"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="77"/>
-      <c r="G42" s="99"/>
+        <v>91</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="27"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="44"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="44"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="44"/>
+      <c r="W39" s="72"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="73"/>
+      <c r="AA39" s="72"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="73"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="27"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="44"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="44"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="44"/>
+      <c r="W40" s="72"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="73"/>
+      <c r="AA40" s="72"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="73"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="27"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="44"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="44"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="44"/>
+      <c r="W41" s="72"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="73"/>
+      <c r="AA41" s="72"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="73"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="27"/>
+      <c r="G42" s="43"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="100"/>
-      <c r="K42" s="99"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="43"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="100"/>
-      <c r="O42" s="97"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="98"/>
-      <c r="S42" s="62"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="63"/>
-      <c r="W42" s="124"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="127"/>
-      <c r="AA42" s="124"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="127"/>
+      <c r="M42" s="44"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="44"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="44"/>
+      <c r="W42" s="72"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="73"/>
+      <c r="AA42" s="72"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="73"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="82"/>
-      <c r="G43" s="99"/>
+        <v>95</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="27"/>
+      <c r="G43" s="43"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="100"/>
-      <c r="K43" s="99"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="43"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="100"/>
-      <c r="O43" s="99"/>
+      <c r="M43" s="44"/>
+      <c r="O43" s="43"/>
       <c r="P43" s="5"/>
-      <c r="Q43" s="100"/>
-      <c r="S43" s="58"/>
+      <c r="Q43" s="44"/>
+      <c r="S43" s="43"/>
       <c r="T43" s="5"/>
-      <c r="U43" s="59"/>
-      <c r="W43" s="111"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="112"/>
-      <c r="AA43" s="111"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="112"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="80"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="82"/>
-      <c r="G44" s="99"/>
+      <c r="U43" s="44"/>
+      <c r="W43" s="74"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="75"/>
+      <c r="AA43" s="74"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="75"/>
+    </row>
+    <row r="44" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="55"/>
+      <c r="G44" s="43"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="100"/>
-      <c r="K44" s="99"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="43"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="100"/>
-      <c r="O44" s="99"/>
+      <c r="M44" s="44"/>
+      <c r="O44" s="43"/>
       <c r="P44" s="5"/>
-      <c r="Q44" s="100"/>
-      <c r="S44" s="58"/>
+      <c r="Q44" s="44"/>
+      <c r="S44" s="43"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="59"/>
-      <c r="W44" s="111"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="112"/>
-      <c r="AA44" s="111"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="112"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="80"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="82"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="100"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="100"/>
-      <c r="O45" s="99"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="100"/>
-      <c r="S45" s="58"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="59"/>
-      <c r="W45" s="111"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="112"/>
-      <c r="AA45" s="111"/>
-      <c r="AB45" s="5"/>
-      <c r="AC45" s="112"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="U44" s="44"/>
+      <c r="W44" s="76"/>
+      <c r="X44" s="77"/>
+      <c r="Y44" s="78"/>
+      <c r="AA44" s="76"/>
+      <c r="AB44" s="77"/>
+      <c r="AC44" s="78"/>
+    </row>
+    <row r="45" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="M45" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q45" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="U45" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y45" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB45" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC45" s="91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="82"/>
-      <c r="G46" s="99"/>
+        <v>86</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="27"/>
+      <c r="G46" s="43"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="100"/>
-      <c r="K46" s="99"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="43"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="100"/>
-      <c r="O46" s="99"/>
+      <c r="M46" s="44"/>
+      <c r="O46" s="43"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="100"/>
-      <c r="S46" s="58"/>
+      <c r="Q46" s="44"/>
+      <c r="S46" s="43"/>
       <c r="T46" s="5"/>
-      <c r="U46" s="59"/>
-      <c r="W46" s="111"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="112"/>
-      <c r="AA46" s="111"/>
-      <c r="AB46" s="5"/>
-      <c r="AC46" s="112"/>
+      <c r="U46" s="44"/>
+      <c r="W46" s="85"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="88"/>
+      <c r="AA46" s="85"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="88"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="80"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="82"/>
-      <c r="G47" s="99"/>
+        <v>87</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="27"/>
+      <c r="G47" s="43"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="100"/>
-      <c r="K47" s="99"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="43"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="100"/>
-      <c r="O47" s="99"/>
+      <c r="M47" s="44"/>
+      <c r="O47" s="43"/>
       <c r="P47" s="5"/>
-      <c r="Q47" s="100"/>
-      <c r="S47" s="58"/>
+      <c r="Q47" s="44"/>
+      <c r="S47" s="43"/>
       <c r="T47" s="5"/>
-      <c r="U47" s="59"/>
-      <c r="W47" s="111"/>
+      <c r="U47" s="44"/>
+      <c r="W47" s="72"/>
       <c r="X47" s="5"/>
-      <c r="Y47" s="112"/>
-      <c r="AA47" s="111"/>
+      <c r="Y47" s="73"/>
+      <c r="AA47" s="72"/>
       <c r="AB47" s="5"/>
-      <c r="AC47" s="112"/>
+      <c r="AC47" s="73"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="80"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="82"/>
-      <c r="G48" s="99"/>
+        <v>88</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="27"/>
+      <c r="G48" s="43"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="100"/>
-      <c r="K48" s="99"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="43"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="100"/>
-      <c r="O48" s="99"/>
+      <c r="M48" s="44"/>
+      <c r="O48" s="43"/>
       <c r="P48" s="5"/>
-      <c r="Q48" s="100"/>
-      <c r="S48" s="58"/>
+      <c r="Q48" s="44"/>
+      <c r="S48" s="43"/>
       <c r="T48" s="5"/>
-      <c r="U48" s="59"/>
-      <c r="W48" s="111"/>
+      <c r="U48" s="44"/>
+      <c r="W48" s="72"/>
       <c r="X48" s="5"/>
-      <c r="Y48" s="112"/>
-      <c r="AA48" s="111"/>
+      <c r="Y48" s="73"/>
+      <c r="AA48" s="72"/>
       <c r="AB48" s="5"/>
-      <c r="AC48" s="112"/>
+      <c r="AC48" s="73"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" s="80"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="82"/>
-      <c r="G49" s="99"/>
+        <v>89</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="27"/>
+      <c r="G49" s="43"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="100"/>
-      <c r="K49" s="99"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="43"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="100"/>
-      <c r="O49" s="99"/>
+      <c r="M49" s="44"/>
+      <c r="O49" s="43"/>
       <c r="P49" s="5"/>
-      <c r="Q49" s="100"/>
-      <c r="S49" s="58"/>
+      <c r="Q49" s="44"/>
+      <c r="S49" s="43"/>
       <c r="T49" s="5"/>
-      <c r="U49" s="59"/>
-      <c r="W49" s="111"/>
+      <c r="U49" s="44"/>
+      <c r="W49" s="72"/>
       <c r="X49" s="5"/>
-      <c r="Y49" s="112"/>
-      <c r="AA49" s="111"/>
+      <c r="Y49" s="73"/>
+      <c r="AA49" s="72"/>
       <c r="AB49" s="5"/>
-      <c r="AC49" s="112"/>
+      <c r="AC49" s="73"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="80"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="82"/>
-      <c r="G50" s="99"/>
+        <v>90</v>
+      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="27"/>
+      <c r="G50" s="43"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="100"/>
-      <c r="K50" s="99"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="43"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="100"/>
-      <c r="O50" s="99"/>
+      <c r="M50" s="44"/>
+      <c r="O50" s="43"/>
       <c r="P50" s="5"/>
-      <c r="Q50" s="100"/>
-      <c r="S50" s="58"/>
+      <c r="Q50" s="44"/>
+      <c r="S50" s="43"/>
       <c r="T50" s="5"/>
-      <c r="U50" s="59"/>
-      <c r="W50" s="111"/>
+      <c r="U50" s="44"/>
+      <c r="W50" s="72"/>
       <c r="X50" s="5"/>
-      <c r="Y50" s="112"/>
-      <c r="AA50" s="111"/>
+      <c r="Y50" s="73"/>
+      <c r="AA50" s="72"/>
       <c r="AB50" s="5"/>
-      <c r="AC50" s="112"/>
+      <c r="AC50" s="73"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="15"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="27"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="44"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="44"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="44"/>
+      <c r="W51" s="72"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="73"/>
+      <c r="AA51" s="72"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="73"/>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="27"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="44"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="44"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="44"/>
+      <c r="W52" s="72"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="73"/>
+      <c r="AA52" s="72"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="73"/>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="27"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="44"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="44"/>
+      <c r="S53" s="43"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="44"/>
+      <c r="W53" s="72"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="73"/>
+      <c r="AA53" s="72"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="73"/>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="27"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="44"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="44"/>
+      <c r="S54" s="43"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="44"/>
+      <c r="W54" s="72"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="73"/>
+      <c r="AA54" s="72"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="73"/>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="85"/>
-      <c r="G51" s="101"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="102"/>
-      <c r="K51" s="101"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="102"/>
-      <c r="O51" s="101"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="102"/>
-      <c r="S51" s="56"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="57"/>
-      <c r="W51" s="113"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="114"/>
-      <c r="AA51" s="113"/>
-      <c r="AB51" s="6"/>
-      <c r="AC51" s="114"/>
-    </row>
-    <row r="52" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="89"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="87"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="88"/>
-      <c r="G52" s="103"/>
-      <c r="H52" s="104"/>
-      <c r="I52" s="105"/>
-      <c r="K52" s="103"/>
-      <c r="L52" s="104"/>
-      <c r="M52" s="105"/>
-      <c r="O52" s="103"/>
-      <c r="P52" s="104"/>
-      <c r="Q52" s="105"/>
-      <c r="S52" s="64"/>
-      <c r="T52" s="65"/>
-      <c r="U52" s="66"/>
-      <c r="W52" s="115"/>
-      <c r="X52" s="116"/>
-      <c r="Y52" s="117"/>
-      <c r="AA52" s="115"/>
-      <c r="AB52" s="116"/>
-      <c r="AC52" s="117"/>
-    </row>
-    <row r="53" spans="1:29" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G53" s="8"/>
-      <c r="I53" s="9"/>
-      <c r="K53" s="8"/>
-      <c r="M53" s="9"/>
-      <c r="O53" s="8"/>
-      <c r="Q53" s="9"/>
-      <c r="S53" s="8"/>
-      <c r="U53" s="9"/>
-      <c r="W53" s="8"/>
-      <c r="Y53" s="9"/>
-    </row>
-    <row r="54" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="138" t="s">
+      <c r="B55" s="15"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="27"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="44"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="44"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="44"/>
+      <c r="W55" s="74"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="75"/>
+      <c r="AA55" s="74"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="75"/>
+    </row>
+    <row r="56" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="59"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="58"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="44"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="44"/>
+      <c r="S56" s="43"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="44"/>
+      <c r="W56" s="76"/>
+      <c r="X56" s="77"/>
+      <c r="Y56" s="78"/>
+      <c r="AA56" s="76"/>
+      <c r="AB56" s="77"/>
+      <c r="AC56" s="78"/>
+    </row>
+    <row r="57" spans="1:29" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="8"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="8"/>
+      <c r="M57" s="9"/>
+      <c r="O57" s="8"/>
+      <c r="Q57" s="9"/>
+      <c r="S57" s="8"/>
+      <c r="U57" s="9"/>
+      <c r="W57" s="8"/>
+      <c r="Y57" s="9"/>
+    </row>
+    <row r="58" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B58" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="53" t="s">
+      <c r="G58" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H54" s="54" t="s">
+      <c r="H58" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I54" s="55" t="s">
+      <c r="I58" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="K54" s="53" t="s">
+      <c r="J58" s="1"/>
+      <c r="K58" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="L54" s="54" t="s">
+      <c r="L58" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="M54" s="55" t="s">
+      <c r="M58" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="O54" s="53" t="s">
+      <c r="O58" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="P54" s="54" t="s">
+      <c r="P58" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="Q54" s="55" t="s">
+      <c r="Q58" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="S54" s="53" t="s">
+      <c r="S58" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="T54" s="54" t="s">
+      <c r="T58" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="U54" s="55" t="s">
+      <c r="U58" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="W54" s="121" t="s">
+      <c r="W58" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="X54" s="122" t="s">
+      <c r="X58" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="Y54" s="123" t="s">
+      <c r="Y58" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="AA54" s="121" t="s">
+      <c r="AA58" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AB54" s="122" t="s">
+      <c r="AB58" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="AC54" s="123" t="s">
+      <c r="AC58" s="84" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="71" t="s">
+    <row r="59" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="106"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="50"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="44"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="44"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="44"/>
+      <c r="W59" s="72"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="73"/>
+      <c r="AA59" s="72"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="73"/>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A60" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="157" t="s">
+      <c r="B60" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="158"/>
-      <c r="D55" s="159"/>
-      <c r="E55" s="72"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="59"/>
-      <c r="K55" s="58"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="59"/>
-      <c r="O55" s="58"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="59"/>
-      <c r="S55" s="58"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="59"/>
-      <c r="W55" s="111"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="112"/>
-      <c r="AA55" s="111"/>
-      <c r="AB55" s="5"/>
-      <c r="AC55" s="112"/>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A56" s="73" t="s">
+      <c r="C60" s="110"/>
+      <c r="D60" s="111"/>
+      <c r="E60" s="50"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="44"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="44"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="44"/>
+      <c r="W60" s="72"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="73"/>
+      <c r="AA60" s="72"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="73"/>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A61" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="151" t="s">
+      <c r="B61" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="152"/>
-      <c r="D56" s="153"/>
-      <c r="E56" s="72"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="59"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="59"/>
-      <c r="O56" s="58"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="59"/>
-      <c r="S56" s="58"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="59"/>
-      <c r="W56" s="111"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="112"/>
-      <c r="AA56" s="111"/>
-      <c r="AB56" s="5"/>
-      <c r="AC56" s="112"/>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A57" s="73" t="s">
+      <c r="C61" s="110"/>
+      <c r="D61" s="111"/>
+      <c r="E61" s="50"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="44"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="44"/>
+      <c r="S61" s="43"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="44"/>
+      <c r="W61" s="72"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="73"/>
+      <c r="AA61" s="72"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="73"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="151" t="s">
+      <c r="B62" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="152"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="72"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="59"/>
-      <c r="K57" s="58"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="59"/>
-      <c r="O57" s="58"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="59"/>
-      <c r="S57" s="58"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="59"/>
-      <c r="W57" s="111"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="112"/>
-      <c r="AA57" s="111"/>
-      <c r="AB57" s="5"/>
-      <c r="AC57" s="112"/>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A58" s="73" t="s">
+      <c r="C62" s="110"/>
+      <c r="D62" s="111"/>
+      <c r="E62" s="50"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="44"/>
+      <c r="O62" s="43"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="44"/>
+      <c r="S62" s="43"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="44"/>
+      <c r="W62" s="72"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="73"/>
+      <c r="AA62" s="72"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="73"/>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="151" t="s">
+      <c r="B63" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="152"/>
-      <c r="D58" s="153"/>
-      <c r="E58" s="72"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="59"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="59"/>
-      <c r="O58" s="58"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="59"/>
-      <c r="S58" s="58"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="59"/>
-      <c r="W58" s="111"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="112"/>
-      <c r="AA58" s="111"/>
-      <c r="AB58" s="5"/>
-      <c r="AC58" s="112"/>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A59" s="73"/>
-      <c r="B59" s="151"/>
-      <c r="C59" s="152"/>
-      <c r="D59" s="153"/>
-      <c r="E59" s="72"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="59"/>
-      <c r="K59" s="58"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="59"/>
-      <c r="O59" s="58"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="59"/>
-      <c r="S59" s="58"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="59"/>
-      <c r="W59" s="111"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="112"/>
-      <c r="AA59" s="111"/>
-      <c r="AB59" s="5"/>
-      <c r="AC59" s="112"/>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="31"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="59"/>
-      <c r="K60" s="58"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="59"/>
-      <c r="O60" s="58"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="59"/>
-      <c r="S60" s="58"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="59"/>
-      <c r="W60" s="111"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="112"/>
-      <c r="AA60" s="111"/>
-      <c r="AB60" s="5"/>
-      <c r="AC60" s="112"/>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="151"/>
-      <c r="C61" s="152"/>
-      <c r="D61" s="153"/>
-      <c r="E61" s="31"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="59"/>
-      <c r="K61" s="58"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="59"/>
-      <c r="O61" s="58"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="59"/>
-      <c r="S61" s="58"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="59"/>
-      <c r="W61" s="111"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="112"/>
-      <c r="AA61" s="111"/>
-      <c r="AB61" s="5"/>
-      <c r="AC61" s="112"/>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
-      <c r="B62" s="151"/>
-      <c r="C62" s="152"/>
-      <c r="D62" s="153"/>
-      <c r="E62" s="31"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="59"/>
-      <c r="K62" s="58"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="59"/>
-      <c r="O62" s="58"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="59"/>
-      <c r="S62" s="58"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="59"/>
-      <c r="W62" s="111"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="112"/>
-      <c r="AA62" s="111"/>
-      <c r="AB62" s="5"/>
-      <c r="AC62" s="112"/>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="151"/>
-      <c r="C63" s="152"/>
-      <c r="D63" s="153"/>
-      <c r="E63" s="31"/>
-      <c r="G63" s="58"/>
+      <c r="C63" s="110"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="50"/>
+      <c r="G63" s="43"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="59"/>
-      <c r="K63" s="58"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="43"/>
       <c r="L63" s="5"/>
-      <c r="M63" s="59"/>
-      <c r="O63" s="58"/>
+      <c r="M63" s="44"/>
+      <c r="O63" s="43"/>
       <c r="P63" s="5"/>
-      <c r="Q63" s="59"/>
-      <c r="S63" s="58"/>
+      <c r="Q63" s="44"/>
+      <c r="S63" s="43"/>
       <c r="T63" s="5"/>
-      <c r="U63" s="59"/>
-      <c r="W63" s="111"/>
+      <c r="U63" s="44"/>
+      <c r="W63" s="72"/>
       <c r="X63" s="5"/>
-      <c r="Y63" s="112"/>
-      <c r="AA63" s="111"/>
+      <c r="Y63" s="73"/>
+      <c r="AA63" s="72"/>
       <c r="AB63" s="5"/>
-      <c r="AC63" s="112"/>
+      <c r="AC63" s="73"/>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="151"/>
-      <c r="C64" s="152"/>
-      <c r="D64" s="153"/>
-      <c r="E64" s="31"/>
-      <c r="G64" s="58"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="25"/>
+      <c r="G64" s="43"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="59"/>
-      <c r="K64" s="58"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="43"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="59"/>
-      <c r="O64" s="58"/>
+      <c r="M64" s="44"/>
+      <c r="O64" s="43"/>
       <c r="P64" s="5"/>
-      <c r="Q64" s="59"/>
-      <c r="S64" s="58"/>
+      <c r="Q64" s="44"/>
+      <c r="S64" s="43"/>
       <c r="T64" s="5"/>
-      <c r="U64" s="59"/>
-      <c r="W64" s="111"/>
+      <c r="U64" s="44"/>
+      <c r="W64" s="72"/>
       <c r="X64" s="5"/>
-      <c r="Y64" s="112"/>
-      <c r="AA64" s="111"/>
+      <c r="Y64" s="73"/>
+      <c r="AA64" s="72"/>
       <c r="AB64" s="5"/>
-      <c r="AC64" s="112"/>
-    </row>
-    <row r="65" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="28"/>
-      <c r="B65" s="154"/>
-      <c r="C65" s="155"/>
-      <c r="D65" s="156"/>
-      <c r="E65" s="32"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="66"/>
-      <c r="K65" s="64"/>
-      <c r="L65" s="65"/>
-      <c r="M65" s="66"/>
-      <c r="O65" s="64"/>
-      <c r="P65" s="65"/>
-      <c r="Q65" s="66"/>
-      <c r="S65" s="64"/>
-      <c r="T65" s="65"/>
-      <c r="U65" s="66"/>
-      <c r="W65" s="115"/>
-      <c r="X65" s="116"/>
-      <c r="Y65" s="117"/>
-      <c r="AA65" s="115"/>
-      <c r="AB65" s="116"/>
-      <c r="AC65" s="117"/>
-    </row>
-    <row r="66" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="AC64" s="73"/>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A65" s="21"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="110"/>
+      <c r="D65" s="111"/>
+      <c r="E65" s="25"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="44"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="44"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="44"/>
+      <c r="W65" s="72"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="73"/>
+      <c r="AA65" s="72"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="73"/>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A66" s="21"/>
+      <c r="B66" s="109"/>
+      <c r="C66" s="110"/>
+      <c r="D66" s="111"/>
+      <c r="E66" s="25"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="44"/>
+      <c r="O66" s="43"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="44"/>
+      <c r="S66" s="43"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="44"/>
+      <c r="W66" s="72"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="73"/>
+      <c r="AA66" s="72"/>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="73"/>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A67" s="21"/>
+      <c r="B67" s="109"/>
+      <c r="C67" s="110"/>
+      <c r="D67" s="111"/>
+      <c r="E67" s="25"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="44"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="44"/>
+      <c r="S67" s="43"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="44"/>
+      <c r="W67" s="72"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="73"/>
+      <c r="AA67" s="72"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="73"/>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A68" s="21"/>
+      <c r="B68" s="109"/>
+      <c r="C68" s="110"/>
+      <c r="D68" s="111"/>
+      <c r="E68" s="25"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="44"/>
+      <c r="O68" s="43"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="44"/>
+      <c r="S68" s="43"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="44"/>
+      <c r="W68" s="72"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="73"/>
+      <c r="AA68" s="72"/>
+      <c r="AB68" s="5"/>
+      <c r="AC68" s="73"/>
+    </row>
+    <row r="69" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="22"/>
+      <c r="B69" s="112"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="26"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="45"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="47"/>
+      <c r="O69" s="45"/>
+      <c r="P69" s="46"/>
+      <c r="Q69" s="47"/>
+      <c r="S69" s="45"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="47"/>
+      <c r="W69" s="76"/>
+      <c r="X69" s="77"/>
+      <c r="Y69" s="78"/>
+      <c r="AA69" s="76"/>
+      <c r="AB69" s="77"/>
+      <c r="AC69" s="78"/>
+    </row>
+    <row r="70" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="W4:AC26 W54:AC65" name="customEntities"/>
+    <protectedRange sqref="W4:AC6 W58:Y69 W7:Y30 AA7:AC30 AA58:AC69 Z7:Z69" name="customEntities"/>
     <protectedRange sqref="A1" name="Titel"/>
-    <protectedRange sqref="A7:AC25" name="Contact Fields"/>
-    <protectedRange sqref="A60:R65 F55:R59 S55:AC65" name="Questionnaire"/>
-    <protectedRange sqref="A55:E59" name="Questionnaire_1"/>
-    <protectedRange sqref="S27:AC28 S41:AC41" name="customEntities_2"/>
-    <protectedRange sqref="N29:N40 J29:J40 R29:R40 A42:R52 A29:F40" name="Questionnaire_3"/>
+    <protectedRange sqref="A7:E29 G7:I29 K7:M29 O7:Q29 S7:U29 W7:Y29 AA7:AC29" name="Contact Fields"/>
+    <protectedRange sqref="A64:E69 G59:I69 K59:M69 O59:Q69 S59:U69 W59:Y69 AA59:AC69" name="Questionnaire"/>
+    <protectedRange sqref="A59:E63" name="Questionnaire_1"/>
+    <protectedRange sqref="S31:U32 S45:U45 W31:Y32 W45:Y45 AA31:AC32 AA45:AC45" name="customEntities_2"/>
+    <protectedRange sqref="A46:E56 A33:E44 G46:I56 K46:M56 O46:Q56" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="21">
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="S4:U4"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="W27:Y27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="W8:AK26 A8:R26">
+  <conditionalFormatting sqref="W10:Y30 K29:M30 O29:Q30 AA10:AK30 G7:I30 A7:E30">
+    <cfRule type="expression" dxfId="65" priority="71">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="72">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA59:AC69">
+    <cfRule type="expression" dxfId="63" priority="69">
+      <formula>$C59="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="70">
+      <formula>$D59="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W59:Y69">
     <cfRule type="expression" dxfId="61" priority="67">
-      <formula>$C8="x"</formula>
+      <formula>$C59="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="60" priority="68">
-      <formula>$D8="x"</formula>
+      <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA55:AC65">
+  <conditionalFormatting sqref="O59:Q69">
     <cfRule type="expression" dxfId="59" priority="65">
-      <formula>$C55="x"</formula>
+      <formula>$C59="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="58" priority="66">
-      <formula>$D55="x"</formula>
+      <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W55:Y65">
+  <conditionalFormatting sqref="K59:M69">
     <cfRule type="expression" dxfId="57" priority="63">
-      <formula>$C55="x"</formula>
+      <formula>$C59="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="56" priority="64">
-      <formula>$D55="x"</formula>
+      <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O55:Q65">
+  <conditionalFormatting sqref="G59:I69">
     <cfRule type="expression" dxfId="55" priority="61">
-      <formula>$C55="x"</formula>
+      <formula>$C59="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="54" priority="62">
-      <formula>$D55="x"</formula>
+      <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:M65">
-    <cfRule type="expression" dxfId="53" priority="59">
-      <formula>$C55="x"</formula>
+  <conditionalFormatting sqref="S30:U30">
+    <cfRule type="expression" dxfId="53" priority="53">
+      <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="60">
-      <formula>$D55="x"</formula>
+    <cfRule type="expression" dxfId="52" priority="54">
+      <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G55:I65">
-    <cfRule type="expression" dxfId="51" priority="57">
-      <formula>$C55="x"</formula>
+  <conditionalFormatting sqref="S59:U69">
+    <cfRule type="expression" dxfId="51" priority="51">
+      <formula>$C59="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="58">
-      <formula>$D55="x"</formula>
+    <cfRule type="expression" dxfId="50" priority="52">
+      <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S26:V26 V8:V25">
+  <conditionalFormatting sqref="S29:U29">
     <cfRule type="expression" dxfId="49" priority="49">
-      <formula>$C8="x"</formula>
+      <formula>$C29="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="48" priority="50">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S55:U65">
-    <cfRule type="expression" dxfId="47" priority="47">
-      <formula>$C55="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="48">
-      <formula>$D55="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S8:U25">
-    <cfRule type="expression" dxfId="45" priority="45">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="46">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:AE53">
-    <cfRule type="expression" dxfId="43" priority="37">
-      <formula>$C53="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="38">
-      <formula>$D53="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z29:AG34 AA35:AG52 B34 A34:A36 C34:F36 A28:AG28 A27:F27 J27 N27 R27:AG27 A29:F33 A37:F40 N29:N40 J29:J40 R29:R40 A42:R52 A41:AC41 W27:AC28">
-    <cfRule type="expression" dxfId="41" priority="35">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="36">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B36">
-    <cfRule type="expression" dxfId="39" priority="33">
-      <formula>$C34="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
-      <formula>$D34="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O29:O30">
-    <cfRule type="expression" dxfId="37" priority="31">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="32">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P29:Q30">
-    <cfRule type="expression" dxfId="35" priority="29">
-      <formula>$C29="x"</formula>
+  <conditionalFormatting sqref="A57:E57 G57:I57 K57:M57 O57:Q57 S57:U57 W57:Y57 AA57:AE57">
+    <cfRule type="expression" dxfId="47" priority="41">
+      <formula>$C57="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
-      <formula>$D29="x"</formula>
+    <cfRule type="expression" dxfId="46" priority="42">
+      <formula>$D57="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O31:O40">
-    <cfRule type="expression" dxfId="33" priority="27">
+  <conditionalFormatting sqref="A31:E32 A44:E45 G45:I45 G32:I32 K32:M32 K45:M45 O45:Q45 O32:Q32 S31:U32 S45:U45 W45:Y45 W31:Y32 AA31:AG56 A56:E56">
+    <cfRule type="expression" dxfId="45" priority="39">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="28">
+    <cfRule type="expression" dxfId="44" priority="40">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P31:Q40">
-    <cfRule type="expression" dxfId="31" priority="25">
-      <formula>$C31="x"</formula>
+  <conditionalFormatting sqref="W33:Y43 AA33:AC43">
+    <cfRule type="expression" dxfId="17" priority="11">
+      <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
-      <formula>$D31="x"</formula>
+    <cfRule type="expression" dxfId="16" priority="12">
+      <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:K30">
-    <cfRule type="expression" dxfId="29" priority="23">
-      <formula>$C29="x"</formula>
+  <conditionalFormatting sqref="W46:Y55 AA46:AC55">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>$C46="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
-      <formula>$D29="x"</formula>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>$D46="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29:M30">
-    <cfRule type="expression" dxfId="27" priority="21">
-      <formula>$C29="x"</formula>
+  <conditionalFormatting sqref="W56:Y56 AA56:AC56">
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
-      <formula>$D29="x"</formula>
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:K40">
-    <cfRule type="expression" dxfId="25" priority="19">
-      <formula>$C31="x"</formula>
+  <conditionalFormatting sqref="W44:Y44 AA44:AC44">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="20">
-      <formula>$D31="x"</formula>
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L31:M40">
-    <cfRule type="expression" dxfId="23" priority="17">
-      <formula>$C31="x"</formula>
+  <conditionalFormatting sqref="S46:U56 O46:Q56 K46:M56 G46:I56 G33:I44 K33:M44 O33:Q44 S33:U44 S7:U28 O7:Q28 K7:M28">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
-      <formula>$D31="x"</formula>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G30">
-    <cfRule type="expression" dxfId="21" priority="15">
-      <formula>$C29="x"</formula>
+  <conditionalFormatting sqref="A46:E55 A33:E43">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:I30">
-    <cfRule type="expression" dxfId="19" priority="13">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G40">
-    <cfRule type="expression" dxfId="17" priority="11">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:I40">
-    <cfRule type="expression" dxfId="15" priority="9">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S29:AC39">
-    <cfRule type="expression" dxfId="13" priority="7">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S42:AC51">
-    <cfRule type="expression" dxfId="11" priority="5">
-      <formula>$C42="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
-      <formula>$D42="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S52:AC52">
-    <cfRule type="expression" dxfId="9" priority="3">
-      <formula>$C52="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
-      <formula>$D52="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S40:AC40">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>$C40="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>$D40="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z49">
-    <cfRule type="expression" dxfId="5" priority="39">
-      <formula>$C53="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="40">
-      <formula>$D53="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z35 Z40:Z47">
-    <cfRule type="expression" dxfId="3" priority="41">
-      <formula>$C38="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="42">
-      <formula>$D38="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z48 Z36:Z39">
-    <cfRule type="expression" dxfId="1" priority="43">
-      <formula>$C40="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="44">
-      <formula>$D40="x"</formula>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25 C42:D52 C29:D40" xr:uid="{F107F338-F4E1-4846-B740-D5F4398D0DCB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D29 C46:D56 C33:D44" xr:uid="{F107F338-F4E1-4846-B740-D5F4398D0DCB}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 M7:M25 Q7:Q25 U7:U25 Y7:Y25 AC7:AC25 AC29:AC40 Y29:Y40 U29:U40 Q29:Q40 M29:M40 I29:I40 I42:I52 M42:M52 Q42:Q52 U42:U52 Y42:Y52 AC43:AC52 AC42 AC55:AC65 Y55:Y65 U55:U65 Q55:Q65 M55:M65 I55:I65" xr:uid="{4B2AC6D7-F193-4515-97FD-BE013153756D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I29 M7:M29 Q7:Q29 U7:U29 Y7:Y29 AC7:AC29 AC33:AC44 Y33:Y44 U33:U44 Q33:Q44 M33:M44 I33:I44 I46:I56 M46:M56 Q46:Q56 U46:U56 Y46:Y56 AC46:AC56 AC59:AC69 Y59:Y69 U59:U69 Q59:Q69 M59:M69 I59:I69" xr:uid="{4B2AC6D7-F193-4515-97FD-BE013153756D}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6326,6 +6085,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6534,36 +6308,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6586,9 +6334,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E31FAE7-0515-4BCC-AB91-0C479C0A35C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE88AFB-5BCF-495A-80B0-B90C11ACE730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="4725" windowWidth="18255" windowHeight="5385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="111">
   <si>
     <t>Website</t>
   </si>
@@ -548,7 +548,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="96">
+  <borders count="95">
     <border>
       <left/>
       <right/>
@@ -1167,19 +1167,6 @@
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
       <bottom style="thick">
         <color rgb="FF9DA600"/>
       </bottom>
@@ -1763,7 +1750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1854,86 +1841,90 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1953,38 +1944,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="53">
     <dxf>
       <font>
         <b val="0"/>
@@ -2037,8 +2022,8 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14990691854609822"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -2059,8 +2044,118 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14990691854609822"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14990691854609822"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14990691854609822"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14990691854609822"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14990691854609822"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14990691854609822"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -2148,314 +2243,6 @@
       </font>
       <fill>
         <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
@@ -2785,11 +2572,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="70"/>
-      <tableStyleElement type="headerRow" dxfId="69"/>
-      <tableStyleElement type="firstColumn" dxfId="68"/>
-      <tableStyleElement type="firstRowStripe" dxfId="67"/>
-      <tableStyleElement type="secondRowStripe" dxfId="66"/>
+      <tableStyleElement type="wholeTable" dxfId="52"/>
+      <tableStyleElement type="headerRow" dxfId="51"/>
+      <tableStyleElement type="firstColumn" dxfId="50"/>
+      <tableStyleElement type="firstRowStripe" dxfId="49"/>
+      <tableStyleElement type="secondRowStripe" dxfId="48"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3482,7 +3269,7 @@
   <dimension ref="A1:AC70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3550,41 +3337,41 @@
         <v>68</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="G4" s="105" t="s">
+      <c r="G4" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="O4" s="105" t="s">
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="O4" s="121" t="s">
         <v>100</v>
       </c>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="S4" s="105" t="s">
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="S4" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="W4" s="102" t="s">
+      <c r="T4" s="121"/>
+      <c r="U4" s="121"/>
+      <c r="W4" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="104"/>
-      <c r="AA4" s="102" t="s">
+      <c r="X4" s="119"/>
+      <c r="Y4" s="120"/>
+      <c r="AA4" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="104"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="120"/>
     </row>
     <row r="5" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="92" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -3632,22 +3419,22 @@
       <c r="U6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="82" t="s">
+      <c r="W6" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="X6" s="83" t="s">
+      <c r="X6" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="Y6" s="84" t="s">
+      <c r="Y6" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AA6" s="82" t="s">
+      <c r="AA6" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AB6" s="83" t="s">
+      <c r="AB6" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="AC6" s="84" t="s">
+      <c r="AC6" s="82" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3682,12 +3469,12 @@
       <c r="S7" s="43"/>
       <c r="T7" s="5"/>
       <c r="U7" s="44"/>
-      <c r="W7" s="74"/>
+      <c r="W7" s="72"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="75"/>
-      <c r="AA7" s="74"/>
+      <c r="Y7" s="73"/>
+      <c r="AA7" s="72"/>
       <c r="AB7" s="6"/>
-      <c r="AC7" s="75"/>
+      <c r="AC7" s="73"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -3720,12 +3507,12 @@
       <c r="S8" s="43"/>
       <c r="T8" s="5"/>
       <c r="U8" s="44"/>
-      <c r="W8" s="74"/>
+      <c r="W8" s="72"/>
       <c r="X8" s="6"/>
-      <c r="Y8" s="75"/>
-      <c r="AA8" s="74"/>
+      <c r="Y8" s="73"/>
+      <c r="AA8" s="72"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="75"/>
+      <c r="AC8" s="73"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -3746,12 +3533,12 @@
       <c r="S9" s="43"/>
       <c r="T9" s="5"/>
       <c r="U9" s="44"/>
-      <c r="W9" s="74"/>
+      <c r="W9" s="72"/>
       <c r="X9" s="6"/>
-      <c r="Y9" s="75"/>
-      <c r="AA9" s="74"/>
+      <c r="Y9" s="73"/>
+      <c r="AA9" s="72"/>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="75"/>
+      <c r="AC9" s="73"/>
     </row>
     <row r="10" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -3796,17 +3583,19 @@
         <v>79</v>
       </c>
       <c r="V10"/>
-      <c r="W10" s="72" t="s">
+      <c r="W10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="X10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Y10" s="73"/>
+      <c r="Y10" s="71" t="s">
+        <v>10</v>
+      </c>
       <c r="Z10"/>
-      <c r="AA10" s="72"/>
+      <c r="AA10" s="70"/>
       <c r="AB10" s="5"/>
-      <c r="AC10" s="73"/>
+      <c r="AC10" s="71"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -3847,16 +3636,18 @@
       <c r="U11" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="W11" s="85" t="s">
+      <c r="W11" s="83" t="s">
         <v>13</v>
       </c>
       <c r="X11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Y11" s="73"/>
-      <c r="AA11" s="72"/>
+      <c r="Y11" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA11" s="70"/>
       <c r="AB11" s="5"/>
-      <c r="AC11" s="73"/>
+      <c r="AC11" s="71"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -3897,12 +3688,12 @@
       <c r="U12" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="W12" s="72"/>
+      <c r="W12" s="70"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="73"/>
-      <c r="AA12" s="72"/>
+      <c r="Y12" s="71"/>
+      <c r="AA12" s="70"/>
       <c r="AB12" s="5"/>
-      <c r="AC12" s="73"/>
+      <c r="AC12" s="71"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -3949,12 +3740,12 @@
       <c r="U13" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="W13" s="72"/>
+      <c r="W13" s="70"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="73"/>
-      <c r="AA13" s="72"/>
+      <c r="Y13" s="71"/>
+      <c r="AA13" s="70"/>
       <c r="AB13" s="5"/>
-      <c r="AC13" s="73"/>
+      <c r="AC13" s="71"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -4001,12 +3792,12 @@
       <c r="U14" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="72"/>
+      <c r="W14" s="70"/>
       <c r="X14" s="5"/>
-      <c r="Y14" s="73"/>
-      <c r="AA14" s="72"/>
+      <c r="Y14" s="71"/>
+      <c r="AA14" s="70"/>
       <c r="AB14" s="5"/>
-      <c r="AC14" s="73"/>
+      <c r="AC14" s="71"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -4053,12 +3844,12 @@
       <c r="U15" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="W15" s="72"/>
+      <c r="W15" s="70"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="73"/>
-      <c r="AA15" s="72"/>
+      <c r="Y15" s="71"/>
+      <c r="AA15" s="70"/>
       <c r="AB15" s="5"/>
-      <c r="AC15" s="73"/>
+      <c r="AC15" s="71"/>
     </row>
     <row r="16" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -4109,13 +3900,13 @@
         <v>10</v>
       </c>
       <c r="V16"/>
-      <c r="W16" s="86"/>
+      <c r="W16" s="84"/>
       <c r="X16" s="35"/>
-      <c r="Y16" s="87"/>
+      <c r="Y16" s="85"/>
       <c r="Z16"/>
-      <c r="AA16" s="86"/>
+      <c r="AA16" s="84"/>
       <c r="AB16" s="35"/>
-      <c r="AC16" s="87"/>
+      <c r="AC16" s="85"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -4162,12 +3953,12 @@
       <c r="U17" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="W17" s="72"/>
+      <c r="W17" s="70"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="73"/>
-      <c r="AA17" s="72"/>
+      <c r="Y17" s="71"/>
+      <c r="AA17" s="70"/>
       <c r="AB17" s="5"/>
-      <c r="AC17" s="73"/>
+      <c r="AC17" s="71"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -4214,12 +4005,12 @@
       <c r="U18" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="W18" s="72"/>
+      <c r="W18" s="70"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="73"/>
-      <c r="AA18" s="72"/>
+      <c r="Y18" s="71"/>
+      <c r="AA18" s="70"/>
       <c r="AB18" s="5"/>
-      <c r="AC18" s="73"/>
+      <c r="AC18" s="71"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -4266,12 +4057,12 @@
       <c r="U19" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="W19" s="72"/>
+      <c r="W19" s="70"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="73"/>
-      <c r="AA19" s="72"/>
+      <c r="Y19" s="71"/>
+      <c r="AA19" s="70"/>
       <c r="AB19" s="5"/>
-      <c r="AC19" s="73"/>
+      <c r="AC19" s="71"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -4318,12 +4109,12 @@
       <c r="U20" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="W20" s="72"/>
+      <c r="W20" s="70"/>
       <c r="X20" s="5"/>
-      <c r="Y20" s="73"/>
-      <c r="AA20" s="72"/>
+      <c r="Y20" s="71"/>
+      <c r="AA20" s="70"/>
       <c r="AB20" s="5"/>
-      <c r="AC20" s="73"/>
+      <c r="AC20" s="71"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -4364,12 +4155,12 @@
       <c r="U21" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="W21" s="72"/>
+      <c r="W21" s="70"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="73"/>
-      <c r="AA21" s="72"/>
+      <c r="Y21" s="71"/>
+      <c r="AA21" s="70"/>
       <c r="AB21" s="5"/>
-      <c r="AC21" s="73"/>
+      <c r="AC21" s="71"/>
     </row>
     <row r="22" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -4420,13 +4211,13 @@
         <v>10</v>
       </c>
       <c r="V22"/>
-      <c r="W22" s="86"/>
+      <c r="W22" s="84"/>
       <c r="X22" s="35"/>
-      <c r="Y22" s="87"/>
+      <c r="Y22" s="85"/>
       <c r="Z22"/>
-      <c r="AA22" s="86"/>
+      <c r="AA22" s="84"/>
       <c r="AB22" s="35"/>
-      <c r="AC22" s="87"/>
+      <c r="AC22" s="85"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -4473,12 +4264,12 @@
       <c r="U23" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="W23" s="72"/>
+      <c r="W23" s="70"/>
       <c r="X23" s="5"/>
-      <c r="Y23" s="73"/>
-      <c r="AA23" s="72"/>
+      <c r="Y23" s="71"/>
+      <c r="AA23" s="70"/>
       <c r="AB23" s="5"/>
-      <c r="AC23" s="73"/>
+      <c r="AC23" s="71"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -4519,12 +4310,12 @@
       <c r="S24" s="43"/>
       <c r="T24" s="5"/>
       <c r="U24" s="44"/>
-      <c r="W24" s="74"/>
+      <c r="W24" s="72"/>
       <c r="X24" s="6"/>
-      <c r="Y24" s="75"/>
-      <c r="AA24" s="74"/>
+      <c r="Y24" s="73"/>
+      <c r="AA24" s="72"/>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="75"/>
+      <c r="AC24" s="73"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -4553,12 +4344,12 @@
       <c r="S25" s="43"/>
       <c r="T25" s="5"/>
       <c r="U25" s="44"/>
-      <c r="W25" s="74"/>
+      <c r="W25" s="72"/>
       <c r="X25" s="6"/>
-      <c r="Y25" s="75"/>
-      <c r="AA25" s="74"/>
+      <c r="Y25" s="73"/>
+      <c r="AA25" s="72"/>
       <c r="AB25" s="6"/>
-      <c r="AC25" s="75"/>
+      <c r="AC25" s="73"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -4587,12 +4378,12 @@
       <c r="S26" s="43"/>
       <c r="T26" s="5"/>
       <c r="U26" s="44"/>
-      <c r="W26" s="74"/>
+      <c r="W26" s="72"/>
       <c r="X26" s="6"/>
-      <c r="Y26" s="75"/>
-      <c r="AA26" s="74"/>
+      <c r="Y26" s="73"/>
+      <c r="AA26" s="72"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="75"/>
+      <c r="AC26" s="73"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -4613,12 +4404,12 @@
       <c r="S27" s="43"/>
       <c r="T27" s="5"/>
       <c r="U27" s="44"/>
-      <c r="W27" s="74"/>
+      <c r="W27" s="72"/>
       <c r="X27" s="6"/>
-      <c r="Y27" s="75"/>
-      <c r="AA27" s="74"/>
+      <c r="Y27" s="73"/>
+      <c r="AA27" s="72"/>
       <c r="AB27" s="6"/>
-      <c r="AC27" s="75"/>
+      <c r="AC27" s="73"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -4639,12 +4430,12 @@
       <c r="S28" s="43"/>
       <c r="T28" s="5"/>
       <c r="U28" s="44"/>
-      <c r="W28" s="74"/>
+      <c r="W28" s="72"/>
       <c r="X28" s="6"/>
-      <c r="Y28" s="75"/>
-      <c r="AA28" s="74"/>
+      <c r="Y28" s="73"/>
+      <c r="AA28" s="72"/>
       <c r="AB28" s="6"/>
-      <c r="AC28" s="75"/>
+      <c r="AC28" s="73"/>
     </row>
     <row r="29" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
@@ -4665,12 +4456,12 @@
       <c r="S29" s="45"/>
       <c r="T29" s="46"/>
       <c r="U29" s="47"/>
-      <c r="W29" s="76"/>
-      <c r="X29" s="77"/>
-      <c r="Y29" s="78"/>
-      <c r="AA29" s="76"/>
-      <c r="AB29" s="77"/>
-      <c r="AC29" s="78"/>
+      <c r="W29" s="74"/>
+      <c r="X29" s="75"/>
+      <c r="Y29" s="76"/>
+      <c r="AA29" s="74"/>
+      <c r="AB29" s="75"/>
+      <c r="AC29" s="76"/>
     </row>
     <row r="30" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G30" s="8"/>
@@ -4697,80 +4488,80 @@
       <c r="A31" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="93"/>
-      <c r="G31" s="115" t="s">
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="91"/>
+      <c r="G31" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="H31" s="116"/>
-      <c r="I31" s="117"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="102"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="115" t="s">
+      <c r="K31" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="L31" s="116"/>
-      <c r="M31" s="117"/>
-      <c r="O31" s="115" t="s">
+      <c r="L31" s="101"/>
+      <c r="M31" s="102"/>
+      <c r="O31" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="P31" s="116"/>
-      <c r="Q31" s="117"/>
-      <c r="S31" s="118" t="s">
+      <c r="P31" s="101"/>
+      <c r="Q31" s="102"/>
+      <c r="S31" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="T31" s="119"/>
-      <c r="U31" s="120"/>
-      <c r="W31" s="121" t="s">
+      <c r="T31" s="104"/>
+      <c r="U31" s="105"/>
+      <c r="W31" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="X31" s="122"/>
-      <c r="Y31" s="123"/>
-      <c r="AA31" s="79" t="s">
+      <c r="X31" s="107"/>
+      <c r="Y31" s="108"/>
+      <c r="AA31" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="AB31" s="80"/>
-      <c r="AC31" s="81"/>
+      <c r="AB31" s="78"/>
+      <c r="AC31" s="79"/>
     </row>
     <row r="32" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="95" t="s">
+      <c r="B32" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="97" t="s">
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="67" t="s">
+      <c r="G32" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="60" t="s">
+      <c r="H32" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I32" s="68" t="s">
+      <c r="I32" s="66" t="s">
         <v>5</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="67" t="s">
+      <c r="K32" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="60" t="s">
+      <c r="L32" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="M32" s="68" t="s">
+      <c r="M32" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="O32" s="67" t="s">
+      <c r="O32" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="60" t="s">
+      <c r="P32" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="Q32" s="68" t="s">
+      <c r="Q32" s="66" t="s">
         <v>5</v>
       </c>
       <c r="S32" s="40" t="s">
@@ -4782,22 +4573,22 @@
       <c r="U32" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="W32" s="82" t="s">
+      <c r="W32" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="X32" s="83" t="s">
+      <c r="X32" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="Y32" s="84" t="s">
+      <c r="Y32" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AA32" s="82" t="s">
+      <c r="AA32" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AB32" s="83" t="s">
+      <c r="AB32" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="AC32" s="84" t="s">
+      <c r="AC32" s="82" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4826,12 +4617,12 @@
       <c r="S33" s="43"/>
       <c r="T33" s="5"/>
       <c r="U33" s="44"/>
-      <c r="W33" s="72"/>
+      <c r="W33" s="70"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="73"/>
-      <c r="AA33" s="72"/>
+      <c r="Y33" s="71"/>
+      <c r="AA33" s="70"/>
       <c r="AB33" s="5"/>
-      <c r="AC33" s="73"/>
+      <c r="AC33" s="71"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
@@ -4854,12 +4645,12 @@
       <c r="S34" s="43"/>
       <c r="T34" s="5"/>
       <c r="U34" s="44"/>
-      <c r="W34" s="72"/>
+      <c r="W34" s="70"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="73"/>
-      <c r="AA34" s="72"/>
+      <c r="Y34" s="71"/>
+      <c r="AA34" s="70"/>
       <c r="AB34" s="5"/>
-      <c r="AC34" s="73"/>
+      <c r="AC34" s="71"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -4882,12 +4673,12 @@
       <c r="S35" s="43"/>
       <c r="T35" s="5"/>
       <c r="U35" s="44"/>
-      <c r="W35" s="72"/>
+      <c r="W35" s="70"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="73"/>
-      <c r="AA35" s="72"/>
+      <c r="Y35" s="71"/>
+      <c r="AA35" s="70"/>
       <c r="AB35" s="5"/>
-      <c r="AC35" s="73"/>
+      <c r="AC35" s="71"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -4910,12 +4701,12 @@
       <c r="S36" s="43"/>
       <c r="T36" s="5"/>
       <c r="U36" s="44"/>
-      <c r="W36" s="72"/>
+      <c r="W36" s="70"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="73"/>
-      <c r="AA36" s="72"/>
+      <c r="Y36" s="71"/>
+      <c r="AA36" s="70"/>
       <c r="AB36" s="5"/>
-      <c r="AC36" s="73"/>
+      <c r="AC36" s="71"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
@@ -4938,12 +4729,12 @@
       <c r="S37" s="43"/>
       <c r="T37" s="5"/>
       <c r="U37" s="44"/>
-      <c r="W37" s="72"/>
+      <c r="W37" s="70"/>
       <c r="X37" s="5"/>
-      <c r="Y37" s="73"/>
-      <c r="AA37" s="72"/>
+      <c r="Y37" s="71"/>
+      <c r="AA37" s="70"/>
       <c r="AB37" s="5"/>
-      <c r="AC37" s="73"/>
+      <c r="AC37" s="71"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -4966,12 +4757,12 @@
       <c r="S38" s="43"/>
       <c r="T38" s="5"/>
       <c r="U38" s="44"/>
-      <c r="W38" s="72"/>
+      <c r="W38" s="70"/>
       <c r="X38" s="5"/>
-      <c r="Y38" s="73"/>
-      <c r="AA38" s="72"/>
+      <c r="Y38" s="71"/>
+      <c r="AA38" s="70"/>
       <c r="AB38" s="5"/>
-      <c r="AC38" s="73"/>
+      <c r="AC38" s="71"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -4994,12 +4785,12 @@
       <c r="S39" s="43"/>
       <c r="T39" s="5"/>
       <c r="U39" s="44"/>
-      <c r="W39" s="72"/>
+      <c r="W39" s="70"/>
       <c r="X39" s="5"/>
-      <c r="Y39" s="73"/>
-      <c r="AA39" s="72"/>
+      <c r="Y39" s="71"/>
+      <c r="AA39" s="70"/>
       <c r="AB39" s="5"/>
-      <c r="AC39" s="73"/>
+      <c r="AC39" s="71"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
@@ -5022,12 +4813,12 @@
       <c r="S40" s="43"/>
       <c r="T40" s="5"/>
       <c r="U40" s="44"/>
-      <c r="W40" s="72"/>
+      <c r="W40" s="70"/>
       <c r="X40" s="5"/>
-      <c r="Y40" s="73"/>
-      <c r="AA40" s="72"/>
+      <c r="Y40" s="71"/>
+      <c r="AA40" s="70"/>
       <c r="AB40" s="5"/>
-      <c r="AC40" s="73"/>
+      <c r="AC40" s="71"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -5050,12 +4841,12 @@
       <c r="S41" s="43"/>
       <c r="T41" s="5"/>
       <c r="U41" s="44"/>
-      <c r="W41" s="72"/>
+      <c r="W41" s="70"/>
       <c r="X41" s="5"/>
-      <c r="Y41" s="73"/>
-      <c r="AA41" s="72"/>
+      <c r="Y41" s="71"/>
+      <c r="AA41" s="70"/>
       <c r="AB41" s="5"/>
-      <c r="AC41" s="73"/>
+      <c r="AC41" s="71"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
@@ -5078,12 +4869,12 @@
       <c r="S42" s="43"/>
       <c r="T42" s="5"/>
       <c r="U42" s="44"/>
-      <c r="W42" s="72"/>
+      <c r="W42" s="70"/>
       <c r="X42" s="5"/>
-      <c r="Y42" s="73"/>
-      <c r="AA42" s="72"/>
+      <c r="Y42" s="71"/>
+      <c r="AA42" s="70"/>
       <c r="AB42" s="5"/>
-      <c r="AC42" s="73"/>
+      <c r="AC42" s="71"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
@@ -5106,19 +4897,19 @@
       <c r="S43" s="43"/>
       <c r="T43" s="5"/>
       <c r="U43" s="44"/>
-      <c r="W43" s="74"/>
+      <c r="W43" s="72"/>
       <c r="X43" s="6"/>
-      <c r="Y43" s="75"/>
-      <c r="AA43" s="74"/>
+      <c r="Y43" s="73"/>
+      <c r="AA43" s="72"/>
       <c r="AB43" s="6"/>
-      <c r="AC43" s="75"/>
+      <c r="AC43" s="73"/>
     </row>
     <row r="44" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="54"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="53"/>
-      <c r="E44" s="55"/>
+      <c r="E44" s="54"/>
       <c r="G44" s="43"/>
       <c r="H44" s="5"/>
       <c r="I44" s="44"/>
@@ -5132,78 +4923,78 @@
       <c r="S44" s="43"/>
       <c r="T44" s="5"/>
       <c r="U44" s="44"/>
-      <c r="W44" s="76"/>
-      <c r="X44" s="77"/>
-      <c r="Y44" s="78"/>
-      <c r="AA44" s="76"/>
-      <c r="AB44" s="77"/>
-      <c r="AC44" s="78"/>
+      <c r="W44" s="74"/>
+      <c r="X44" s="75"/>
+      <c r="Y44" s="76"/>
+      <c r="AA44" s="74"/>
+      <c r="AB44" s="75"/>
+      <c r="AC44" s="76"/>
     </row>
     <row r="45" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="99" t="s">
+      <c r="A45" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="100" t="s">
+      <c r="B45" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="100"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="101" t="s">
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="69" t="s">
+      <c r="G45" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="70" t="s">
+      <c r="H45" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I45" s="71" t="s">
+      <c r="I45" s="69" t="s">
         <v>5</v>
       </c>
       <c r="J45" s="1"/>
-      <c r="K45" s="69" t="s">
+      <c r="K45" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="70" t="s">
+      <c r="L45" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="M45" s="71" t="s">
+      <c r="M45" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="O45" s="64" t="s">
+      <c r="O45" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="65" t="s">
+      <c r="P45" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="Q45" s="66" t="s">
+      <c r="Q45" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="S45" s="61" t="s">
+      <c r="S45" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="T45" s="62" t="s">
+      <c r="T45" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="U45" s="63" t="s">
+      <c r="U45" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="W45" s="89" t="s">
+      <c r="W45" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="X45" s="90" t="s">
+      <c r="X45" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="Y45" s="91" t="s">
+      <c r="Y45" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="AA45" s="89" t="s">
+      <c r="AA45" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AB45" s="90" t="s">
+      <c r="AB45" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="AC45" s="91" t="s">
+      <c r="AC45" s="89" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5228,12 +5019,12 @@
       <c r="S46" s="43"/>
       <c r="T46" s="5"/>
       <c r="U46" s="44"/>
-      <c r="W46" s="85"/>
+      <c r="W46" s="83"/>
       <c r="X46" s="10"/>
-      <c r="Y46" s="88"/>
-      <c r="AA46" s="85"/>
+      <c r="Y46" s="86"/>
+      <c r="AA46" s="83"/>
       <c r="AB46" s="10"/>
-      <c r="AC46" s="88"/>
+      <c r="AC46" s="86"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
@@ -5256,12 +5047,12 @@
       <c r="S47" s="43"/>
       <c r="T47" s="5"/>
       <c r="U47" s="44"/>
-      <c r="W47" s="72"/>
+      <c r="W47" s="70"/>
       <c r="X47" s="5"/>
-      <c r="Y47" s="73"/>
-      <c r="AA47" s="72"/>
+      <c r="Y47" s="71"/>
+      <c r="AA47" s="70"/>
       <c r="AB47" s="5"/>
-      <c r="AC47" s="73"/>
+      <c r="AC47" s="71"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -5284,12 +5075,12 @@
       <c r="S48" s="43"/>
       <c r="T48" s="5"/>
       <c r="U48" s="44"/>
-      <c r="W48" s="72"/>
+      <c r="W48" s="70"/>
       <c r="X48" s="5"/>
-      <c r="Y48" s="73"/>
-      <c r="AA48" s="72"/>
+      <c r="Y48" s="71"/>
+      <c r="AA48" s="70"/>
       <c r="AB48" s="5"/>
-      <c r="AC48" s="73"/>
+      <c r="AC48" s="71"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -5312,18 +5103,18 @@
       <c r="S49" s="43"/>
       <c r="T49" s="5"/>
       <c r="U49" s="44"/>
-      <c r="W49" s="72"/>
+      <c r="W49" s="70"/>
       <c r="X49" s="5"/>
-      <c r="Y49" s="73"/>
-      <c r="AA49" s="72"/>
+      <c r="Y49" s="71"/>
+      <c r="AA49" s="70"/>
       <c r="AB49" s="5"/>
-      <c r="AC49" s="73"/>
+      <c r="AC49" s="71"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="15"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="18"/>
       <c r="E50" s="27"/>
@@ -5340,12 +5131,12 @@
       <c r="S50" s="43"/>
       <c r="T50" s="5"/>
       <c r="U50" s="44"/>
-      <c r="W50" s="72"/>
+      <c r="W50" s="70"/>
       <c r="X50" s="5"/>
-      <c r="Y50" s="73"/>
-      <c r="AA50" s="72"/>
+      <c r="Y50" s="71"/>
+      <c r="AA50" s="70"/>
       <c r="AB50" s="5"/>
-      <c r="AC50" s="73"/>
+      <c r="AC50" s="71"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
@@ -5368,12 +5159,12 @@
       <c r="S51" s="43"/>
       <c r="T51" s="5"/>
       <c r="U51" s="44"/>
-      <c r="W51" s="72"/>
+      <c r="W51" s="70"/>
       <c r="X51" s="5"/>
-      <c r="Y51" s="73"/>
-      <c r="AA51" s="72"/>
+      <c r="Y51" s="71"/>
+      <c r="AA51" s="70"/>
       <c r="AB51" s="5"/>
-      <c r="AC51" s="73"/>
+      <c r="AC51" s="71"/>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
@@ -5396,12 +5187,12 @@
       <c r="S52" s="43"/>
       <c r="T52" s="5"/>
       <c r="U52" s="44"/>
-      <c r="W52" s="72"/>
+      <c r="W52" s="70"/>
       <c r="X52" s="5"/>
-      <c r="Y52" s="73"/>
-      <c r="AA52" s="72"/>
+      <c r="Y52" s="71"/>
+      <c r="AA52" s="70"/>
       <c r="AB52" s="5"/>
-      <c r="AC52" s="73"/>
+      <c r="AC52" s="71"/>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
@@ -5424,12 +5215,12 @@
       <c r="S53" s="43"/>
       <c r="T53" s="5"/>
       <c r="U53" s="44"/>
-      <c r="W53" s="72"/>
+      <c r="W53" s="70"/>
       <c r="X53" s="5"/>
-      <c r="Y53" s="73"/>
-      <c r="AA53" s="72"/>
+      <c r="Y53" s="71"/>
+      <c r="AA53" s="70"/>
       <c r="AB53" s="5"/>
-      <c r="AC53" s="73"/>
+      <c r="AC53" s="71"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
@@ -5452,12 +5243,12 @@
       <c r="S54" s="43"/>
       <c r="T54" s="5"/>
       <c r="U54" s="44"/>
-      <c r="W54" s="72"/>
+      <c r="W54" s="70"/>
       <c r="X54" s="5"/>
-      <c r="Y54" s="73"/>
-      <c r="AA54" s="72"/>
+      <c r="Y54" s="71"/>
+      <c r="AA54" s="70"/>
       <c r="AB54" s="5"/>
-      <c r="AC54" s="73"/>
+      <c r="AC54" s="71"/>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
@@ -5480,19 +5271,19 @@
       <c r="S55" s="43"/>
       <c r="T55" s="5"/>
       <c r="U55" s="44"/>
-      <c r="W55" s="74"/>
+      <c r="W55" s="72"/>
       <c r="X55" s="6"/>
-      <c r="Y55" s="75"/>
-      <c r="AA55" s="74"/>
+      <c r="Y55" s="73"/>
+      <c r="AA55" s="72"/>
       <c r="AB55" s="6"/>
-      <c r="AC55" s="75"/>
+      <c r="AC55" s="73"/>
     </row>
     <row r="56" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="59"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="58"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="56"/>
       <c r="G56" s="43"/>
       <c r="H56" s="5"/>
       <c r="I56" s="44"/>
@@ -5506,12 +5297,12 @@
       <c r="S56" s="43"/>
       <c r="T56" s="5"/>
       <c r="U56" s="44"/>
-      <c r="W56" s="76"/>
-      <c r="X56" s="77"/>
-      <c r="Y56" s="78"/>
-      <c r="AA56" s="76"/>
-      <c r="AB56" s="77"/>
-      <c r="AC56" s="78"/>
+      <c r="W56" s="74"/>
+      <c r="X56" s="75"/>
+      <c r="Y56" s="76"/>
+      <c r="AA56" s="74"/>
+      <c r="AB56" s="75"/>
+      <c r="AC56" s="76"/>
     </row>
     <row r="57" spans="1:29" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G57" s="8"/>
@@ -5527,7 +5318,7 @@
       <c r="Y57" s="9"/>
     </row>
     <row r="58" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="98" t="s">
+      <c r="A58" s="96" t="s">
         <v>9</v>
       </c>
       <c r="B58" s="11" t="s">
@@ -5575,22 +5366,22 @@
       <c r="U58" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="W58" s="82" t="s">
+      <c r="W58" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="X58" s="83" t="s">
+      <c r="X58" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="Y58" s="84" t="s">
+      <c r="Y58" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AA58" s="82" t="s">
+      <c r="AA58" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AB58" s="83" t="s">
+      <c r="AB58" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="AC58" s="84" t="s">
+      <c r="AC58" s="82" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5598,9 +5389,9 @@
       <c r="A59" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="106"/>
-      <c r="C59" s="107"/>
-      <c r="D59" s="108"/>
+      <c r="B59" s="115"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="117"/>
       <c r="E59" s="50"/>
       <c r="G59" s="43"/>
       <c r="H59" s="5"/>
@@ -5615,12 +5406,12 @@
       <c r="S59" s="43"/>
       <c r="T59" s="5"/>
       <c r="U59" s="44"/>
-      <c r="W59" s="72"/>
+      <c r="W59" s="70"/>
       <c r="X59" s="5"/>
-      <c r="Y59" s="73"/>
-      <c r="AA59" s="72"/>
+      <c r="Y59" s="71"/>
+      <c r="AA59" s="70"/>
       <c r="AB59" s="5"/>
-      <c r="AC59" s="73"/>
+      <c r="AC59" s="71"/>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="51" t="s">
@@ -5645,12 +5436,12 @@
       <c r="S60" s="43"/>
       <c r="T60" s="5"/>
       <c r="U60" s="44"/>
-      <c r="W60" s="72"/>
+      <c r="W60" s="70"/>
       <c r="X60" s="5"/>
-      <c r="Y60" s="73"/>
-      <c r="AA60" s="72"/>
+      <c r="Y60" s="71"/>
+      <c r="AA60" s="70"/>
       <c r="AB60" s="5"/>
-      <c r="AC60" s="73"/>
+      <c r="AC60" s="71"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="51" t="s">
@@ -5675,12 +5466,12 @@
       <c r="S61" s="43"/>
       <c r="T61" s="5"/>
       <c r="U61" s="44"/>
-      <c r="W61" s="72"/>
+      <c r="W61" s="70"/>
       <c r="X61" s="5"/>
-      <c r="Y61" s="73"/>
-      <c r="AA61" s="72"/>
+      <c r="Y61" s="71"/>
+      <c r="AA61" s="70"/>
       <c r="AB61" s="5"/>
-      <c r="AC61" s="73"/>
+      <c r="AC61" s="71"/>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="51" t="s">
@@ -5705,12 +5496,12 @@
       <c r="S62" s="43"/>
       <c r="T62" s="5"/>
       <c r="U62" s="44"/>
-      <c r="W62" s="72"/>
+      <c r="W62" s="70"/>
       <c r="X62" s="5"/>
-      <c r="Y62" s="73"/>
-      <c r="AA62" s="72"/>
+      <c r="Y62" s="71"/>
+      <c r="AA62" s="70"/>
       <c r="AB62" s="5"/>
-      <c r="AC62" s="73"/>
+      <c r="AC62" s="71"/>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="51" t="s">
@@ -5735,12 +5526,12 @@
       <c r="S63" s="43"/>
       <c r="T63" s="5"/>
       <c r="U63" s="44"/>
-      <c r="W63" s="72"/>
+      <c r="W63" s="70"/>
       <c r="X63" s="5"/>
-      <c r="Y63" s="73"/>
-      <c r="AA63" s="72"/>
+      <c r="Y63" s="71"/>
+      <c r="AA63" s="70"/>
       <c r="AB63" s="5"/>
-      <c r="AC63" s="73"/>
+      <c r="AC63" s="71"/>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
@@ -5761,12 +5552,12 @@
       <c r="S64" s="43"/>
       <c r="T64" s="5"/>
       <c r="U64" s="44"/>
-      <c r="W64" s="72"/>
+      <c r="W64" s="70"/>
       <c r="X64" s="5"/>
-      <c r="Y64" s="73"/>
-      <c r="AA64" s="72"/>
+      <c r="Y64" s="71"/>
+      <c r="AA64" s="70"/>
       <c r="AB64" s="5"/>
-      <c r="AC64" s="73"/>
+      <c r="AC64" s="71"/>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="21"/>
@@ -5787,12 +5578,12 @@
       <c r="S65" s="43"/>
       <c r="T65" s="5"/>
       <c r="U65" s="44"/>
-      <c r="W65" s="72"/>
+      <c r="W65" s="70"/>
       <c r="X65" s="5"/>
-      <c r="Y65" s="73"/>
-      <c r="AA65" s="72"/>
+      <c r="Y65" s="71"/>
+      <c r="AA65" s="70"/>
       <c r="AB65" s="5"/>
-      <c r="AC65" s="73"/>
+      <c r="AC65" s="71"/>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
@@ -5813,12 +5604,12 @@
       <c r="S66" s="43"/>
       <c r="T66" s="5"/>
       <c r="U66" s="44"/>
-      <c r="W66" s="72"/>
+      <c r="W66" s="70"/>
       <c r="X66" s="5"/>
-      <c r="Y66" s="73"/>
-      <c r="AA66" s="72"/>
+      <c r="Y66" s="71"/>
+      <c r="AA66" s="70"/>
       <c r="AB66" s="5"/>
-      <c r="AC66" s="73"/>
+      <c r="AC66" s="71"/>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
@@ -5839,12 +5630,12 @@
       <c r="S67" s="43"/>
       <c r="T67" s="5"/>
       <c r="U67" s="44"/>
-      <c r="W67" s="72"/>
+      <c r="W67" s="70"/>
       <c r="X67" s="5"/>
-      <c r="Y67" s="73"/>
-      <c r="AA67" s="72"/>
+      <c r="Y67" s="71"/>
+      <c r="AA67" s="70"/>
       <c r="AB67" s="5"/>
-      <c r="AC67" s="73"/>
+      <c r="AC67" s="71"/>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
@@ -5865,12 +5656,12 @@
       <c r="S68" s="43"/>
       <c r="T68" s="5"/>
       <c r="U68" s="44"/>
-      <c r="W68" s="72"/>
+      <c r="W68" s="70"/>
       <c r="X68" s="5"/>
-      <c r="Y68" s="73"/>
-      <c r="AA68" s="72"/>
+      <c r="Y68" s="71"/>
+      <c r="AA68" s="70"/>
       <c r="AB68" s="5"/>
-      <c r="AC68" s="73"/>
+      <c r="AC68" s="71"/>
     </row>
     <row r="69" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="22"/>
@@ -5891,12 +5682,12 @@
       <c r="S69" s="45"/>
       <c r="T69" s="46"/>
       <c r="U69" s="47"/>
-      <c r="W69" s="76"/>
-      <c r="X69" s="77"/>
-      <c r="Y69" s="78"/>
-      <c r="AA69" s="76"/>
-      <c r="AB69" s="77"/>
-      <c r="AC69" s="78"/>
+      <c r="W69" s="74"/>
+      <c r="X69" s="75"/>
+      <c r="Y69" s="76"/>
+      <c r="AA69" s="74"/>
+      <c r="AB69" s="75"/>
+      <c r="AC69" s="76"/>
     </row>
     <row r="70" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -5904,174 +5695,198 @@
   <protectedRanges>
     <protectedRange sqref="W4:AC6 W58:Y69 W7:Y30 AA7:AC30 AA58:AC69 Z7:Z69" name="customEntities"/>
     <protectedRange sqref="A1" name="Titel"/>
-    <protectedRange sqref="A7:E29 G7:I29 K7:M29 O7:Q29 S7:U29 W7:Y29 AA7:AC29" name="Contact Fields"/>
+    <protectedRange sqref="A7:E29 G7:I29 K7:M29 O7:Q29 S7:U29 W7:Y29 AA7:AC29 B56:C56" name="Contact Fields"/>
     <protectedRange sqref="A64:E69 G59:I69 K59:M69 O59:Q69 S59:U69 W59:Y69 AA59:AC69" name="Questionnaire"/>
     <protectedRange sqref="A59:E63" name="Questionnaire_1"/>
     <protectedRange sqref="S31:U32 S45:U45 W31:Y32 W45:Y45 AA31:AC32 AA45:AC45" name="customEntities_2"/>
-    <protectedRange sqref="A46:E56 A33:E44 G46:I56 K46:M56 O46:Q56" name="Questionnaire_3"/>
+    <protectedRange sqref="G46:I56 K46:M56 O46:Q56 A33:E44 A46:E55 A56 D56:E56" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="21">
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="S4:U4"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="W31:Y31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="W10:Y30 K29:M30 O29:Q30 AA10:AK30 G7:I30 A7:E30">
-    <cfRule type="expression" dxfId="65" priority="71">
+    <cfRule type="expression" dxfId="47" priority="81">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="72">
+    <cfRule type="expression" dxfId="46" priority="82">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA59:AC69">
-    <cfRule type="expression" dxfId="63" priority="69">
+    <cfRule type="expression" dxfId="45" priority="79">
       <formula>$C59="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="70">
+    <cfRule type="expression" dxfId="44" priority="80">
       <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W59:Y69">
-    <cfRule type="expression" dxfId="61" priority="67">
+    <cfRule type="expression" dxfId="43" priority="77">
       <formula>$C59="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="68">
+    <cfRule type="expression" dxfId="42" priority="78">
       <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O59:Q69">
-    <cfRule type="expression" dxfId="59" priority="65">
+    <cfRule type="expression" dxfId="41" priority="75">
       <formula>$C59="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="66">
+    <cfRule type="expression" dxfId="40" priority="76">
       <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:M69">
-    <cfRule type="expression" dxfId="57" priority="63">
+    <cfRule type="expression" dxfId="39" priority="73">
       <formula>$C59="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="64">
+    <cfRule type="expression" dxfId="38" priority="74">
       <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:I69">
-    <cfRule type="expression" dxfId="55" priority="61">
+    <cfRule type="expression" dxfId="37" priority="71">
       <formula>$C59="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="62">
+    <cfRule type="expression" dxfId="36" priority="72">
       <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:U30">
-    <cfRule type="expression" dxfId="53" priority="53">
+    <cfRule type="expression" dxfId="35" priority="63">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="54">
+    <cfRule type="expression" dxfId="34" priority="64">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S59:U69">
-    <cfRule type="expression" dxfId="51" priority="51">
+    <cfRule type="expression" dxfId="33" priority="61">
       <formula>$C59="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="52">
+    <cfRule type="expression" dxfId="32" priority="62">
       <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S29:U29">
-    <cfRule type="expression" dxfId="49" priority="49">
+    <cfRule type="expression" dxfId="31" priority="59">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="50">
+    <cfRule type="expression" dxfId="30" priority="60">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:E57 G57:I57 K57:M57 O57:Q57 S57:U57 W57:Y57 AA57:AE57">
-    <cfRule type="expression" dxfId="47" priority="41">
+    <cfRule type="expression" dxfId="29" priority="51">
       <formula>$C57="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="42">
+    <cfRule type="expression" dxfId="28" priority="52">
       <formula>$D57="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:E32 A44:E45 G45:I45 G32:I32 K32:M32 K45:M45 O45:Q45 O32:Q32 S31:U32 S45:U45 W45:Y45 W31:Y32 AA31:AG56 A56:E56">
-    <cfRule type="expression" dxfId="45" priority="39">
+  <conditionalFormatting sqref="A31:E32 A45:E45 G45:I45 G32:I32 K32:M32 K45:M45 O45:Q45 O32:Q32 S31:U32 S45:U45 W45:Y45 W31:Y32 AA31:AG56 A56 A44 D44:E44 D56:E56">
+    <cfRule type="expression" dxfId="27" priority="49">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="40">
+    <cfRule type="expression" dxfId="26" priority="50">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W33:Y43 AA33:AC43">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="25" priority="21">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12">
+    <cfRule type="expression" dxfId="24" priority="22">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W46:Y55 AA46:AC55">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="23" priority="19">
       <formula>$C46="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>$D46="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W56:Y56 AA56:AC56">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="21" priority="17">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="20" priority="18">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W44:Y44 AA44:AC44">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="19" priority="15">
       <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="18" priority="16">
       <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S46:U56 O46:Q56 K46:M56 G46:I56 G33:I44 K33:M44 O33:Q44 S33:U44 S7:U28 O7:Q28 K7:M28">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:E55 A33:E43">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A33:E43 A46:E55">
+    <cfRule type="expression" dxfId="15" priority="11">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B44:C44">
+    <cfRule type="expression" dxfId="11" priority="7">
+      <formula>$C44="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="8">
+      <formula>$D44="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C56="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D56="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C56="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D56="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D29 C46:D56 C33:D44" xr:uid="{F107F338-F4E1-4846-B740-D5F4398D0DCB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D29 C33:D44 B50 C46:D56" xr:uid="{F107F338-F4E1-4846-B740-D5F4398D0DCB}">
       <formula1>"x"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I29 M7:M29 Q7:Q29 U7:U29 Y7:Y29 AC7:AC29 AC33:AC44 Y33:Y44 U33:U44 Q33:Q44 M33:M44 I33:I44 I46:I56 M46:M56 Q46:Q56 U46:U56 Y46:Y56 AC46:AC56 AC59:AC69 Y59:Y69 U59:U69 Q59:Q69 M59:M69 I59:I69" xr:uid="{4B2AC6D7-F193-4515-97FD-BE013153756D}">
@@ -6085,18 +5900,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6309,14 +6124,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -6329,6 +6136,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE88AFB-5BCF-495A-80B0-B90C11ACE730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8556B6-5463-43E2-9F17-8177699F247C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1899,6 +1899,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1926,138 +1965,11 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14990691854609822"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14990691854609822"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14990691854609822"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14990691854609822"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
+  <dxfs count="45">
     <dxf>
       <font>
         <b val="0"/>
@@ -2572,11 +2484,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="52"/>
-      <tableStyleElement type="headerRow" dxfId="51"/>
-      <tableStyleElement type="firstColumn" dxfId="50"/>
-      <tableStyleElement type="firstRowStripe" dxfId="49"/>
-      <tableStyleElement type="secondRowStripe" dxfId="48"/>
+      <tableStyleElement type="wholeTable" dxfId="44"/>
+      <tableStyleElement type="headerRow" dxfId="43"/>
+      <tableStyleElement type="firstColumn" dxfId="42"/>
+      <tableStyleElement type="firstRowStripe" dxfId="41"/>
+      <tableStyleElement type="secondRowStripe" dxfId="40"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3268,8 +3180,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:AC70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC59" activeCellId="23" sqref="I7:I29 M7:M29 Q7:Q29 U7:U29 Y7:Y29 AC7:AC29 I33:I44 M33:M44 Q33:Q44 U33:U44 Y33:Y44 AC33:AC44 I46:I56 M46:M56 Q46:Q56 U46:U56 Y46:Y56 AC46:AC56 I59:I69 M59:M69 Q59:Q69 U59:U69 Y59:Y69 AC59:AC69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3337,37 +3249,37 @@
         <v>68</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="G4" s="121" t="s">
+      <c r="G4" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="121" t="s">
+      <c r="K4" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="O4" s="121" t="s">
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="O4" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="121"/>
-      <c r="S4" s="121" t="s">
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="S4" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="T4" s="121"/>
-      <c r="U4" s="121"/>
-      <c r="W4" s="118" t="s">
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="W4" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="119"/>
-      <c r="Y4" s="120"/>
-      <c r="AA4" s="118" t="s">
+      <c r="X4" s="101"/>
+      <c r="Y4" s="102"/>
+      <c r="AA4" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="120"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="102"/>
     </row>
     <row r="5" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4492,32 +4404,32 @@
       <c r="C31" s="90"/>
       <c r="D31" s="90"/>
       <c r="E31" s="91"/>
-      <c r="G31" s="100" t="s">
+      <c r="G31" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="H31" s="101"/>
-      <c r="I31" s="102"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="115"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="100" t="s">
+      <c r="K31" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="L31" s="101"/>
-      <c r="M31" s="102"/>
-      <c r="O31" s="100" t="s">
+      <c r="L31" s="114"/>
+      <c r="M31" s="115"/>
+      <c r="O31" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="102"/>
-      <c r="S31" s="103" t="s">
+      <c r="P31" s="114"/>
+      <c r="Q31" s="115"/>
+      <c r="S31" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="T31" s="104"/>
-      <c r="U31" s="105"/>
-      <c r="W31" s="106" t="s">
+      <c r="T31" s="117"/>
+      <c r="U31" s="118"/>
+      <c r="W31" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="X31" s="107"/>
-      <c r="Y31" s="108"/>
+      <c r="X31" s="120"/>
+      <c r="Y31" s="121"/>
       <c r="AA31" s="77" t="s">
         <v>102</v>
       </c>
@@ -5389,9 +5301,9 @@
       <c r="A59" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="115"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="117"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="106"/>
       <c r="E59" s="50"/>
       <c r="G59" s="43"/>
       <c r="H59" s="5"/>
@@ -5417,11 +5329,11 @@
       <c r="A60" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="109" t="s">
+      <c r="B60" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="110"/>
-      <c r="D60" s="111"/>
+      <c r="C60" s="108"/>
+      <c r="D60" s="109"/>
       <c r="E60" s="50"/>
       <c r="G60" s="43"/>
       <c r="H60" s="5"/>
@@ -5447,11 +5359,11 @@
       <c r="A61" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="109" t="s">
+      <c r="B61" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="110"/>
-      <c r="D61" s="111"/>
+      <c r="C61" s="108"/>
+      <c r="D61" s="109"/>
       <c r="E61" s="50"/>
       <c r="G61" s="43"/>
       <c r="H61" s="5"/>
@@ -5477,11 +5389,11 @@
       <c r="A62" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="109" t="s">
+      <c r="B62" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="110"/>
-      <c r="D62" s="111"/>
+      <c r="C62" s="108"/>
+      <c r="D62" s="109"/>
       <c r="E62" s="50"/>
       <c r="G62" s="43"/>
       <c r="H62" s="5"/>
@@ -5507,11 +5419,11 @@
       <c r="A63" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="109" t="s">
+      <c r="B63" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="110"/>
-      <c r="D63" s="111"/>
+      <c r="C63" s="108"/>
+      <c r="D63" s="109"/>
       <c r="E63" s="50"/>
       <c r="G63" s="43"/>
       <c r="H63" s="5"/>
@@ -5561,9 +5473,9 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="21"/>
-      <c r="B65" s="109"/>
-      <c r="C65" s="110"/>
-      <c r="D65" s="111"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="108"/>
+      <c r="D65" s="109"/>
       <c r="E65" s="25"/>
       <c r="G65" s="43"/>
       <c r="H65" s="5"/>
@@ -5587,9 +5499,9 @@
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
-      <c r="B66" s="109"/>
-      <c r="C66" s="110"/>
-      <c r="D66" s="111"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="108"/>
+      <c r="D66" s="109"/>
       <c r="E66" s="25"/>
       <c r="G66" s="43"/>
       <c r="H66" s="5"/>
@@ -5613,9 +5525,9 @@
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
-      <c r="B67" s="109"/>
-      <c r="C67" s="110"/>
-      <c r="D67" s="111"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="108"/>
+      <c r="D67" s="109"/>
       <c r="E67" s="25"/>
       <c r="G67" s="43"/>
       <c r="H67" s="5"/>
@@ -5639,9 +5551,9 @@
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
-      <c r="B68" s="109"/>
-      <c r="C68" s="110"/>
-      <c r="D68" s="111"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="108"/>
+      <c r="D68" s="109"/>
       <c r="E68" s="25"/>
       <c r="G68" s="43"/>
       <c r="H68" s="5"/>
@@ -5665,9 +5577,9 @@
     </row>
     <row r="69" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="22"/>
-      <c r="B69" s="112"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="114"/>
+      <c r="B69" s="110"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="112"/>
       <c r="E69" s="26"/>
       <c r="G69" s="45"/>
       <c r="H69" s="46"/>
@@ -5702,170 +5614,170 @@
     <protectedRange sqref="G46:I56 K46:M56 O46:Q56 A33:E44 A46:E55 A56 D56:E56" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="21">
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="S4:U4"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="W31:Y31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="W10:Y30 K29:M30 O29:Q30 AA10:AK30 G7:I30 A7:E30">
-    <cfRule type="expression" dxfId="47" priority="81">
+    <cfRule type="expression" dxfId="39" priority="81">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="82">
+    <cfRule type="expression" dxfId="38" priority="82">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA59:AC69">
-    <cfRule type="expression" dxfId="45" priority="79">
+    <cfRule type="expression" dxfId="37" priority="79">
       <formula>$C59="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="80">
+    <cfRule type="expression" dxfId="36" priority="80">
       <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W59:Y69">
-    <cfRule type="expression" dxfId="43" priority="77">
+    <cfRule type="expression" dxfId="35" priority="77">
       <formula>$C59="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="78">
+    <cfRule type="expression" dxfId="34" priority="78">
       <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O59:Q69">
-    <cfRule type="expression" dxfId="41" priority="75">
+    <cfRule type="expression" dxfId="33" priority="75">
       <formula>$C59="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="76">
+    <cfRule type="expression" dxfId="32" priority="76">
       <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:M69">
-    <cfRule type="expression" dxfId="39" priority="73">
+    <cfRule type="expression" dxfId="31" priority="73">
       <formula>$C59="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="74">
+    <cfRule type="expression" dxfId="30" priority="74">
       <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:I69">
-    <cfRule type="expression" dxfId="37" priority="71">
+    <cfRule type="expression" dxfId="29" priority="71">
       <formula>$C59="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="72">
+    <cfRule type="expression" dxfId="28" priority="72">
       <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:U30">
-    <cfRule type="expression" dxfId="35" priority="63">
+    <cfRule type="expression" dxfId="27" priority="63">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="64">
+    <cfRule type="expression" dxfId="26" priority="64">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S59:U69">
-    <cfRule type="expression" dxfId="33" priority="61">
+    <cfRule type="expression" dxfId="25" priority="61">
       <formula>$C59="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="62">
+    <cfRule type="expression" dxfId="24" priority="62">
       <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S29:U29">
-    <cfRule type="expression" dxfId="31" priority="59">
+    <cfRule type="expression" dxfId="23" priority="59">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="60">
+    <cfRule type="expression" dxfId="22" priority="60">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:E57 G57:I57 K57:M57 O57:Q57 S57:U57 W57:Y57 AA57:AE57">
-    <cfRule type="expression" dxfId="29" priority="51">
+    <cfRule type="expression" dxfId="21" priority="51">
       <formula>$C57="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="52">
+    <cfRule type="expression" dxfId="20" priority="52">
       <formula>$D57="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:E32 A45:E45 G45:I45 G32:I32 K32:M32 K45:M45 O45:Q45 O32:Q32 S31:U32 S45:U45 W45:Y45 W31:Y32 AA31:AG56 A56 A44 D44:E44 D56:E56">
-    <cfRule type="expression" dxfId="27" priority="49">
+    <cfRule type="expression" dxfId="19" priority="49">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="50">
+    <cfRule type="expression" dxfId="18" priority="50">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W33:Y43 AA33:AC43">
-    <cfRule type="expression" dxfId="25" priority="21">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="22">
+    <cfRule type="expression" dxfId="16" priority="22">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W46:Y55 AA46:AC55">
-    <cfRule type="expression" dxfId="23" priority="19">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>$C46="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="20">
+    <cfRule type="expression" dxfId="14" priority="20">
       <formula>$D46="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W56:Y56 AA56:AC56">
-    <cfRule type="expression" dxfId="21" priority="17">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="18">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W44:Y44 AA44:AC44">
-    <cfRule type="expression" dxfId="19" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="16">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S46:U56 O46:Q56 K46:M56 G46:I56 G33:I44 K33:M44 O33:Q44 S33:U44 S7:U28 O7:Q28 K7:M28">
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:E43 A46:E55">
-    <cfRule type="expression" dxfId="15" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:C44">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5889,8 +5801,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D29 C33:D44 B50 C46:D56" xr:uid="{F107F338-F4E1-4846-B740-D5F4398D0DCB}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I29 M7:M29 Q7:Q29 U7:U29 Y7:Y29 AC7:AC29 AC33:AC44 Y33:Y44 U33:U44 Q33:Q44 M33:M44 I33:I44 I46:I56 M46:M56 Q46:Q56 U46:U56 Y46:Y56 AC46:AC56 AC59:AC69 Y59:Y69 U59:U69 Q59:Q69 M59:M69 I59:I69" xr:uid="{4B2AC6D7-F193-4515-97FD-BE013153756D}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I29 M7:M29 Q7:Q29 U7:U29 Y7:Y29 AC7:AC29 I33:I44 M33:M44 Q33:Q44 U33:U44 Y33:Y44 AC33:AC44 I46:I56 M46:M56 Q46:Q56 U46:U56 Y46:Y56 AC46:AC56 I59:I69 M59:M69 Q59:Q69 U59:U69 Y59:Y69 AC59:AC69" xr:uid="{0F0F477A-1AC4-447F-AC15-677D8434B308}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5900,18 +5812,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6124,6 +6036,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -6136,14 +6056,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
